--- a/fslogix-ANF-calculator.xlsx
+++ b/fslogix-ANF-calculator.xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="7" documentId="8_{92B0DB43-5DD2-4B35-8276-E8F344F49E02}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{6C905E01-A112-4748-88FD-0E6DF6459D3D}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="ndZNCZJBhvHEZ6ecM4LG4JK89DH8DsJD2GusS6CiAVRt9OjSV2xPKN5fXuzr29rOTpwmNZYdzqFGJkIiNBLh5w==" workbookSaltValue="wC7jlL0OHhGQ9f2ZcebBZw==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="46" documentId="8_{9E8F8E0A-DA89-4794-9BF7-793F16CB63D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D2393F3A-7936-4EF2-830F-5CAF3F380D85}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Md2TR1dwuS5jMH/uVT84RWN4qd+2Qpy1Yi0XsSa2NHc+Iuxt6a5dHsCdAm1hwh6vo2oyWMoL9R0YqkSKb7zq0A==" workbookSaltValue="zM+Yc647KX9tv0Tw6Wicog==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
   <sheets>
     <sheet name="FSLogix Calculator" sheetId="1" r:id="rId1"/>
-    <sheet name="Azure NetApp Files Calcuations" sheetId="3" state="hidden" r:id="rId2"/>
-    <sheet name="Azure Files Calculations" sheetId="4" state="hidden" r:id="rId3"/>
+    <sheet name="Azure NetApp Files Calcuations" sheetId="3" r:id="rId2"/>
+    <sheet name="Azure Files Calculations" sheetId="4" r:id="rId3"/>
     <sheet name="definitions" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="Throughput Test" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="191029" iterate="1" iterateCount="3"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -38,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="301" uniqueCount="168">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="169">
   <si>
     <t>seconds in an hour</t>
   </si>
@@ -292,9 +292,6 @@
     <t>Azure Premium Files</t>
   </si>
   <si>
-    <t>FSLogix Storage Calculator</t>
-  </si>
-  <si>
     <t>Standard: Select Capacity/Bandwidth/Capacity Pool Minimum (English)</t>
   </si>
   <si>
@@ -542,6 +539,12 @@
   </si>
   <si>
     <t>Does Single ANF Volume Support User Count?</t>
+  </si>
+  <si>
+    <t>More than one volume is required</t>
+  </si>
+  <si>
+    <t>WVD Storage Calculator</t>
   </si>
 </sst>
 </file>
@@ -718,7 +721,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="81">
+  <cellXfs count="79">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -835,9 +838,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -922,14 +922,31 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="106">
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -942,11 +959,194 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF006100"/>
+        <color rgb="FF9C5700"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -992,11 +1192,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1012,11 +1212,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1031,6 +1241,126 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1042,6 +1372,76 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1072,6 +1472,26 @@
     </dxf>
     <dxf>
       <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1089,369 +1509,6 @@
           <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
     </dxf>
     <dxf>
       <numFmt numFmtId="0" formatCode="General"/>
@@ -3631,84 +3688,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" tableBorderDxfId="97">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104" tableBorderDxfId="103">
   <autoFilter ref="A2:B9" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="102"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="101"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="57">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="47">
   <autoFilter ref="A22:B47" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="56"/>
-    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="55"/>
+    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="45"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99" tableBorderDxfId="98">
   <autoFilter ref="A28:B32" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="90"/>
+    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="97"/>
+    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="96"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="89" tableBorderDxfId="88">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="95" tableBorderDxfId="94">
   <autoFilter ref="A11:B16" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="86"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="93"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="92"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="85" tableBorderDxfId="84">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="91" tableBorderDxfId="90">
   <autoFilter ref="A36:B38" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="82"/>
+    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="89"/>
+    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="88"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B20" totalsRowShown="0" dataDxfId="81" tableBorderDxfId="80">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B20" totalsRowShown="0" dataDxfId="87" tableBorderDxfId="86">
   <autoFilter ref="A18:B20" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="78"/>
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="85"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="84"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="77" tableBorderDxfId="76">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="83" tableBorderDxfId="82">
   <autoFilter ref="D18:H26" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="72">
+    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="81" totalsRowDxfId="80"/>
+    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="79"/>
+    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="78">
       <calculatedColumnFormula>IF(E20&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="71">
+    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="77">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="70">
+    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="76">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3717,18 +3774,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="75" tableBorderDxfId="74">
   <autoFilter ref="D28:H34" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="66">
+    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="72">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="65">
+    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="71">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="64">
+    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="70">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3737,15 +3794,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="63" tableBorderDxfId="62">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="D36:G42" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="60">
+    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="66">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="59">
+    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="65">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3760,7 +3817,7 @@
     <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
     <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
     <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
-    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="58"/>
+    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="48"/>
     <tableColumn id="5" xr3:uid="{5EBEBC80-5940-4420-B7CB-91D5FC7DF075}" name="Read Percenage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4070,7 +4127,7 @@
   <dimension ref="A1:H112"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="B4" sqref="B4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4079,17 +4136,17 @@
     <col min="2" max="2" width="77.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="4" width="85.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="28.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="78"/>
+      <c r="A1" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="B1" s="77"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -4109,12 +4166,12 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="B4" s="32">
         <v>15</v>
       </c>
-      <c r="D4" s="57"/>
+      <c r="D4" s="56"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
@@ -4126,7 +4183,7 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B6" s="47">
         <v>1</v>
@@ -4140,23 +4197,23 @@
       <c r="B7" s="32">
         <v>40</v>
       </c>
-      <c r="D7" s="75"/>
+      <c r="D7" s="74"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B8" s="32">
         <v>32</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
+      <c r="D8" s="74"/>
+      <c r="E8" s="74"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="62">
+        <v>137</v>
+      </c>
+      <c r="B9" s="61">
         <v>0.2</v>
       </c>
     </row>
@@ -4183,7 +4240,7 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B13" s="18">
         <f>(B$4*B$8*B$3*B$6)/1024</f>
@@ -4218,16 +4275,16 @@
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
+      <c r="A17" s="78" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
+      <c r="B17" s="78"/>
+      <c r="C17" s="78"/>
+      <c r="D17" s="78"/>
+      <c r="E17" s="78"/>
+      <c r="F17" s="78"/>
+      <c r="G17" s="78"/>
+      <c r="H17" s="78"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
@@ -4252,155 +4309,155 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="51" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="50" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="54">
-        <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"N/A: User Count Excceds Capability Of Single Azure NetApp Files Volume")</f>
+      <c r="B19" s="53">
+        <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"Recommend Adding Additional ANF Volumes")</f>
         <v>616.5</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="48" t="str">
-        <f>_xlfn.XLOOKUP("No",'Azure NetApp Files Calcuations'!B35:B36,'Azure NetApp Files Calcuations'!B35:B36,"Yes")</f>
+        <v>166</v>
+      </c>
+      <c r="E19" s="51" t="str">
+        <f>_xlfn.XLOOKUP("No",'Azure NetApp Files Calcuations'!B35:B36,'Azure NetApp Files Calcuations'!C35:C36,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F19" s="59" t="str">
+      <c r="F19" s="58" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes","Yes",definitions!$A$23)</f>
         <v>Yes</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="65" t="str">
+      <c r="G19" s="65"/>
+      <c r="H19" s="64" t="str">
         <f>IF(B3&gt;E24,"Required bandwidth exceeds single ANF volume tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="49">
+      <c r="B20" s="48">
         <f>IF(E19="Yes",IF($E$21=definitions!A$23,B$19,B$19/B$3),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
         <v>4.5</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="52">
+        <v>143</v>
+      </c>
+      <c r="E20" s="51">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$31:$C$33,'Azure NetApp Files Calcuations'!$B$31:$B$33),"No")</f>
         <v>4110</v>
       </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-    </row>
-    <row r="21" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F20" s="52"/>
+      <c r="G20" s="66"/>
+      <c r="H20" s="66"/>
+    </row>
+    <row r="21" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
-      <c r="B21" s="50"/>
+      <c r="B21" s="49"/>
       <c r="D21" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="52" t="str">
+        <v>107</v>
+      </c>
+      <c r="E21" s="51" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",(_xlfn.XLOOKUP(MIN('Azure NetApp Files Calcuations'!$B$38:$B$40),'Azure NetApp Files Calcuations'!$B$38:$B$40,'Azure NetApp Files Calcuations'!$C$38:$C$40)),"No")</f>
         <v>Standard</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-    </row>
-    <row r="22" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="64"/>
-      <c r="B22" s="80"/>
+      <c r="F21" s="52"/>
+      <c r="G21" s="66"/>
+      <c r="H21" s="66"/>
+    </row>
+    <row r="22" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="35"/>
+      <c r="B22" s="49"/>
       <c r="D22" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="52" t="str">
-        <f>IF(E19="No","No",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
+        <v>150</v>
+      </c>
+      <c r="E22" s="51" t="str">
+        <f>IF(E19="More than one volume is required","No",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
         <v>Bandwidth</v>
       </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-    </row>
-    <row r="23" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F22" s="52"/>
+      <c r="G22" s="66"/>
+      <c r="H22" s="66"/>
+    </row>
+    <row r="23" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="50"/>
+      <c r="B23" s="49"/>
       <c r="D23" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="52">
+        <v>148</v>
+      </c>
+      <c r="E23" s="51">
         <f>IF(E19="Yes",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$42:$C$44,'Azure NetApp Files Calcuations'!$B$42:$B$44,definitions!A$23)),"No")</f>
         <v>30</v>
       </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-    </row>
-    <row r="24" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F23" s="52"/>
+      <c r="G23" s="66"/>
+      <c r="H23" s="66"/>
+    </row>
+    <row r="24" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A24" s="35"/>
-      <c r="B24" s="49"/>
-      <c r="D24" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="69">
+      <c r="B24" s="48"/>
+      <c r="D24" s="63" t="s">
+        <v>102</v>
+      </c>
+      <c r="E24" s="68">
         <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
         <v>4689</v>
       </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-    </row>
-    <row r="25" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F24" s="67"/>
+      <c r="G24" s="66"/>
+      <c r="H24" s="66"/>
+    </row>
+    <row r="25" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A25" s="35"/>
-      <c r="B25" s="49"/>
-      <c r="D25" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="69">
+      <c r="B25" s="48"/>
+      <c r="D25" s="63" t="s">
+        <v>147</v>
+      </c>
+      <c r="E25" s="68">
         <f>'Azure NetApp Files Calcuations'!B5</f>
         <v>3413</v>
       </c>
-      <c r="F25" s="68" t="str">
+      <c r="F25" s="67" t="str">
         <f>IF(E26&gt;definitions!B30,definitions!$A$23,"Yes")</f>
         <v>Required capacity exceeds documented single ANF volume 100TiB upper limit</v>
       </c>
-      <c r="G25" s="68" t="str">
+      <c r="G25" s="67" t="str">
         <f>IF(B9&gt;E28,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="H25" s="68" t="str">
+      <c r="H25" s="67" t="str">
         <f>IF(B9&gt;E28,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
-      <c r="B26" s="49"/>
-      <c r="D26" s="55" t="str">
+      <c r="B26" s="48"/>
+      <c r="D26" s="54" t="str">
         <f>IF(E22="Capacity Pool Minimum Size","# Of Users At Min Capacity Pool Size ","Temporarily Empty Field")</f>
         <v>Temporarily Empty Field</v>
       </c>
-      <c r="E26" s="56" t="str">
+      <c r="E26" s="55" t="str">
         <f>IF(E22="Capacity Pool Minimum Size",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$15:$C$17,'Azure NetApp Files Calcuations'!$B$15:$B$17),"Temporarily Empty Field")</f>
         <v>Temporarily Empty Field</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
+      <c r="F26" s="62"/>
+      <c r="G26" s="66"/>
+      <c r="H26" s="66"/>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="79" t="s">
+      <c r="A27" s="78" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
+      <c r="B27" s="78"/>
+      <c r="C27" s="78"/>
+      <c r="D27" s="78"/>
+      <c r="E27" s="78"/>
+      <c r="F27" s="78"/>
+      <c r="G27" s="78"/>
+      <c r="H27" s="78"/>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
@@ -4415,13 +4472,13 @@
       <c r="E28" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="58" t="s">
+      <c r="F28" s="57" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="58" t="s">
+      <c r="G28" s="57" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="58" t="s">
+      <c r="H28" s="57" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4429,26 +4486,26 @@
       <c r="A29" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="54">
+      <c r="B29" s="53">
         <f>IF(E29="Yes",B$32+B$31,"N/A: User Count Exceeds Capability Of Single Azure Files Storage Account")</f>
         <v>438.94799999999998</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E29" s="35" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$2:$C$4,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F29" s="71" t="str">
+      <c r="F29" s="70" t="str">
         <f>'Azure Files Calculations'!$B$4</f>
         <v>Yes</v>
       </c>
-      <c r="G29" s="59" t="str">
+      <c r="G29" s="58" t="str">
         <f>'Azure Files Calculations'!$B$2</f>
         <v>Yes</v>
       </c>
-      <c r="H29" s="59" t="str">
+      <c r="H29" s="58" t="str">
         <f>'Azure Files Calculations'!$B$3</f>
         <v>Yes</v>
       </c>
@@ -4457,7 +4514,7 @@
       <c r="A30" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="49">
+      <c r="B30" s="48">
         <f>IF(E29="Yes",B$29/B$3,"N/A: User Count Exceeds Capability Of Azure Files")</f>
         <v>3.2039999999999997</v>
       </c>
@@ -4476,7 +4533,7 @@
       <c r="A31" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="49">
+      <c r="B31" s="48">
         <f>IF(E29="Yes",((B4*B3*B6*definitions!B$32*B$7*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of Azure Files")</f>
         <v>192.34799999999998</v>
       </c>
@@ -4495,12 +4552,12 @@
       <c r="A32" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="49">
+      <c r="B32" s="48">
         <f>IF(E29="Yes",B$5*B$3*B6*definitions!B$35,"N/A: User Count Exceeds Capability Of Azure Files")</f>
         <v>246.6</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="E32" s="18">
         <f>FLOOR(   (definitions!$B$38/$B$4)*(1/$B$6),1)</f>
@@ -4512,9 +4569,9 @@
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
-      <c r="B33" s="49"/>
+      <c r="B33" s="48"/>
       <c r="D33" s="27" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="E33" s="18">
         <f>FLOOR((   (1024*definitions!$B$39)   /   ('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$8)  ) * (1/$B$6   ),1)</f>
@@ -4525,27 +4582,27 @@
       <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="64" t="s">
-        <v>146</v>
+      <c r="D34" s="63" t="s">
+        <v>145</v>
       </c>
       <c r="E34" s="17">
         <f>definitions!B41/'FSLogix Calculator'!B5</f>
         <v>3413.3333333333335</v>
       </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
+      <c r="F34" s="69"/>
+      <c r="G34" s="69"/>
+      <c r="H34" s="69"/>
     </row>
     <row r="35" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79" t="s">
+      <c r="A35" s="78" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
+      <c r="B35" s="78"/>
+      <c r="C35" s="78"/>
+      <c r="D35" s="78"/>
+      <c r="E35" s="78"/>
+      <c r="F35" s="78"/>
+      <c r="G35" s="78"/>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
@@ -4571,22 +4628,22 @@
       <c r="A37" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="54">
+      <c r="B37" s="53">
         <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calculator'!B3*'FSLogix Calculator'!B4,definitions!B37*'FSLogix Calculator'!B5*'FSLogix Calculator'!B3),"N/A: User Count Exceeds Capability Of Single Azure Premium Files Storage Account")</f>
         <v>1027.5</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="E37" s="35" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$5:$C$7,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F37" s="72" t="str">
+      <c r="F37" s="71" t="str">
         <f>'Azure Files Calculations'!$B$6</f>
         <v>Yes</v>
       </c>
-      <c r="G37" s="72" t="str">
+      <c r="G37" s="71" t="str">
         <f>'Azure Files Calculations'!$B$5</f>
         <v>Yes</v>
       </c>
@@ -4600,7 +4657,7 @@
         <v>7.5</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="E38" s="18">
         <f>'Azure Files Calculations'!C14</f>
@@ -4611,7 +4668,7 @@
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D39" s="8" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="E39" s="17">
         <f>IF('Azure Files Calculations'!$C$6="Yes",E$38/$B$3,"No")</f>
@@ -4625,7 +4682,7 @@
       <c r="B40" s="17"/>
       <c r="C40" s="8"/>
       <c r="D40" s="27" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="E40" s="22" t="str">
         <f>'Azure Files Calculations'!B14</f>
@@ -4639,7 +4696,7 @@
       <c r="B41" s="17"/>
       <c r="C41" s="8"/>
       <c r="D41" s="27" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="E41" s="18">
         <f>FLOOR(( definitions!$B$40/$B$4) * (1/$B$6),1)</f>
@@ -4650,8 +4707,8 @@
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
-      <c r="D42" s="64" t="s">
-        <v>148</v>
+      <c r="D42" s="63" t="s">
+        <v>147</v>
       </c>
       <c r="E42" s="18">
         <f>definitions!B42/'FSLogix Calculator'!B5</f>
@@ -4660,119 +4717,146 @@
       <c r="F42" s="40"/>
       <c r="G42" s="45"/>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="59" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="60" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="61" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="62" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="63" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="64" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
+    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="28"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="7"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="60"/>
+    <row r="73" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A73" s="59"/>
       <c r="B73" s="6"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="60"/>
+    <row r="80" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A80" s="59"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="29"/>
     </row>
-    <row r="83" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" s="9" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="7"/>
       <c r="C83" s="1"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
+    <row r="84" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A84" s="59"/>
       <c r="B84" s="6"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
+    <row r="85" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A85" s="59"/>
       <c r="B85" s="10"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" s="9" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="8"/>
       <c r="C87"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" s="9" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="7"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="5"/>
       <c r="C89" s="11"/>
@@ -4798,14 +4882,14 @@
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="60"/>
+      <c r="A93" s="59"/>
       <c r="B93" s="6"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="60"/>
+      <c r="A94" s="59"/>
       <c r="B94" s="10"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -4833,7 +4917,7 @@
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="60"/>
+      <c r="A98" s="59"/>
       <c r="B98" s="5"/>
       <c r="C98" s="11"/>
       <c r="D98" s="5"/>
@@ -4858,14 +4942,14 @@
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
+      <c r="A102" s="59"/>
       <c r="B102" s="6"/>
       <c r="C102" s="13"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
+      <c r="A103" s="59"/>
       <c r="B103" s="10"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -4904,7 +4988,7 @@
       <c r="E112" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="qP86RmqKnViSvKAt+EpA+qw/3gyUP3aZmQIeOf6QAaI6TKu2PaLCfNPPm51m6e+ZyEm7LfhtbbfbYQ7WdouEOw==" saltValue="sw4tRvRfNqnMxImiDpD43A==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="UWo9ub0sU5651LZo0m2JhI6kxTfBtKbj3/bT4W4g8uTbxYlw1IcO+oQMjINT8CLoaynUFtUSGwlpfm/BTiM8xw==" saltValue="QsZ4ID/1arTJCrFyTR2KmA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A27:H27"/>
@@ -4913,169 +4997,187 @@
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
   <conditionalFormatting sqref="A36:B39 A28:B34">
-    <cfRule type="cellIs" dxfId="54" priority="95" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="101" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:H31">
-    <cfRule type="containsText" dxfId="53" priority="25" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="52" priority="26" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="42" priority="32" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E23">
-    <cfRule type="cellIs" dxfId="51" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="50" priority="42" operator="equal">
+    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="49" priority="41" operator="equal">
+    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="48" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="47" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="1" priority="40" operator="equal">
       <formula>"""Yes"""</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="46" priority="40" operator="equal">
+    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
       <formula>"No"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="More">
+      <formula>NOT(ISERROR(SEARCH("More",E19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="45" priority="2" operator="containsText" text="Required">
+    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
+      <formula>"Required Capacity Exceeds documented 100TiB Upper Limit"</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
+      <formula>"""Required Capacity Exceeds documented 100TiB Upper Limit"""</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="36" priority="43" operator="containsText" text="&quot;Required&quot;">
+      <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="35" priority="44" operator="containsText" text="&quot;Required&quot;">
+      <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
+      <formula>"Yes"</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="44" priority="35" operator="equal">
-      <formula>"Required Capacity Exceeds documented 100TiB Upper Limit"</formula>
+    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",F19)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="43" priority="36" operator="equal">
-      <formula>"""Required Capacity Exceeds documented 100TiB Upper Limit"""</formula>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
+      <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="37" operator="containsText" text="&quot;Required&quot;">
-      <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
+    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
+      <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="41" priority="38" operator="containsText" text="&quot;Required&quot;">
-      <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="40" priority="39" operator="equal">
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="39" priority="31" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="38" priority="32" operator="equal">
-      <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="37" priority="30" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="36" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="35" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="28" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="33" priority="23" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="32" priority="24" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:G38 F40:G40">
-    <cfRule type="containsText" dxfId="31" priority="20" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="22" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="22" priority="28" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="29" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31 E20:E23">
-    <cfRule type="cellIs" dxfId="28" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="27" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="26" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="25" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="24" priority="10" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="23" priority="9" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="22" priority="8" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Recommend">
+      <formula>NOT(ISERROR(SEARCH("Recommend",B19)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="21" priority="7" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="20" priority="6" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="19" priority="5" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="18" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",H19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="17" priority="3" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",H19)))</formula>
+    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -5106,7 +5208,7 @@
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
   <ignoredErrors>
-    <ignoredError sqref="F19" calculatedColumn="1"/>
+    <ignoredError sqref="F19 G25:H25 H19" calculatedColumn="1"/>
   </ignoredErrors>
   <tableParts count="8">
     <tablePart r:id="rId2"/>
@@ -5186,8 +5288,8 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+    <sheetView topLeftCell="A24" workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5214,7 +5316,7 @@
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="B3" s="15">
         <f>'FSLogix Calculator'!B$5</f>
@@ -5224,23 +5326,23 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="B4" s="2">
         <f>_xlfn.XLOOKUP('FSLogix Calculator'!B$9,'Throughput Test'!G2:G12,'Throughput Test'!P$2:P$12)</f>
         <v>2198</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="60"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="B5" s="2">
         <f>FLOOR(definitions!B24/'FSLogix Calculator'!B$5,1)</f>
         <v>3413</v>
       </c>
-      <c r="C5" s="61"/>
+      <c r="C5" s="60"/>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -5285,7 +5387,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="B11" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B$30</f>
@@ -5297,7 +5399,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B12" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B28</f>
@@ -5309,7 +5411,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B13" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B26</f>
@@ -5367,7 +5469,7 @@
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="B19" s="15" t="str">
         <f>IF(B$2&gt;B7,"Capacity","Bandwidth")</f>
@@ -5379,7 +5481,7 @@
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="B20" s="15" t="str">
         <f>IF(B$2&gt;B8,"Capacity","Bandwidth")</f>
@@ -5391,7 +5493,7 @@
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B21" s="15" t="str">
         <f>IF(B$2&gt;B9,"Capacity","Bandwidth")</f>
@@ -5408,7 +5510,7 @@
     </row>
     <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="B23" s="15">
         <f>IF(B$2&gt;B7,B$2,B7)</f>
@@ -5420,7 +5522,7 @@
     </row>
     <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="B24" s="15">
         <f>IF(B$2&gt;B8,B$2,B8)</f>
@@ -5432,7 +5534,7 @@
     </row>
     <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B25" s="15">
         <f>IF(B$2&gt;B9,B$2,B9)</f>
@@ -5449,7 +5551,7 @@
     </row>
     <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B27" s="15" t="str">
         <f>IF(B23&gt;definitions!B$31,B19,"Capacity Pool Minimum Size")</f>
@@ -5461,7 +5563,7 @@
     </row>
     <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="B28" s="15" t="str">
         <f>IF(B24&gt;definitions!B$31,B20,"Capacity Pool Minimum Size")</f>
@@ -5473,7 +5575,7 @@
     </row>
     <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B29" s="15" t="str">
         <f>IF(B25&gt;definitions!B$31,B21,"Capacity Pool Minimum Size")</f>
@@ -5490,7 +5592,7 @@
     </row>
     <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B31" s="15">
         <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
@@ -5502,7 +5604,7 @@
     </row>
     <row r="32" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="15">
         <f>IF(B24&gt;definitions!B$31,B24,definitions!B$31)</f>
@@ -5514,7 +5616,7 @@
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B33" s="15">
         <f>IF(B25&gt;definitions!B$31,B25,definitions!B$31)</f>
@@ -5531,32 +5633,36 @@
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="B35" s="15" t="str">
         <f>IF(MIN(B31:B33)&gt;definitions!B24,"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C35" s="3"/>
+      <c r="C35" s="3" t="s">
+        <v>167</v>
+      </c>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>IF('FSLogix Calculator'!B3&gt;('FSLogix Calculator'!E24),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C36" s="3"/>
+      <c r="C36" s="60" t="s">
+        <v>167</v>
+      </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
     </row>
     <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
+      <c r="C37" s="60"/>
+      <c r="D37" s="60"/>
+      <c r="E37" s="60"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -5744,8 +5850,8 @@
       <c r="D52" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="76" t="s">
-        <v>103</v>
+      <c r="A54" s="75" t="s">
+        <v>102</v>
       </c>
       <c r="B54">
         <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
@@ -5835,7 +5941,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B6" s="37" t="str">
         <f>IF(IF(('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6)&gt;('FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3),'FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6,'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3)&gt;definitions!B42,"Required capacity exceeds documented 100TiB upper limit","Yes")</f>
@@ -5853,7 +5959,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B8" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*(1-'FSLogix Calculator'!B9)))-definitions!B43)/definitions!B44</f>
@@ -5862,7 +5968,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B9" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*'FSLogix Calculator'!B9))-definitions!B45)/definitions!B46</f>
@@ -5871,31 +5977,31 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B10" s="15">
         <f>IF(B8&lt;100,100,B8)</f>
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="B11" s="15">
         <f>IF(B9&lt;100,100,B9)</f>
         <v>284.375</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(MAX(B10:B11),B10:B11,C10:C11)</f>
@@ -5908,7 +6014,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B13" t="str">
         <f>IF(B9&gt;'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6,"Bandwidth Need","I/O Need")</f>
@@ -5921,7 +6027,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="B14" t="str">
         <f>IF(C13&gt;'FSLogix Calculator'!B16,'Azure Files Calculations'!B13,"Profile Size")</f>
@@ -5933,81 +6039,81 @@
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="74"/>
+      <c r="B17" s="73"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="74"/>
+      <c r="B18" s="73"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="15" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="64" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="14" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="63" priority="16" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="13" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="62" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="containsText" dxfId="12" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="11" priority="5" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="10" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="59" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="9" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="12" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="8" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="7" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="56" priority="11" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="6" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsText" dxfId="5" priority="8" operator="containsText" text="No: Required ">
+    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="No: Required ">
       <formula>NOT(ISERROR(SEARCH("No: Required ",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="4" priority="7" operator="containsText" text="No:  Required ">
+    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="No:  Required ">
       <formula>NOT(ISERROR(SEARCH("No:  Required ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="3" priority="6" operator="containsText" text="No:">
+    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="No:">
       <formula>NOT(ISERROR(SEARCH("No:",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="2" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="cellIs" dxfId="1" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6046,7 +6152,7 @@
         <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6214,7 +6320,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="B23" s="2"/>
       <c r="D23" s="46"/>
@@ -6369,7 +6475,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B41" s="15">
         <v>102400</v>
@@ -6377,7 +6483,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B42" s="15">
         <v>102400</v>
@@ -6385,7 +6491,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
       <c r="B43" s="15">
         <v>60</v>
@@ -6393,15 +6499,15 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B44" s="73">
+        <v>152</v>
+      </c>
+      <c r="B44" s="72">
         <v>0.06</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="B45" s="15">
         <v>40</v>
@@ -6409,15 +6515,15 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" s="73">
+        <v>154</v>
+      </c>
+      <c r="B46" s="72">
         <v>0.04</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B47" s="26">
         <v>0.4</v>
@@ -6453,120 +6559,120 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>123</v>
+      </c>
+      <c r="B1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" t="s">
+      <c r="E1" t="s">
         <v>127</v>
       </c>
-      <c r="E1" t="s">
+      <c r="F1" t="s">
         <v>128</v>
       </c>
-      <c r="F1" t="s">
+      <c r="G1" t="s">
         <v>129</v>
       </c>
-      <c r="G1" t="s">
+      <c r="H1" t="s">
         <v>130</v>
       </c>
-      <c r="H1" t="s">
+      <c r="I1" t="s">
         <v>131</v>
       </c>
-      <c r="I1" t="s">
+      <c r="J1" t="s">
         <v>132</v>
       </c>
-      <c r="J1" t="s">
+      <c r="K1" t="s">
         <v>133</v>
       </c>
-      <c r="K1" t="s">
+      <c r="L1" t="s">
         <v>134</v>
       </c>
-      <c r="L1" t="s">
+      <c r="M1" t="s">
         <v>135</v>
       </c>
-      <c r="M1" t="s">
-        <v>136</v>
-      </c>
       <c r="N1" t="s">
+        <v>125</v>
+      </c>
+      <c r="O1" t="s">
         <v>126</v>
       </c>
-      <c r="O1" t="s">
+      <c r="P1" t="s">
         <v>127</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Q1" t="s">
         <v>128</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="R1" t="s">
         <v>129</v>
       </c>
-      <c r="R1" t="s">
+      <c r="S1" t="s">
         <v>130</v>
       </c>
-      <c r="S1" t="s">
+      <c r="T1" t="s">
         <v>131</v>
       </c>
-      <c r="T1" t="s">
+      <c r="U1" t="s">
         <v>132</v>
       </c>
-      <c r="U1" t="s">
+      <c r="V1" t="s">
         <v>133</v>
       </c>
-      <c r="V1" t="s">
+      <c r="W1" t="s">
         <v>134</v>
       </c>
-      <c r="W1" t="s">
+      <c r="X1" t="s">
         <v>135</v>
       </c>
-      <c r="X1" t="s">
-        <v>136</v>
-      </c>
       <c r="Y1" t="s">
+        <v>125</v>
+      </c>
+      <c r="Z1" t="s">
         <v>126</v>
       </c>
-      <c r="Z1" t="s">
+      <c r="AA1" t="s">
         <v>127</v>
       </c>
-      <c r="AA1" t="s">
+      <c r="AB1" t="s">
         <v>128</v>
       </c>
-      <c r="AB1" t="s">
+      <c r="AC1" t="s">
         <v>129</v>
       </c>
-      <c r="AC1" t="s">
+      <c r="AD1" t="s">
         <v>130</v>
       </c>
-      <c r="AD1" t="s">
+      <c r="AE1" t="s">
         <v>131</v>
       </c>
-      <c r="AE1" t="s">
+      <c r="AF1" t="s">
         <v>132</v>
       </c>
-      <c r="AF1" t="s">
+      <c r="AG1" t="s">
         <v>133</v>
       </c>
-      <c r="AG1" t="s">
+      <c r="AH1" t="s">
         <v>134</v>
       </c>
-      <c r="AH1" t="s">
+      <c r="AI1" t="s">
         <v>135</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>109</v>
+      </c>
+      <c r="B2" t="s">
         <v>110</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>111</v>
-      </c>
-      <c r="C2" t="s">
-        <v>112</v>
       </c>
       <c r="D2">
         <v>9027</v>
@@ -6611,7 +6717,7 @@
         <v>65536</v>
       </c>
       <c r="R2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="S2">
         <v>2.1063333333299998</v>
@@ -6644,7 +6750,7 @@
         <v>65536</v>
       </c>
       <c r="AC2" t="s">
-        <v>113</v>
+        <v>112</v>
       </c>
       <c r="AD2">
         <v>7.4829999999999997</v>
@@ -6667,13 +6773,13 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
+        <v>109</v>
+      </c>
+      <c r="B3" t="s">
         <v>110</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>111</v>
-      </c>
-      <c r="C3" t="s">
-        <v>112</v>
       </c>
       <c r="D3">
         <v>8997</v>
@@ -6718,7 +6824,7 @@
         <v>65536</v>
       </c>
       <c r="R3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="S3">
         <v>2.2126666666700001</v>
@@ -6751,7 +6857,7 @@
         <v>65536</v>
       </c>
       <c r="AC3" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="AD3">
         <v>6.8860000000000001</v>
@@ -6774,13 +6880,13 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
+        <v>109</v>
+      </c>
+      <c r="B4" t="s">
         <v>110</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>111</v>
-      </c>
-      <c r="C4" t="s">
-        <v>112</v>
       </c>
       <c r="D4">
         <v>8570</v>
@@ -6825,7 +6931,7 @@
         <v>65536</v>
       </c>
       <c r="R4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="S4">
         <v>2.4056666666700002</v>
@@ -6858,7 +6964,7 @@
         <v>65536</v>
       </c>
       <c r="AC4" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="AD4">
         <v>6.6449999999999996</v>
@@ -6881,13 +6987,13 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
+        <v>109</v>
+      </c>
+      <c r="B5" t="s">
         <v>110</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>111</v>
-      </c>
-      <c r="C5" t="s">
-        <v>112</v>
       </c>
       <c r="D5">
         <v>7871</v>
@@ -6932,7 +7038,7 @@
         <v>65536</v>
       </c>
       <c r="R5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="S5">
         <v>2.4623333333300002</v>
@@ -6965,7 +7071,7 @@
         <v>65536</v>
       </c>
       <c r="AC5" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="AD5">
         <v>6.4393333333299996</v>
@@ -6988,13 +7094,13 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
+        <v>109</v>
+      </c>
+      <c r="B6" t="s">
         <v>110</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>111</v>
-      </c>
-      <c r="C6" t="s">
-        <v>112</v>
       </c>
       <c r="D6">
         <v>6853</v>
@@ -7039,7 +7145,7 @@
         <v>65536</v>
       </c>
       <c r="R6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="S6">
         <v>2.5903333333299998</v>
@@ -7072,7 +7178,7 @@
         <v>65536</v>
       </c>
       <c r="AC6" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="AD6">
         <v>6.4546666666699997</v>
@@ -7095,13 +7201,13 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
+        <v>109</v>
+      </c>
+      <c r="B7" t="s">
         <v>110</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>111</v>
-      </c>
-      <c r="C7" t="s">
-        <v>112</v>
       </c>
       <c r="D7">
         <v>9303</v>
@@ -7146,7 +7252,7 @@
         <v>65536</v>
       </c>
       <c r="R7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="S7">
         <v>2.6956666666700002</v>
@@ -7179,7 +7285,7 @@
         <v>65536</v>
       </c>
       <c r="AC7" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="AD7">
         <v>6.4283333333300003</v>
@@ -7202,13 +7308,13 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
+        <v>109</v>
+      </c>
+      <c r="B8" t="s">
         <v>110</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>111</v>
-      </c>
-      <c r="C8" t="s">
-        <v>112</v>
       </c>
       <c r="D8">
         <v>7216</v>
@@ -7253,7 +7359,7 @@
         <v>65536</v>
       </c>
       <c r="R8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="S8">
         <v>2.9540000000000002</v>
@@ -7286,7 +7392,7 @@
         <v>65536</v>
       </c>
       <c r="AC8" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="AD8">
         <v>6.7686666666699997</v>
@@ -7309,13 +7415,13 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>109</v>
+      </c>
+      <c r="B9" t="s">
         <v>110</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>111</v>
-      </c>
-      <c r="C9" t="s">
-        <v>112</v>
       </c>
       <c r="D9">
         <v>8643</v>
@@ -7360,7 +7466,7 @@
         <v>65536</v>
       </c>
       <c r="R9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="S9">
         <v>3.26633333333</v>
@@ -7393,7 +7499,7 @@
         <v>65536</v>
       </c>
       <c r="AC9" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="AD9">
         <v>7.2423333333300004</v>
@@ -7416,13 +7522,13 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
+        <v>109</v>
+      </c>
+      <c r="B10" t="s">
         <v>110</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>111</v>
-      </c>
-      <c r="C10" t="s">
-        <v>112</v>
       </c>
       <c r="D10">
         <v>8431</v>
@@ -7467,7 +7573,7 @@
         <v>65536</v>
       </c>
       <c r="R10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="S10">
         <v>3.6153333333300002</v>
@@ -7500,7 +7606,7 @@
         <v>65536</v>
       </c>
       <c r="AC10" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="AD10">
         <v>7.8673333333300004</v>
@@ -7523,13 +7629,13 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
+        <v>109</v>
+      </c>
+      <c r="B11" t="s">
         <v>110</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>111</v>
-      </c>
-      <c r="C11" t="s">
-        <v>112</v>
       </c>
       <c r="D11">
         <v>10134</v>
@@ -7574,7 +7680,7 @@
         <v>65536</v>
       </c>
       <c r="R11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="S11">
         <v>3.99633333333</v>
@@ -7607,7 +7713,7 @@
         <v>65536</v>
       </c>
       <c r="AC11" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="AD11">
         <v>8.3573333333300006</v>
@@ -7630,13 +7736,13 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
+        <v>109</v>
+      </c>
+      <c r="B12" t="s">
         <v>110</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>111</v>
-      </c>
-      <c r="C12" t="s">
-        <v>112</v>
       </c>
       <c r="D12">
         <v>9700</v>
@@ -7681,7 +7787,7 @@
         <v>65536</v>
       </c>
       <c r="R12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="S12">
         <v>4.3016666666700001</v>
@@ -7714,7 +7820,7 @@
         <v>65536</v>
       </c>
       <c r="AC12" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="AD12">
         <v>8.9133333333299998</v>
@@ -7748,15 +7854,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100050FBA8A9F0AFB4BB2D0148D6A234C38" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74183e733b66e5e9a3cd5553bd4bd9ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4a052287-e6d5-446a-afc6-58987b850d5f" xmlns:ns4="943a090e-7b96-4eb7-abc0-264fa36c6c5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b903754823e47922d1d3c75b6236d24" ns3:_="" ns4:_="">
     <xsd:import namespace="4a052287-e6d5-446a-afc6-58987b850d5f"/>
@@ -7979,6 +8076,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
   <ds:schemaRefs>
@@ -7997,14 +8103,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097D0541-97F4-46BE-8711-51CFA8DE5931}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8021,4 +8119,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/fslogix-ANF-calculator.xlsx
+++ b/fslogix-ANF-calculator.xlsx
@@ -1,22 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="46" documentId="8_{9E8F8E0A-DA89-4794-9BF7-793F16CB63D5}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{D2393F3A-7936-4EF2-830F-5CAF3F380D85}"/>
-  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="Md2TR1dwuS5jMH/uVT84RWN4qd+2Qpy1Yi0XsSa2NHc+Iuxt6a5dHsCdAm1hwh6vo2oyWMoL9R0YqkSKb7zq0A==" workbookSaltValue="zM+Yc647KX9tv0Tw6Wicog==" workbookSpinCount="100000" lockStructure="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{304A4FDD-42B5-42FA-95CC-FF656758BAD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
   <sheets>
     <sheet name="FSLogix Calculator" sheetId="1" r:id="rId1"/>
-    <sheet name="Azure NetApp Files Calcuations" sheetId="3" r:id="rId2"/>
-    <sheet name="Azure Files Calculations" sheetId="4" r:id="rId3"/>
+    <sheet name="Azure NetApp Files Calcuations" sheetId="3" state="hidden" r:id="rId2"/>
+    <sheet name="Azure Files Calculations" sheetId="4" state="hidden" r:id="rId3"/>
     <sheet name="definitions" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="Throughput Test" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
@@ -292,6 +291,9 @@
     <t>Azure Premium Files</t>
   </si>
   <si>
+    <t>FSLogix Storage Calculator</t>
+  </si>
+  <si>
     <t>Standard: Select Capacity/Bandwidth/Capacity Pool Minimum (English)</t>
   </si>
   <si>
@@ -541,10 +543,7 @@
     <t>Does Single ANF Volume Support User Count?</t>
   </si>
   <si>
-    <t>More than one volume is required</t>
-  </si>
-  <si>
-    <t>WVD Storage Calculator</t>
+    <t>Configure more than one volume</t>
   </si>
 </sst>
 </file>
@@ -721,7 +720,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="79">
+  <cellXfs count="80">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -838,6 +837,9 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -926,7 +928,47 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="106">
+  <dxfs count="100">
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF006100"/>
@@ -938,6 +980,176 @@
       </fill>
     </dxf>
     <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -959,31 +1171,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -999,32 +1191,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1040,26 +1211,6 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF9C0006"/>
       </font>
       <fill>
@@ -1070,220 +1221,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
         <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
           <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -3688,84 +3630,84 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="105" dataDxfId="104" tableBorderDxfId="103">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" tableBorderDxfId="97">
   <autoFilter ref="A2:B9" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="102"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="101"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="96"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="95"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="47">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="41">
   <autoFilter ref="A22:B47" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="46"/>
-    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="45"/>
+    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="40"/>
+    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="100" dataDxfId="99" tableBorderDxfId="98">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
   <autoFilter ref="A28:B32" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="97"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="96"/>
+    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="91"/>
+    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="90"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="95" tableBorderDxfId="94">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="89" tableBorderDxfId="88">
   <autoFilter ref="A11:B16" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="93"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="92"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="87"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="86"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="91" tableBorderDxfId="90">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="85" tableBorderDxfId="84">
   <autoFilter ref="A36:B38" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="89"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="88"/>
+    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="83"/>
+    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="82"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B20" totalsRowShown="0" dataDxfId="87" tableBorderDxfId="86">
-  <autoFilter ref="A18:B20" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="81" tableBorderDxfId="80">
+  <autoFilter ref="A18:B22" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="85"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="84"/>
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="79"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="78"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="83" tableBorderDxfId="82">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="77" tableBorderDxfId="76">
   <autoFilter ref="D18:H26" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="81" totalsRowDxfId="80"/>
-    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="79"/>
-    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="78">
+    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="75" totalsRowDxfId="74"/>
+    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="73"/>
+    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="72">
       <calculatedColumnFormula>IF(E20&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="77">
+    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="71">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="76">
+    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="70">
       <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3774,18 +3716,18 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="75" tableBorderDxfId="74">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
   <autoFilter ref="D28:H34" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="72">
+    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="67"/>
+    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="66">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="71">
+    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="65">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="70">
+    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="64">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3794,15 +3736,15 @@
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="63" tableBorderDxfId="62">
   <autoFilter ref="D36:G42" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
   <tableColumns count="4">
     <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="66">
+    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="61"/>
+    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="60">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="65">
+    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="59">
       <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
@@ -3817,7 +3759,7 @@
     <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
     <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
     <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
-    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="48"/>
+    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="42"/>
     <tableColumn id="5" xr3:uid="{5EBEBC80-5940-4420-B7CB-91D5FC7DF075}" name="Read Percenage"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -4126,27 +4068,27 @@
   </sheetPr>
   <dimension ref="A1:H112"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+    <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
+      <selection activeCell="A48" sqref="A48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="63" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="77.28515625" style="8" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="108.28515625" style="8" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="2" customWidth="1"/>
     <col min="4" max="4" width="85.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="11.85546875" customWidth="1"/>
     <col min="7" max="7" width="12.28515625" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="76" t="s">
-        <v>168</v>
-      </c>
-      <c r="B1" s="77"/>
+      <c r="A1" s="77" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="78"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A2" s="18" t="s">
@@ -4161,29 +4103,29 @@
         <v>3</v>
       </c>
       <c r="B3" s="32">
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
-        <v>163</v>
+        <v>164</v>
       </c>
       <c r="B4" s="32">
-        <v>15</v>
-      </c>
-      <c r="D4" s="56"/>
+        <v>6</v>
+      </c>
+      <c r="D4" s="57"/>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A5" s="18" t="s">
         <v>63</v>
       </c>
       <c r="B5" s="32">
-        <v>30</v>
+        <v>35</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A6" s="21" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="B6" s="47">
         <v>1</v>
@@ -4197,23 +4139,23 @@
       <c r="B7" s="32">
         <v>40</v>
       </c>
-      <c r="D7" s="74"/>
+      <c r="D7" s="75"/>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A8" s="18" t="s">
-        <v>138</v>
+        <v>139</v>
       </c>
       <c r="B8" s="32">
         <v>32</v>
       </c>
-      <c r="D8" s="74"/>
-      <c r="E8" s="74"/>
+      <c r="D8" s="75"/>
+      <c r="E8" s="75"/>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A9" s="18" t="s">
-        <v>137</v>
-      </c>
-      <c r="B9" s="61">
+        <v>138</v>
+      </c>
+      <c r="B9" s="62">
         <v>0.2</v>
       </c>
     </row>
@@ -4235,16 +4177,16 @@
       </c>
       <c r="B12" s="18">
         <f>B$3*B$6</f>
-        <v>137</v>
+        <v>118</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A13" s="22" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="B13" s="18">
         <f>(B$4*B$8*B$3*B$6)/1024</f>
-        <v>64.21875</v>
+        <v>22.125</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.25">
@@ -4253,7 +4195,7 @@
       </c>
       <c r="B14" s="18">
         <f>(B$4*B$8)</f>
-        <v>480</v>
+        <v>192</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.25">
@@ -4262,7 +4204,7 @@
       </c>
       <c r="B15" s="18">
         <f>B$4*B$3*B6</f>
-        <v>2055</v>
+        <v>708</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.25">
@@ -4271,20 +4213,20 @@
       </c>
       <c r="B16" s="18">
         <f>B5*B3</f>
-        <v>4110</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="78" t="s">
+      <c r="A17" s="79" t="s">
         <v>81</v>
       </c>
-      <c r="B17" s="78"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-      <c r="F17" s="78"/>
-      <c r="G17" s="78"/>
-      <c r="H17" s="78"/>
+      <c r="B17" s="79"/>
+      <c r="C17" s="79"/>
+      <c r="D17" s="79"/>
+      <c r="E17" s="79"/>
+      <c r="F17" s="79"/>
+      <c r="G17" s="79"/>
+      <c r="H17" s="79"/>
     </row>
     <row r="18" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A18" s="22" t="s">
@@ -4309,155 +4251,155 @@
         <v>59</v>
       </c>
     </row>
-    <row r="19" spans="1:8" s="50" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:8" s="51" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="53">
-        <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"Recommend Adding Additional ANF Volumes")</f>
-        <v>616.5</v>
+      <c r="B19" s="54">
+        <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"Recommend Adding Additional Volumes")</f>
+        <v>619.5</v>
       </c>
       <c r="D19" s="35" t="s">
-        <v>166</v>
-      </c>
-      <c r="E19" s="51" t="str">
+        <v>167</v>
+      </c>
+      <c r="E19" s="48" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure NetApp Files Calcuations'!B35:B36,'Azure NetApp Files Calcuations'!C35:C36,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F19" s="58" t="str">
+      <c r="F19" s="59" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes","Yes",definitions!$A$23)</f>
         <v>Yes</v>
       </c>
-      <c r="G19" s="65"/>
-      <c r="H19" s="64" t="str">
+      <c r="G19" s="66"/>
+      <c r="H19" s="65" t="str">
         <f>IF(B3&gt;E24,"Required bandwidth exceeds single ANF volume tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A20" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B20" s="48">
+      <c r="B20" s="49">
         <f>IF(E19="Yes",IF($E$21=definitions!A$23,B$19,B$19/B$3),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>4.5</v>
+        <v>5.25</v>
       </c>
       <c r="D20" s="35" t="s">
-        <v>143</v>
-      </c>
-      <c r="E20" s="51">
+        <v>144</v>
+      </c>
+      <c r="E20" s="52">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$31:$C$33,'Azure NetApp Files Calcuations'!$B$31:$B$33),"No")</f>
-        <v>4110</v>
-      </c>
-      <c r="F20" s="52"/>
-      <c r="G20" s="66"/>
-      <c r="H20" s="66"/>
-    </row>
-    <row r="21" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <v>4130</v>
+      </c>
+      <c r="F20" s="53"/>
+      <c r="G20" s="67"/>
+      <c r="H20" s="67"/>
+    </row>
+    <row r="21" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A21" s="35"/>
-      <c r="B21" s="49"/>
+      <c r="B21" s="50"/>
       <c r="D21" s="35" t="s">
-        <v>107</v>
-      </c>
-      <c r="E21" s="51" t="str">
+        <v>108</v>
+      </c>
+      <c r="E21" s="52" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",(_xlfn.XLOOKUP(MIN('Azure NetApp Files Calcuations'!$B$38:$B$40),'Azure NetApp Files Calcuations'!$B$38:$B$40,'Azure NetApp Files Calcuations'!$C$38:$C$40)),"No")</f>
         <v>Standard</v>
       </c>
-      <c r="F21" s="52"/>
-      <c r="G21" s="66"/>
-      <c r="H21" s="66"/>
-    </row>
-    <row r="22" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="F21" s="53"/>
+      <c r="G21" s="67"/>
+      <c r="H21" s="67"/>
+    </row>
+    <row r="22" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A22" s="35"/>
-      <c r="B22" s="49"/>
+      <c r="B22" s="50"/>
       <c r="D22" s="35" t="s">
-        <v>150</v>
-      </c>
-      <c r="E22" s="51" t="str">
-        <f>IF(E19="More than one volume is required","No",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
-        <v>Bandwidth</v>
-      </c>
-      <c r="F22" s="52"/>
-      <c r="G22" s="66"/>
-      <c r="H22" s="66"/>
-    </row>
-    <row r="23" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+        <v>151</v>
+      </c>
+      <c r="E22" s="52" t="str">
+        <f>IF(E19="Configure more than one volume","No",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
+        <v>Capacity</v>
+      </c>
+      <c r="F22" s="53"/>
+      <c r="G22" s="67"/>
+      <c r="H22" s="67"/>
+    </row>
+    <row r="23" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A23" s="35"/>
-      <c r="B23" s="49"/>
+      <c r="B23" s="50"/>
       <c r="D23" s="35" t="s">
+        <v>149</v>
+      </c>
+      <c r="E23" s="52">
+        <f>IF(E19="Yes",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$42:$C$44,'Azure NetApp Files Calcuations'!$B$42:$B$44,definitions!A$23)),"No")</f>
+        <v>35</v>
+      </c>
+      <c r="F23" s="53"/>
+      <c r="G23" s="67"/>
+      <c r="H23" s="67"/>
+    </row>
+    <row r="24" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="35"/>
+      <c r="B24" s="49"/>
+      <c r="D24" s="64" t="s">
+        <v>103</v>
+      </c>
+      <c r="E24" s="69">
+        <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
+        <v>11722</v>
+      </c>
+      <c r="F24" s="68"/>
+      <c r="G24" s="67"/>
+      <c r="H24" s="67"/>
+    </row>
+    <row r="25" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="35"/>
+      <c r="B25" s="49"/>
+      <c r="D25" s="64" t="s">
         <v>148</v>
       </c>
-      <c r="E23" s="51">
-        <f>IF(E19="Yes",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$42:$C$44,'Azure NetApp Files Calcuations'!$B$42:$B$44,definitions!A$23)),"No")</f>
-        <v>30</v>
-      </c>
-      <c r="F23" s="52"/>
-      <c r="G23" s="66"/>
-      <c r="H23" s="66"/>
-    </row>
-    <row r="24" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="48"/>
-      <c r="D24" s="63" t="s">
-        <v>102</v>
-      </c>
-      <c r="E24" s="68">
-        <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
-        <v>4689</v>
-      </c>
-      <c r="F24" s="67"/>
-      <c r="G24" s="66"/>
-      <c r="H24" s="66"/>
-    </row>
-    <row r="25" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="48"/>
-      <c r="D25" s="63" t="s">
-        <v>147</v>
-      </c>
-      <c r="E25" s="68">
+      <c r="E25" s="69">
         <f>'Azure NetApp Files Calcuations'!B5</f>
-        <v>3413</v>
-      </c>
-      <c r="F25" s="67" t="str">
+        <v>2925</v>
+      </c>
+      <c r="F25" s="68" t="str">
         <f>IF(E26&gt;definitions!B30,definitions!$A$23,"Yes")</f>
         <v>Required capacity exceeds documented single ANF volume 100TiB upper limit</v>
       </c>
-      <c r="G25" s="67" t="str">
+      <c r="G25" s="68" t="str">
         <f>IF(B9&gt;E28,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="H25" s="67" t="str">
+      <c r="H25" s="68" t="str">
         <f>IF(B9&gt;E28,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="50" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A26" s="35"/>
-      <c r="B26" s="48"/>
-      <c r="D26" s="54" t="str">
+      <c r="B26" s="49"/>
+      <c r="D26" s="55" t="str">
         <f>IF(E22="Capacity Pool Minimum Size","# Of Users At Min Capacity Pool Size ","Temporarily Empty Field")</f>
         <v>Temporarily Empty Field</v>
       </c>
-      <c r="E26" s="55" t="str">
+      <c r="E26" s="56" t="str">
         <f>IF(E22="Capacity Pool Minimum Size",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$15:$C$17,'Azure NetApp Files Calcuations'!$B$15:$B$17),"Temporarily Empty Field")</f>
         <v>Temporarily Empty Field</v>
       </c>
-      <c r="F26" s="62"/>
-      <c r="G26" s="66"/>
-      <c r="H26" s="66"/>
+      <c r="F26" s="63"/>
+      <c r="G26" s="67"/>
+      <c r="H26" s="67"/>
     </row>
     <row r="27" spans="1:8" s="3" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="78" t="s">
+      <c r="A27" s="79" t="s">
         <v>82</v>
       </c>
-      <c r="B27" s="78"/>
-      <c r="C27" s="78"/>
-      <c r="D27" s="78"/>
-      <c r="E27" s="78"/>
-      <c r="F27" s="78"/>
-      <c r="G27" s="78"/>
-      <c r="H27" s="78"/>
+      <c r="B27" s="79"/>
+      <c r="C27" s="79"/>
+      <c r="D27" s="79"/>
+      <c r="E27" s="79"/>
+      <c r="F27" s="79"/>
+      <c r="G27" s="79"/>
+      <c r="H27" s="79"/>
     </row>
     <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A28" s="22" t="s">
@@ -4472,13 +4414,13 @@
       <c r="E28" s="18" t="s">
         <v>79</v>
       </c>
-      <c r="F28" s="57" t="s">
+      <c r="F28" s="58" t="s">
         <v>57</v>
       </c>
-      <c r="G28" s="57" t="s">
+      <c r="G28" s="58" t="s">
         <v>58</v>
       </c>
-      <c r="H28" s="57" t="s">
+      <c r="H28" s="58" t="s">
         <v>59</v>
       </c>
     </row>
@@ -4486,26 +4428,26 @@
       <c r="A29" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B29" s="53">
-        <f>IF(E29="Yes",B$32+B$31,"N/A: User Count Exceeds Capability Of Single Azure Files Storage Account")</f>
-        <v>438.94799999999998</v>
+      <c r="B29" s="54">
+        <f>IF(E29="Yes",B$32+B$31,"Must Add Additional Storage Accounts")</f>
+        <v>314.06880000000001</v>
       </c>
       <c r="D29" s="34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E29" s="35" t="str">
-        <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$2:$C$4,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
+        <f>_xlfn.XLOOKUP("No, must configure additional storage accounts",'Azure Files Calculations'!$C$2:$C$4,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F29" s="70" t="str">
+      <c r="F29" s="71" t="str">
         <f>'Azure Files Calculations'!$B$4</f>
         <v>Yes</v>
       </c>
-      <c r="G29" s="58" t="str">
+      <c r="G29" s="59" t="str">
         <f>'Azure Files Calculations'!$B$2</f>
         <v>Yes</v>
       </c>
-      <c r="H29" s="58" t="str">
+      <c r="H29" s="59" t="str">
         <f>'Azure Files Calculations'!$B$3</f>
         <v>Yes</v>
       </c>
@@ -4514,16 +4456,16 @@
       <c r="A30" s="35" t="s">
         <v>69</v>
       </c>
-      <c r="B30" s="48">
+      <c r="B30" s="49">
         <f>IF(E29="Yes",B$29/B$3,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>3.2039999999999997</v>
+        <v>2.6616</v>
       </c>
       <c r="D30" s="27" t="s">
         <v>75</v>
       </c>
       <c r="E30" s="18">
         <f>IF(E29="Yes",$B$5*$B$3,"No")</f>
-        <v>4110</v>
+        <v>4130</v>
       </c>
       <c r="F30" s="40"/>
       <c r="G30" s="39"/>
@@ -4533,16 +4475,16 @@
       <c r="A31" s="35" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="48">
-        <f>IF(E29="Yes",((B4*B3*B6*definitions!B$32*B$7*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>192.34799999999998</v>
+      <c r="B31" s="49">
+        <f>IF(E29="Yes",((B4*B3*B6*definitions!B$32*B$7*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of A Single Azure Files Storage Account")</f>
+        <v>66.268799999999999</v>
       </c>
       <c r="D31" s="27" t="s">
         <v>66</v>
       </c>
       <c r="E31" s="18">
         <f>IF(E29="Yes",E30/$B$3,"No")</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F31" s="40"/>
       <c r="G31" s="43"/>
@@ -4552,16 +4494,16 @@
       <c r="A32" s="35" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="48">
-        <f>IF(E29="Yes",B$5*B$3*B6*definitions!B$35,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>246.6</v>
+      <c r="B32" s="49">
+        <f>IF(E29="Yes",B$5*B$3*B6*definitions!B$35,"N/A: User Count Exceeds Capability Of A Single Azure Files Storage Account")</f>
+        <v>247.79999999999998</v>
       </c>
       <c r="D32" s="27" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="E32" s="18">
         <f>FLOOR(   (definitions!$B$38/$B$4)*(1/$B$6),1)</f>
-        <v>666</v>
+        <v>1666</v>
       </c>
       <c r="F32" s="40"/>
       <c r="G32" s="40"/>
@@ -4569,40 +4511,40 @@
     </row>
     <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A33" s="35"/>
-      <c r="B33" s="48"/>
+      <c r="B33" s="49"/>
       <c r="D33" s="27" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="E33" s="18">
         <f>FLOOR((   (1024*definitions!$B$39)   /   ('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$8)  ) * (1/$B$6   ),1)</f>
-        <v>640</v>
+        <v>1600</v>
       </c>
       <c r="F33" s="40"/>
       <c r="G33" s="39"/>
       <c r="H33" s="40"/>
     </row>
     <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="63" t="s">
-        <v>145</v>
+      <c r="D34" s="64" t="s">
+        <v>146</v>
       </c>
       <c r="E34" s="17">
         <f>definitions!B41/'FSLogix Calculator'!B5</f>
-        <v>3413.3333333333335</v>
-      </c>
-      <c r="F34" s="69"/>
-      <c r="G34" s="69"/>
-      <c r="H34" s="69"/>
+        <v>2925.7142857142858</v>
+      </c>
+      <c r="F34" s="70"/>
+      <c r="G34" s="70"/>
+      <c r="H34" s="70"/>
     </row>
     <row r="35" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="78" t="s">
+      <c r="A35" s="79" t="s">
         <v>83</v>
       </c>
-      <c r="B35" s="78"/>
-      <c r="C35" s="78"/>
-      <c r="D35" s="78"/>
-      <c r="E35" s="78"/>
-      <c r="F35" s="78"/>
-      <c r="G35" s="78"/>
+      <c r="B35" s="79"/>
+      <c r="C35" s="79"/>
+      <c r="D35" s="79"/>
+      <c r="E35" s="79"/>
+      <c r="F35" s="79"/>
+      <c r="G35" s="79"/>
     </row>
     <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="A36" s="34" t="s">
@@ -4628,22 +4570,22 @@
       <c r="A37" s="35" t="s">
         <v>70</v>
       </c>
-      <c r="B37" s="53">
-        <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calculator'!B3*'FSLogix Calculator'!B4,definitions!B37*'FSLogix Calculator'!B5*'FSLogix Calculator'!B3),"N/A: User Count Exceeds Capability Of Single Azure Premium Files Storage Account")</f>
-        <v>1027.5</v>
+      <c r="B37" s="54">
+        <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calculator'!B3*'FSLogix Calculator'!B4,definitions!B37*'FSLogix Calculator'!B5*'FSLogix Calculator'!B3),"Must Add Additional Storage Accounts")</f>
+        <v>1032.5</v>
       </c>
       <c r="D37" s="34" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="E37" s="35" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$5:$C$7,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F37" s="71" t="str">
+      <c r="F37" s="72" t="str">
         <f>'Azure Files Calculations'!$B$6</f>
         <v>Yes</v>
       </c>
-      <c r="G37" s="71" t="str">
+      <c r="G37" s="72" t="str">
         <f>'Azure Files Calculations'!$B$5</f>
         <v>Yes</v>
       </c>
@@ -4654,25 +4596,25 @@
       </c>
       <c r="B38" s="23">
         <f>IF(E37="Yes",B$37/B$3,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>7.5</v>
+        <v>8.75</v>
       </c>
       <c r="D38" s="27" t="s">
-        <v>143</v>
+        <v>144</v>
       </c>
       <c r="E38" s="18">
         <f>'Azure Files Calculations'!C14</f>
-        <v>4110</v>
+        <v>4130</v>
       </c>
       <c r="F38" s="42"/>
       <c r="G38" s="42"/>
     </row>
     <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="D39" s="8" t="s">
-        <v>148</v>
+        <v>149</v>
       </c>
       <c r="E39" s="17">
         <f>IF('Azure Files Calculations'!$C$6="Yes",E$38/$B$3,"No")</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="F39" s="33"/>
       <c r="G39" s="41"/>
@@ -4682,7 +4624,7 @@
       <c r="B40" s="17"/>
       <c r="C40" s="8"/>
       <c r="D40" s="27" t="s">
-        <v>149</v>
+        <v>150</v>
       </c>
       <c r="E40" s="22" t="str">
         <f>'Azure Files Calculations'!B14</f>
@@ -4696,167 +4638,140 @@
       <c r="B41" s="17"/>
       <c r="C41" s="8"/>
       <c r="D41" s="27" t="s">
-        <v>162</v>
+        <v>163</v>
       </c>
       <c r="E41" s="18">
         <f>FLOOR(( definitions!$B$40/$B$4) * (1/$B$6),1)</f>
-        <v>6666</v>
+        <v>16666</v>
       </c>
       <c r="F41" s="40"/>
       <c r="G41" s="45"/>
     </row>
     <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
       <c r="C42" s="8"/>
-      <c r="D42" s="63" t="s">
-        <v>147</v>
+      <c r="D42" s="64" t="s">
+        <v>148</v>
       </c>
       <c r="E42" s="18">
         <f>definitions!B42/'FSLogix Calculator'!B5</f>
-        <v>3413.3333333333335</v>
+        <v>2925.7142857142858</v>
       </c>
       <c r="F42" s="40"/>
       <c r="G42" s="45"/>
     </row>
-    <row r="43" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="44" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="45" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="46" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="47" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="48" spans="1:8" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="49" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="50" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="51" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="52" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="53" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="54" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="55" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="56" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="57" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="58" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="59" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="60" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="61" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="62" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="63" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="64" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="65" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="66" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="67" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="68" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="69" spans="1:5" hidden="1" x14ac:dyDescent="0.25"/>
-    <row r="70" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A70" s="11"/>
       <c r="B70" s="28"/>
       <c r="C70" s="3"/>
       <c r="D70" s="3"/>
     </row>
-    <row r="71" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A71" s="11"/>
       <c r="B71" s="7"/>
       <c r="C71" s="3"/>
       <c r="D71" s="3"/>
     </row>
-    <row r="72" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A72" s="11"/>
       <c r="B72" s="7"/>
       <c r="C72" s="3"/>
       <c r="D72" s="3"/>
     </row>
-    <row r="73" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A73" s="59"/>
+    <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A73" s="60"/>
       <c r="B73" s="6"/>
       <c r="C73" s="3"/>
       <c r="D73" s="3"/>
     </row>
-    <row r="74" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A74" s="11"/>
       <c r="B74" s="7"/>
     </row>
-    <row r="75" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A75" s="11"/>
       <c r="B75" s="7"/>
     </row>
-    <row r="76" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A76" s="11"/>
       <c r="B76" s="7"/>
     </row>
-    <row r="77" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A77" s="11"/>
       <c r="B77" s="7"/>
     </row>
-    <row r="78" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A78" s="11"/>
       <c r="D78" s="3"/>
       <c r="E78" s="3"/>
     </row>
-    <row r="79" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A79" s="11"/>
       <c r="B79" s="7"/>
       <c r="C79" s="3"/>
       <c r="D79" s="3"/>
       <c r="E79" s="3"/>
     </row>
-    <row r="80" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A80" s="59"/>
+    <row r="80" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A80" s="60"/>
       <c r="B80" s="5"/>
       <c r="C80" s="5"/>
       <c r="D80" s="5"/>
       <c r="E80" s="5"/>
     </row>
-    <row r="81" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A81" s="11"/>
       <c r="B81" s="11"/>
       <c r="C81" s="3"/>
       <c r="D81" s="3"/>
       <c r="E81" s="3"/>
     </row>
-    <row r="82" spans="1:5" s="3" customFormat="1" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A82" s="11"/>
       <c r="B82" s="29"/>
     </row>
-    <row r="83" spans="1:5" s="9" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A83" s="11"/>
       <c r="B83" s="7"/>
       <c r="C83" s="1"/>
       <c r="D83" s="3"/>
       <c r="E83" s="3"/>
     </row>
-    <row r="84" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A84" s="59"/>
+    <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A84" s="60"/>
       <c r="B84" s="6"/>
       <c r="C84" s="5"/>
       <c r="D84" s="5"/>
       <c r="E84" s="5"/>
     </row>
-    <row r="85" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A85" s="59"/>
+    <row r="85" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="60"/>
       <c r="B85" s="10"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
       <c r="E85" s="5"/>
     </row>
-    <row r="86" spans="1:5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A86" s="11"/>
       <c r="B86" s="11"/>
       <c r="C86" s="3"/>
       <c r="D86" s="3"/>
       <c r="E86" s="3"/>
     </row>
-    <row r="87" spans="1:5" s="9" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A87" s="11"/>
       <c r="B87" s="8"/>
       <c r="C87"/>
       <c r="D87" s="3"/>
       <c r="E87" s="3"/>
     </row>
-    <row r="88" spans="1:5" s="9" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A88" s="11"/>
       <c r="B88" s="7"/>
       <c r="C88" s="3"/>
       <c r="D88" s="3"/>
       <c r="E88" s="3"/>
     </row>
-    <row r="89" spans="1:5" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
       <c r="A89" s="11"/>
       <c r="B89" s="5"/>
       <c r="C89" s="11"/>
@@ -4882,14 +4797,14 @@
       <c r="E92" s="3"/>
     </row>
     <row r="93" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="59"/>
+      <c r="A93" s="60"/>
       <c r="B93" s="6"/>
       <c r="C93" s="5"/>
       <c r="D93" s="5"/>
       <c r="E93" s="5"/>
     </row>
     <row r="94" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="59"/>
+      <c r="A94" s="60"/>
       <c r="B94" s="10"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
@@ -4917,7 +4832,7 @@
       <c r="E97" s="3"/>
     </row>
     <row r="98" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="59"/>
+      <c r="A98" s="60"/>
       <c r="B98" s="5"/>
       <c r="C98" s="11"/>
       <c r="D98" s="5"/>
@@ -4942,14 +4857,14 @@
       <c r="E101" s="3"/>
     </row>
     <row r="102" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="59"/>
+      <c r="A102" s="60"/>
       <c r="B102" s="6"/>
       <c r="C102" s="13"/>
       <c r="D102" s="3"/>
       <c r="E102" s="3"/>
     </row>
     <row r="103" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="59"/>
+      <c r="A103" s="60"/>
       <c r="B103" s="10"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
@@ -4988,7 +4903,7 @@
       <c r="E112" s="3"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="UWo9ub0sU5651LZo0m2JhI6kxTfBtKbj3/bT4W4g8uTbxYlw1IcO+oQMjINT8CLoaynUFtUSGwlpfm/BTiM8xw==" saltValue="QsZ4ID/1arTJCrFyTR2KmA==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
+  <sheetProtection algorithmName="SHA-512" hashValue="7lBVhwEC+gQCt4kvw5qX4h95O1/uDMXhLLQeDRokmhbclaZnkqxIsqLB0hW80608FWyQ6Ww0HSy/oGxolHupuA==" saltValue="tGEEMvM61kLYEIfSimFRBw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <mergeCells count="4">
     <mergeCell ref="A1:B1"/>
     <mergeCell ref="A27:H27"/>
@@ -4996,189 +4911,173 @@
     <mergeCell ref="A17:H17"/>
   </mergeCells>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A36:B39 A28:B34">
-    <cfRule type="cellIs" dxfId="44" priority="101" operator="equal">
+  <conditionalFormatting sqref="A36:B39 A28:B28 A30:B34 A29">
+    <cfRule type="cellIs" dxfId="38" priority="110" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F29:H31">
-    <cfRule type="containsText" dxfId="43" priority="31" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F29)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="42" priority="32" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E22:E23">
-    <cfRule type="cellIs" dxfId="41" priority="49" operator="equal">
+    <cfRule type="cellIs" dxfId="35" priority="58" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="40" priority="48" operator="equal">
+    <cfRule type="cellIs" dxfId="34" priority="57" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="39" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="33" priority="56" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="cellIs" dxfId="0" priority="39" operator="equal">
+  <conditionalFormatting sqref="E29">
+    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="1" priority="40" operator="equal">
-      <formula>"""Yes"""</formula>
+    <cfRule type="cellIs" dxfId="31" priority="47" operator="equal">
+      <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="2" priority="46" operator="equal">
-      <formula>"No"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="4" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",E19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="More">
-      <formula>NOT(ISERROR(SEARCH("More",E19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="cellIs" dxfId="38" priority="41" operator="equal">
-      <formula>"Required Capacity Exceeds documented 100TiB Upper Limit"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="37" priority="42" operator="equal">
-      <formula>"""Required Capacity Exceeds documented 100TiB Upper Limit"""</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="43" operator="containsText" text="&quot;Required&quot;">
-      <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="35" priority="44" operator="containsText" text="&quot;Required&quot;">
-      <formula>NOT(ISERROR(SEARCH("""Required""",F19)))</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="34" priority="45" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="33" priority="8" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",F19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="32" priority="5" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",F19)))</formula>
+    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E29)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="31" priority="37" operator="equal">
-      <formula>"Yes"</formula>
-    </cfRule>
-    <cfRule type="cellIs" dxfId="30" priority="38" operator="equal">
-      <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="29" priority="36" operator="equal">
+    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="28" priority="35" operator="equal">
+    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="27" priority="33" operator="equal">
+    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="34" operator="equal">
+    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="25" priority="29" operator="equal">
+    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="30" operator="equal">
+    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="F37:G38 F40:G40">
-    <cfRule type="containsText" dxfId="23" priority="26" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",F37)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="28" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",F37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="21" priority="27" operator="equal">
+    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E31 E20:E23">
-    <cfRule type="cellIs" dxfId="20" priority="25" operator="equal">
+    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="19" priority="21" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="18" priority="19" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="17" priority="17" operator="equal">
+    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="16" priority="16" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B38)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="15" priority="15" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="15" priority="24" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B37)))</formula>
     </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="14" priority="14" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="13" priority="3" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="12" priority="2" operator="containsText" text="Recommend">
-      <formula>NOT(ISERROR(SEARCH("Recommend",B19)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="11" priority="13" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B29)))</formula>
+    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Must">
+      <formula>NOT(ISERROR(SEARCH("Must",B37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="10" priority="12" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B20)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="9" priority="11" operator="containsText" text="N/A">
+    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="7" priority="10" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="6" priority="7" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="9" priority="16" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="6" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B19">
+    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="Rec">
+      <formula>NOT(ISERROR(SEARCH("Rec",B19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="F19">
+    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",F19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",F19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E19">
+    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",E19)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="More">
+      <formula>NOT(ISERROR(SEARCH("More",E19)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B29">
+    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Rec">
+      <formula>NOT(ISERROR(SEARCH("Rec",B29)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Must">
+      <formula>NOT(ISERROR(SEARCH("Must",B29)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="E37">
+    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",E37)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
@@ -5207,9 +5106,6 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <ignoredErrors>
-    <ignoredError sqref="F19 G25:H25 H19" calculatedColumn="1"/>
-  </ignoredErrors>
   <tableParts count="8">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
@@ -5288,7 +5184,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:E54"/>
   <sheetViews>
-    <sheetView topLeftCell="A24" workbookViewId="0">
+    <sheetView topLeftCell="A23" workbookViewId="0">
       <selection activeCell="C36" sqref="C36"/>
     </sheetView>
   </sheetViews>
@@ -5310,39 +5206,39 @@
       </c>
       <c r="B2" s="15">
         <f>'FSLogix Calculator'!B$16</f>
-        <v>4110</v>
+        <v>4130</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="B3" s="15">
         <f>'FSLogix Calculator'!B$5</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>141</v>
+        <v>142</v>
       </c>
       <c r="B4" s="2">
         <f>_xlfn.XLOOKUP('FSLogix Calculator'!B$9,'Throughput Test'!G2:G12,'Throughput Test'!P$2:P$12)</f>
         <v>2198</v>
       </c>
-      <c r="C4" s="60"/>
+      <c r="C4" s="61"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>146</v>
+        <v>147</v>
       </c>
       <c r="B5" s="2">
         <f>FLOOR(definitions!B24/'FSLogix Calculator'!B$5,1)</f>
-        <v>3413</v>
-      </c>
-      <c r="C5" s="60"/>
+        <v>2925</v>
+      </c>
+      <c r="C5" s="61"/>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
@@ -5355,7 +5251,7 @@
       </c>
       <c r="B7" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B30</f>
-        <v>4110</v>
+        <v>1416</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>46</v>
@@ -5367,7 +5263,7 @@
       </c>
       <c r="B8" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B28</f>
-        <v>1027.5</v>
+        <v>354</v>
       </c>
       <c r="C8" s="3" t="s">
         <v>47</v>
@@ -5379,7 +5275,7 @@
       </c>
       <c r="B9" s="15">
         <f>('FSLogix Calculator'!B$13*1024)/definitions!B26</f>
-        <v>513.75</v>
+        <v>177</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
@@ -5387,11 +5283,11 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="B11" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B$30</f>
-        <v>30</v>
+        <v>12</v>
       </c>
       <c r="C11" s="3" t="s">
         <v>46</v>
@@ -5399,11 +5295,11 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="B12" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B28</f>
-        <v>7.5</v>
+        <v>3</v>
       </c>
       <c r="C12" s="3" t="s">
         <v>47</v>
@@ -5411,11 +5307,11 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="B13" s="2">
         <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B26</f>
-        <v>3.75</v>
+        <v>1.5</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>39</v>
@@ -5432,7 +5328,7 @@
       </c>
       <c r="B15" s="2">
         <f>CEILING(IF(B11&gt;B$3,definitions!B$31/B11,definitions!B$31/B$3),1)</f>
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C15" s="3" t="s">
         <v>46</v>
@@ -5444,7 +5340,7 @@
       </c>
       <c r="B16" s="2">
         <f>CEILING(IF(B12&gt;B$3,definitions!B$31/B12,definitions!B$31/B$3),1)</f>
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C16" s="3" t="s">
         <v>47</v>
@@ -5456,7 +5352,7 @@
       </c>
       <c r="B17" s="2">
         <f>CEILING(IF(B13&gt;B$3,definitions!B$31/B13,definitions!B$31/B$3),1)</f>
-        <v>137</v>
+        <v>118</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>39</v>
@@ -5469,11 +5365,11 @@
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="B19" s="15" t="str">
         <f>IF(B$2&gt;B7,"Capacity","Bandwidth")</f>
-        <v>Bandwidth</v>
+        <v>Capacity</v>
       </c>
       <c r="C19" s="3" t="s">
         <v>46</v>
@@ -5481,7 +5377,7 @@
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="B20" s="15" t="str">
         <f>IF(B$2&gt;B8,"Capacity","Bandwidth")</f>
@@ -5493,7 +5389,7 @@
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="B21" s="15" t="str">
         <f>IF(B$2&gt;B9,"Capacity","Bandwidth")</f>
@@ -5510,11 +5406,11 @@
     </row>
     <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="B23" s="15">
         <f>IF(B$2&gt;B7,B$2,B7)</f>
-        <v>4110</v>
+        <v>4130</v>
       </c>
       <c r="C23" s="3" t="s">
         <v>46</v>
@@ -5522,11 +5418,11 @@
     </row>
     <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="B24" s="15">
         <f>IF(B$2&gt;B8,B$2,B8)</f>
-        <v>4110</v>
+        <v>4130</v>
       </c>
       <c r="C24" s="3" t="s">
         <v>47</v>
@@ -5534,11 +5430,11 @@
     </row>
     <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="B25" s="15">
         <f>IF(B$2&gt;B9,B$2,B9)</f>
-        <v>4110</v>
+        <v>4130</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
@@ -5551,11 +5447,11 @@
     </row>
     <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>84</v>
+        <v>85</v>
       </c>
       <c r="B27" s="15" t="str">
         <f>IF(B23&gt;definitions!B$31,B19,"Capacity Pool Minimum Size")</f>
-        <v>Bandwidth</v>
+        <v>Capacity</v>
       </c>
       <c r="C27" s="3" t="s">
         <v>46</v>
@@ -5563,7 +5459,7 @@
     </row>
     <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>85</v>
+        <v>86</v>
       </c>
       <c r="B28" s="15" t="str">
         <f>IF(B24&gt;definitions!B$31,B20,"Capacity Pool Minimum Size")</f>
@@ -5575,7 +5471,7 @@
     </row>
     <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>86</v>
+        <v>87</v>
       </c>
       <c r="B29" s="15" t="str">
         <f>IF(B25&gt;definitions!B$31,B21,"Capacity Pool Minimum Size")</f>
@@ -5592,11 +5488,11 @@
     </row>
     <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="B31" s="15">
         <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
-        <v>4110</v>
+        <v>4130</v>
       </c>
       <c r="C31" s="3" t="s">
         <v>46</v>
@@ -5604,11 +5500,11 @@
     </row>
     <row r="32" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="B32" s="15">
         <f>IF(B24&gt;definitions!B$31,B24,definitions!B$31)</f>
-        <v>4110</v>
+        <v>4130</v>
       </c>
       <c r="C32" s="3" t="s">
         <v>47</v>
@@ -5616,11 +5512,11 @@
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="B33" s="15">
         <f>IF(B25&gt;definitions!B$31,B25,definitions!B$31)</f>
-        <v>4110</v>
+        <v>4130</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>39</v>
@@ -5633,26 +5529,26 @@
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>142</v>
+        <v>143</v>
       </c>
       <c r="B35" s="15" t="str">
         <f>IF(MIN(B31:B33)&gt;definitions!B24,"No","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>167</v>
+        <v>168</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>144</v>
+        <v>145</v>
       </c>
       <c r="B36" s="2" t="str">
         <f>IF('FSLogix Calculator'!B3&gt;('FSLogix Calculator'!E24),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C36" s="60" t="s">
-        <v>167</v>
+      <c r="C36" s="61" t="s">
+        <v>168</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -5660,9 +5556,9 @@
     <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="60"/>
-      <c r="D37" s="60"/>
-      <c r="E37" s="60"/>
+      <c r="C37" s="61"/>
+      <c r="D37" s="61"/>
+      <c r="E37" s="61"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
@@ -5670,7 +5566,7 @@
       </c>
       <c r="B38" s="24">
         <f>IF((B31&gt;definitions!B24),99999,B31*definitions!B$29)</f>
-        <v>616.5</v>
+        <v>619.5</v>
       </c>
       <c r="C38" s="3" t="s">
         <v>46</v>
@@ -5684,7 +5580,7 @@
       </c>
       <c r="B39" s="16">
         <f>IF((B32&gt;definitions!B24),99999,B32*definitions!B$27)</f>
-        <v>1233</v>
+        <v>1239</v>
       </c>
       <c r="C39" s="3" t="s">
         <v>47</v>
@@ -5698,7 +5594,7 @@
       </c>
       <c r="B40" s="16">
         <f>IF((B33&gt;definitions!B24),99999,(B33*definitions!B$25))</f>
-        <v>1644</v>
+        <v>1652</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>39</v>
@@ -5719,7 +5615,7 @@
       </c>
       <c r="B42" s="15">
         <f>B31/'FSLogix Calculator'!B$3</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C42" s="3" t="s">
         <v>46</v>
@@ -5733,7 +5629,7 @@
       </c>
       <c r="B43" s="15">
         <f>B32/'FSLogix Calculator'!B$3</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C43" s="3" t="s">
         <v>47</v>
@@ -5747,7 +5643,7 @@
       </c>
       <c r="B44" s="15">
         <f>B33/'FSLogix Calculator'!B$3</f>
-        <v>30</v>
+        <v>35</v>
       </c>
       <c r="C44" s="3" t="s">
         <v>39</v>
@@ -5768,7 +5664,7 @@
       </c>
       <c r="B46" s="26">
         <f>IF(B38=definitions!A$23,B38, B38/'FSLogix Calculator'!B$29)</f>
-        <v>1.404494382022472</v>
+        <v>1.972497745716862</v>
       </c>
       <c r="C46" s="3" t="s">
         <v>46</v>
@@ -5782,7 +5678,7 @@
       </c>
       <c r="B47" s="26">
         <f>IF(B39=definitions!A$23,B39, B39/'FSLogix Calculator'!B$29)</f>
-        <v>2.808988764044944</v>
+        <v>3.944995491433724</v>
       </c>
       <c r="C47" s="3" t="s">
         <v>47</v>
@@ -5796,7 +5692,7 @@
       </c>
       <c r="B48" s="26">
         <f>IF(B40=definitions!A$23,B40, B40/'FSLogix Calculator'!B$29)</f>
-        <v>3.7453183520599254</v>
+        <v>5.2599939885782989</v>
       </c>
       <c r="C48" s="3" t="s">
         <v>39</v>
@@ -5850,12 +5746,12 @@
       <c r="D52" s="3"/>
     </row>
     <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="75" t="s">
-        <v>102</v>
+      <c r="A54" s="76" t="s">
+        <v>103</v>
       </c>
       <c r="B54">
         <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
-        <v>4689</v>
+        <v>11722</v>
       </c>
     </row>
   </sheetData>
@@ -5896,7 +5792,7 @@
         <v>Yes</v>
       </c>
       <c r="C2" s="37" t="str">
-        <f>IF('FSLogix Calculator'!B$15&gt;definitions!B$38,"No","Yes")</f>
+        <f>IF('FSLogix Calculator'!B$15&gt;definitions!B$38,"No, must configure additional storage accounts","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5909,7 +5805,7 @@
         <v>Yes</v>
       </c>
       <c r="C3" s="37" t="str">
-        <f>IF(('FSLogix Calculator'!B13)&gt;definitions!B$39,"No","Yes")</f>
+        <f>IF(('FSLogix Calculator'!B13)&gt;definitions!B$39,"No, must configure additional storage accounts","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5922,7 +5818,7 @@
         <v>Yes</v>
       </c>
       <c r="C4" s="37" t="str">
-        <f>IF('FSLogix Calculator'!B16&gt;102400,"No","Yes")</f>
+        <f>IF('FSLogix Calculator'!B16&gt;102400,"No, must configure additional storage accounts","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5941,7 +5837,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="B6" s="37" t="str">
         <f>IF(IF(('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6)&gt;('FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3),'FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6,'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3)&gt;definitions!B42,"Required capacity exceeds documented 100TiB upper limit","Yes")</f>
@@ -5959,62 +5855,62 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>155</v>
+        <v>156</v>
       </c>
       <c r="B8" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*(1-'FSLogix Calculator'!B9)))-definitions!B43)/definitions!B44</f>
-        <v>-785.9375</v>
+        <v>-926.25000000000011</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>156</v>
+        <v>157</v>
       </c>
       <c r="B9" s="15">
         <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*'FSLogix Calculator'!B9))-definitions!B45)/definitions!B46</f>
-        <v>284.375</v>
+        <v>-557.5</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>158</v>
+        <v>159</v>
       </c>
       <c r="B10" s="15">
         <f>IF(B8&lt;100,100,B8)</f>
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>139</v>
+        <v>140</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>159</v>
+        <v>160</v>
       </c>
       <c r="B11" s="15">
         <f>IF(B9&lt;100,100,B9)</f>
-        <v>284.375</v>
+        <v>100</v>
       </c>
       <c r="C11" t="s">
-        <v>140</v>
+        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>157</v>
+        <v>158</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(MAX(B10:B11),B10:B11,C10:C11)</f>
-        <v>Write Bandwidth</v>
+        <v>Read Bandwidth</v>
       </c>
       <c r="C12" s="15">
         <f>MAX(B10:B11)</f>
-        <v>284.375</v>
+        <v>100</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>161</v>
+        <v>162</v>
       </c>
       <c r="B13" t="str">
         <f>IF(B9&gt;'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6,"Bandwidth Need","I/O Need")</f>
@@ -6022,12 +5918,12 @@
       </c>
       <c r="C13" s="15">
         <f>IF(B9&gt;'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6,C$12,'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6)</f>
-        <v>2055</v>
+        <v>708</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>160</v>
+        <v>161</v>
       </c>
       <c r="B14" t="str">
         <f>IF(C13&gt;'FSLogix Calculator'!B16,'Azure Files Calculations'!B13,"Profile Size")</f>
@@ -6035,85 +5931,85 @@
       </c>
       <c r="C14" s="15">
         <f>IF(C13&gt;'FSLogix Calculator'!B16,'Azure Files Calculations'!C13,'FSLogix Calculator'!B16)</f>
-        <v>4110</v>
+        <v>4130</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="73"/>
+      <c r="B17" s="74"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="73"/>
+      <c r="B18" s="74"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="64" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="58" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="63" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="57" priority="16" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="62" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="containsText" dxfId="61" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="60" priority="5" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="59" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="58" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="57" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="56" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="55" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsText" dxfId="54" priority="8" operator="containsText" text="No: Required ">
+    <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="No: Required ">
       <formula>NOT(ISERROR(SEARCH("No: Required ",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="53" priority="7" operator="containsText" text="No:  Required ">
+    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="No:  Required ">
       <formula>NOT(ISERROR(SEARCH("No:  Required ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="52" priority="6" operator="containsText" text="No:">
+    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="No:">
       <formula>NOT(ISERROR(SEARCH("No:",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="51" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="cellIs" dxfId="50" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsText" dxfId="49" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6126,7 +6022,7 @@
   <sheetPr codeName="Sheet4"/>
   <dimension ref="A1:E47"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="A12" workbookViewId="0">
       <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
@@ -6152,7 +6048,7 @@
         <v>60</v>
       </c>
       <c r="E1" t="s">
-        <v>136</v>
+        <v>137</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.25">
@@ -6320,7 +6216,7 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" s="21" t="s">
-        <v>164</v>
+        <v>165</v>
       </c>
       <c r="B23" s="2"/>
       <c r="D23" s="46"/>
@@ -6475,7 +6371,7 @@
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A41" s="21" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="B41" s="15">
         <v>102400</v>
@@ -6483,7 +6379,7 @@
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A42" s="21" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="B42" s="15">
         <v>102400</v>
@@ -6491,7 +6387,7 @@
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A43" s="21" t="s">
-        <v>151</v>
+        <v>152</v>
       </c>
       <c r="B43" s="15">
         <v>60</v>
@@ -6499,15 +6395,15 @@
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A44" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B44" s="72">
+        <v>153</v>
+      </c>
+      <c r="B44" s="73">
         <v>0.06</v>
       </c>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A45" s="21" t="s">
-        <v>153</v>
+        <v>154</v>
       </c>
       <c r="B45" s="15">
         <v>40</v>
@@ -6515,15 +6411,15 @@
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A46" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B46" s="72">
+        <v>155</v>
+      </c>
+      <c r="B46" s="73">
         <v>0.04</v>
       </c>
     </row>
     <row r="47" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A47" s="21" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="B47" s="26">
         <v>0.4</v>
@@ -6543,7 +6439,7 @@
   <sheetPr codeName="Sheet5"/>
   <dimension ref="A1:AI12"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView topLeftCell="J1" workbookViewId="0">
       <selection activeCell="B50" sqref="B50"/>
     </sheetView>
   </sheetViews>
@@ -6559,120 +6455,120 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>123</v>
+        <v>124</v>
       </c>
       <c r="B1" t="s">
-        <v>124</v>
+        <v>125</v>
       </c>
       <c r="C1" t="s">
-        <v>125</v>
+        <v>126</v>
       </c>
       <c r="D1" t="s">
+        <v>127</v>
+      </c>
+      <c r="E1" t="s">
+        <v>128</v>
+      </c>
+      <c r="F1" t="s">
+        <v>129</v>
+      </c>
+      <c r="G1" t="s">
+        <v>130</v>
+      </c>
+      <c r="H1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I1" t="s">
+        <v>132</v>
+      </c>
+      <c r="J1" t="s">
+        <v>133</v>
+      </c>
+      <c r="K1" t="s">
+        <v>134</v>
+      </c>
+      <c r="L1" t="s">
+        <v>135</v>
+      </c>
+      <c r="M1" t="s">
+        <v>136</v>
+      </c>
+      <c r="N1" t="s">
         <v>126</v>
       </c>
-      <c r="E1" t="s">
+      <c r="O1" t="s">
         <v>127</v>
       </c>
-      <c r="F1" t="s">
+      <c r="P1" t="s">
         <v>128</v>
       </c>
-      <c r="G1" t="s">
+      <c r="Q1" t="s">
         <v>129</v>
       </c>
-      <c r="H1" t="s">
+      <c r="R1" t="s">
         <v>130</v>
       </c>
-      <c r="I1" t="s">
+      <c r="S1" t="s">
         <v>131</v>
       </c>
-      <c r="J1" t="s">
+      <c r="T1" t="s">
         <v>132</v>
       </c>
-      <c r="K1" t="s">
+      <c r="U1" t="s">
         <v>133</v>
       </c>
-      <c r="L1" t="s">
+      <c r="V1" t="s">
         <v>134</v>
       </c>
-      <c r="M1" t="s">
+      <c r="W1" t="s">
         <v>135</v>
       </c>
-      <c r="N1" t="s">
-        <v>125</v>
-      </c>
-      <c r="O1" t="s">
+      <c r="X1" t="s">
+        <v>136</v>
+      </c>
+      <c r="Y1" t="s">
         <v>126</v>
       </c>
-      <c r="P1" t="s">
+      <c r="Z1" t="s">
         <v>127</v>
       </c>
-      <c r="Q1" t="s">
+      <c r="AA1" t="s">
         <v>128</v>
       </c>
-      <c r="R1" t="s">
+      <c r="AB1" t="s">
         <v>129</v>
       </c>
-      <c r="S1" t="s">
+      <c r="AC1" t="s">
         <v>130</v>
       </c>
-      <c r="T1" t="s">
+      <c r="AD1" t="s">
         <v>131</v>
       </c>
-      <c r="U1" t="s">
+      <c r="AE1" t="s">
         <v>132</v>
       </c>
-      <c r="V1" t="s">
+      <c r="AF1" t="s">
         <v>133</v>
       </c>
-      <c r="W1" t="s">
+      <c r="AG1" t="s">
         <v>134</v>
       </c>
-      <c r="X1" t="s">
+      <c r="AH1" t="s">
         <v>135</v>
       </c>
-      <c r="Y1" t="s">
-        <v>125</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>126</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>134</v>
-      </c>
       <c r="AI1" t="s">
-        <v>135</v>
+        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B2" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C2" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D2">
         <v>9027</v>
@@ -6717,7 +6613,7 @@
         <v>65536</v>
       </c>
       <c r="R2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="S2">
         <v>2.1063333333299998</v>
@@ -6750,7 +6646,7 @@
         <v>65536</v>
       </c>
       <c r="AC2" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="AD2">
         <v>7.4829999999999997</v>
@@ -6773,13 +6669,13 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C3" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D3">
         <v>8997</v>
@@ -6824,7 +6720,7 @@
         <v>65536</v>
       </c>
       <c r="R3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="S3">
         <v>2.2126666666700001</v>
@@ -6857,7 +6753,7 @@
         <v>65536</v>
       </c>
       <c r="AC3" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="AD3">
         <v>6.8860000000000001</v>
@@ -6880,13 +6776,13 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B4" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C4" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D4">
         <v>8570</v>
@@ -6931,7 +6827,7 @@
         <v>65536</v>
       </c>
       <c r="R4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="S4">
         <v>2.4056666666700002</v>
@@ -6964,7 +6860,7 @@
         <v>65536</v>
       </c>
       <c r="AC4" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="AD4">
         <v>6.6449999999999996</v>
@@ -6987,13 +6883,13 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B5" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C5" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D5">
         <v>7871</v>
@@ -7038,7 +6934,7 @@
         <v>65536</v>
       </c>
       <c r="R5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="S5">
         <v>2.4623333333300002</v>
@@ -7071,7 +6967,7 @@
         <v>65536</v>
       </c>
       <c r="AC5" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="AD5">
         <v>6.4393333333299996</v>
@@ -7094,13 +6990,13 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B6" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C6" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D6">
         <v>6853</v>
@@ -7145,7 +7041,7 @@
         <v>65536</v>
       </c>
       <c r="R6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="S6">
         <v>2.5903333333299998</v>
@@ -7178,7 +7074,7 @@
         <v>65536</v>
       </c>
       <c r="AC6" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="AD6">
         <v>6.4546666666699997</v>
@@ -7201,13 +7097,13 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B7" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C7" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D7">
         <v>9303</v>
@@ -7252,7 +7148,7 @@
         <v>65536</v>
       </c>
       <c r="R7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="S7">
         <v>2.6956666666700002</v>
@@ -7285,7 +7181,7 @@
         <v>65536</v>
       </c>
       <c r="AC7" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="AD7">
         <v>6.4283333333300003</v>
@@ -7308,13 +7204,13 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B8" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C8" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D8">
         <v>7216</v>
@@ -7359,7 +7255,7 @@
         <v>65536</v>
       </c>
       <c r="R8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="S8">
         <v>2.9540000000000002</v>
@@ -7392,7 +7288,7 @@
         <v>65536</v>
       </c>
       <c r="AC8" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="AD8">
         <v>6.7686666666699997</v>
@@ -7415,13 +7311,13 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B9" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C9" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D9">
         <v>8643</v>
@@ -7466,7 +7362,7 @@
         <v>65536</v>
       </c>
       <c r="R9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="S9">
         <v>3.26633333333</v>
@@ -7499,7 +7395,7 @@
         <v>65536</v>
       </c>
       <c r="AC9" t="s">
-        <v>119</v>
+        <v>120</v>
       </c>
       <c r="AD9">
         <v>7.2423333333300004</v>
@@ -7522,13 +7418,13 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B10" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C10" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D10">
         <v>8431</v>
@@ -7573,7 +7469,7 @@
         <v>65536</v>
       </c>
       <c r="R10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="S10">
         <v>3.6153333333300002</v>
@@ -7606,7 +7502,7 @@
         <v>65536</v>
       </c>
       <c r="AC10" t="s">
-        <v>120</v>
+        <v>121</v>
       </c>
       <c r="AD10">
         <v>7.8673333333300004</v>
@@ -7629,13 +7525,13 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B11" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C11" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D11">
         <v>10134</v>
@@ -7680,7 +7576,7 @@
         <v>65536</v>
       </c>
       <c r="R11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="S11">
         <v>3.99633333333</v>
@@ -7713,7 +7609,7 @@
         <v>65536</v>
       </c>
       <c r="AC11" t="s">
-        <v>121</v>
+        <v>122</v>
       </c>
       <c r="AD11">
         <v>8.3573333333300006</v>
@@ -7736,13 +7632,13 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="B12" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="C12" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="D12">
         <v>9700</v>
@@ -7787,7 +7683,7 @@
         <v>65536</v>
       </c>
       <c r="R12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="S12">
         <v>4.3016666666700001</v>
@@ -7820,7 +7716,7 @@
         <v>65536</v>
       </c>
       <c r="AC12" t="s">
-        <v>122</v>
+        <v>123</v>
       </c>
       <c r="AD12">
         <v>8.9133333333299998</v>

--- a/fslogix-ANF-calculator.xlsx
+++ b/fslogix-ANF-calculator.xlsx
@@ -1,14 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23127"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23231"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://netapp-my.sharepoint.com/personal/mchad_netapp_com/Documents/Documents/DataFabric/calculators/fslogix-calculator/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MChad\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{304A4FDD-42B5-42FA-95CC-FF656758BAD3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{F282D37A-2727-43A6-94A0-D31E5FAE0319}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection workbookAlgorithmName="SHA-512" workbookHashValue="gDUjH74XIGJJUPzyUYWvoxOiicF7Tj8bMGxa9N6oH2WDFKBAQRs6A3usjtyMZL21vRXIpTSfoOQkIo1QhX1WEA==" workbookSaltValue="PS9NlcIsX9yYtdu7qj/kUQ==" workbookSpinCount="100000" lockStructure="1"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13140" xr2:uid="{CB3913B2-BB8F-4CB3-9459-2FD527F7F31B}"/>
   </bookViews>
@@ -19,7 +20,7 @@
     <sheet name="definitions" sheetId="2" state="hidden" r:id="rId4"/>
     <sheet name="Throughput Test" sheetId="5" state="hidden" r:id="rId5"/>
   </sheets>
-  <calcPr calcId="191029" iterate="1" iterateCount="3"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -37,7 +38,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="303" uniqueCount="169">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="314" uniqueCount="181">
   <si>
     <t>seconds in an hour</t>
   </si>
@@ -159,15 +160,6 @@
     <t>Ultra</t>
   </si>
   <si>
-    <t>Standard: Capacity Cost</t>
-  </si>
-  <si>
-    <t>Premium: Capacity Cost</t>
-  </si>
-  <si>
-    <t>Ultra: Capacity Cost</t>
-  </si>
-  <si>
     <t>Standard: Percentage Difference Than Azure Files</t>
   </si>
   <si>
@@ -240,30 +232,15 @@
     <t>Capacity Per User (GiB)</t>
   </si>
   <si>
-    <t>Monthly Cost Break Down (I/O)</t>
-  </si>
-  <si>
-    <t>Monthly Cost Break Down (GiB)</t>
-  </si>
-  <si>
     <t>Monthly Cost Per User</t>
   </si>
   <si>
-    <t>Monthly Cost</t>
-  </si>
-  <si>
     <t>Azure NetApp Files Additional Information</t>
   </si>
   <si>
     <t>Azure NetApp Files Price Break Down</t>
   </si>
   <si>
-    <t>Azure Files Price Break Down</t>
-  </si>
-  <si>
-    <t>Azure Premium Files Price Break Down</t>
-  </si>
-  <si>
     <t>Capacity (GiB)</t>
   </si>
   <si>
@@ -285,15 +262,9 @@
     <t>Azure NetApp Files</t>
   </si>
   <si>
-    <t>Azure (Standard) Files</t>
-  </si>
-  <si>
     <t>Azure Premium Files</t>
   </si>
   <si>
-    <t>FSLogix Storage Calculator</t>
-  </si>
-  <si>
     <t>Standard: Select Capacity/Bandwidth/Capacity Pool Minimum (English)</t>
   </si>
   <si>
@@ -544,6 +515,85 @@
   </si>
   <si>
     <t>Configure more than one volume</t>
+  </si>
+  <si>
+    <t>hours in a week</t>
+  </si>
+  <si>
+    <t>non hours in a week</t>
+  </si>
+  <si>
+    <t>Percentage of week working</t>
+  </si>
+  <si>
+    <t>Percentage of week not working</t>
+  </si>
+  <si>
+    <t>Standard: Total Capacity Cost</t>
+  </si>
+  <si>
+    <t>Premium: Total Capacity Costs</t>
+  </si>
+  <si>
+    <t>Ultra: Total Capacity Costs</t>
+  </si>
+  <si>
+    <t>Monthly Cost (Assuming Volume Shaping)</t>
+  </si>
+  <si>
+    <t>Working Hours Cost</t>
+  </si>
+  <si>
+    <t>Non Working Hour Cost</t>
+  </si>
+  <si>
+    <t>Standard: Capacity Cost for working hours (assuming shaping)</t>
+  </si>
+  <si>
+    <t>Premium: Capacity Cost for working hours (assuming shaping)</t>
+  </si>
+  <si>
+    <t>Ultra: Capacity Cost for working hours (assuming shaping)</t>
+  </si>
+  <si>
+    <t>Standard: Capacity Cost for non working hours (assuming shaping)</t>
+  </si>
+  <si>
+    <t>Premium: Capacity Cost for non working hours (assuming shaping)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">Ultra: Capacity Cost for non working hours </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>(assuming shaping)</t>
+    </r>
+  </si>
+  <si>
+    <t>Calculated Montly Cost</t>
+  </si>
+  <si>
+    <t>Azure NetApp Files Volume Shaping</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>yes</t>
+  </si>
+  <si>
+    <t>no</t>
+  </si>
+  <si>
+    <t>FSLogix ANF Calculator</t>
   </si>
 </sst>
 </file>
@@ -558,7 +608,7 @@
     <numFmt numFmtId="167" formatCode="&quot;$&quot;#,##0.00000000_);[Red]\(&quot;$&quot;#,##0.00000000\)"/>
     <numFmt numFmtId="168" formatCode="&quot;$&quot;#,##0"/>
   </numFmts>
-  <fonts count="6" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -602,8 +652,16 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="16"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="5">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -628,8 +686,20 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="9">
     <border>
       <left/>
       <right/>
@@ -716,11 +786,26 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="medium">
+        <color indexed="64"/>
+      </left>
+      <right style="medium">
+        <color indexed="64"/>
+      </right>
+      <top style="medium">
+        <color indexed="64"/>
+      </top>
+      <bottom style="medium">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="80">
+  <cellXfs count="93">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -732,9 +817,6 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="165" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
@@ -837,9 +919,6 @@
       <alignment horizontal="left"/>
       <protection locked="0"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
@@ -861,18 +940,12 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="4" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -899,9 +972,6 @@
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
@@ -924,11 +994,78 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="10" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="5" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="6" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="165" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="168" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="100">
+  <dxfs count="93">
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <font>
+        <b/>
+      </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="13" formatCode="0%"/>
+    </dxf>
     <dxf>
       <font>
         <color rgb="FF9C0006"/>
@@ -941,11 +1078,21 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -961,11 +1108,61 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C5700"/>
+        <color rgb="FF9C0006"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -980,43 +1177,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C5700"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFEB9C"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF9C0006"/>
       </font>
@@ -1028,32 +1188,11 @@
     </dxf>
     <dxf>
       <font>
-        <color rgb="FF9C0006"/>
+        <color rgb="FF006100"/>
       </font>
       <fill>
         <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
+          <bgColor rgb="FFC6EFCE"/>
         </patternFill>
       </fill>
     </dxf>
@@ -1078,78 +1217,6 @@
       </fill>
     </dxf>
     <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
       <font>
         <color rgb="FF006100"/>
       </font>
@@ -1160,308 +1227,16 @@
       </fill>
     </dxf>
     <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <fill>
-        <patternFill>
-          <bgColor theme="1"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <numFmt numFmtId="0" formatCode="General"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="0" formatCode="General"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="13" formatCode="0%"/>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF9C0006"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFFFC7CE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <font>
-        <color rgb="FF006100"/>
-      </font>
-      <fill>
-        <patternFill>
-          <bgColor rgb="FFC6EFCE"/>
-        </patternFill>
-      </fill>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <numFmt numFmtId="0" formatCode="General"/>
-    </dxf>
-    <dxf>
-      <font>
-        <b/>
-      </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1496,6 +1271,7 @@
       <font>
         <b/>
       </font>
+      <alignment textRotation="0" wrapText="1" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1539,7 +1315,7 @@
       <font>
         <b/>
       </font>
-      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment vertical="center" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1599,6 +1375,12 @@
       <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment vertical="center" textRotation="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
         <b/>
       </font>
@@ -1646,14 +1428,13 @@
       <font>
         <b/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1672,9 +1453,14 @@
       </border>
     </dxf>
     <dxf>
-      <font>
-        <b/>
-      </font>
+      <numFmt numFmtId="3" formatCode="#,##0"/>
+      <fill>
+        <patternFill patternType="solid">
+          <fgColor indexed="64"/>
+          <bgColor theme="9"/>
+        </patternFill>
+      </fill>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <font>
@@ -1682,11 +1468,13 @@
       </font>
       <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <protection locked="0" hidden="0"/>
     </dxf>
     <dxf>
       <font>
         <b/>
       </font>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <border diagonalUp="0" diagonalDown="0">
@@ -1705,79 +1493,358 @@
       </border>
     </dxf>
     <dxf>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
       <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
+      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
       <font>
-        <b/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="165" formatCode="&quot;$&quot;#,##0.00"/>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <color rgb="FF9C0006"/>
       </font>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="center" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <color rgb="FF9C0006"/>
       </font>
-      <numFmt numFmtId="3" formatCode="#,##0"/>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-      <protection locked="0" hidden="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
     </dxf>
     <dxf>
       <font>
-        <b/>
+        <color rgb="FF006100"/>
       </font>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="medium">
-          <color indexed="64"/>
-        </left>
-        <right style="medium">
-          <color indexed="64"/>
-        </right>
-        <top style="medium">
-          <color indexed="64"/>
-        </top>
-        <bottom style="medium">
-          <color indexed="64"/>
-        </bottom>
-      </border>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="left" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C5700"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFEB9C"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF006100"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFC6EFCE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <font>
+        <color rgb="FF9C0006"/>
+      </font>
+      <fill>
+        <patternFill>
+          <bgColor rgb="FFFFC7CE"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
+    </dxf>
+    <dxf>
+      <fill>
+        <patternFill>
+          <bgColor theme="1"/>
+        </patternFill>
+      </fill>
     </dxf>
   </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -3630,85 +3697,91 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A2:B9" totalsRowShown="0" headerRowDxfId="99" dataDxfId="98" tableBorderDxfId="97">
-  <autoFilter ref="A2:B9" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{856F6794-4173-4194-B8E4-7BB540367D16}" name="Table3" displayName="Table3" ref="A4:B11" totalsRowShown="0" headerRowDxfId="53" dataDxfId="52" tableBorderDxfId="51">
+  <autoFilter ref="A4:B11" xr:uid="{91E6A135-C0E7-4D0B-8EB4-141892DA45C5}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="96"/>
-    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="95"/>
+    <tableColumn id="1" xr3:uid="{2F564818-5A0F-4075-8D5E-BCEC57D8FC3C}" name="Fields" dataDxfId="50"/>
+    <tableColumn id="2" xr3:uid="{D42113E7-14D7-4A36-BB89-433CD657FB9D}" name="Input " dataDxfId="49"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium3" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B47" totalsRowShown="0" dataDxfId="41">
-  <autoFilter ref="A22:B47" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A14:B19" totalsRowShown="0" headerRowDxfId="48" tableBorderDxfId="47">
+  <autoFilter ref="A14:B19" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
   <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="40"/>
-    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="39"/>
+    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="46"/>
+    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="45"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{E152E804-6E16-4FE5-822A-359F4049D3B1}" name="Table2" displayName="Table2" ref="A28:B32" totalsRowShown="0" headerRowDxfId="94" dataDxfId="93" tableBorderDxfId="92">
-  <autoFilter ref="A28:B32" xr:uid="{4897B486-AB3B-4450-B296-0E35971B3AE2}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3A7044B6-6E00-4BEF-9FE6-A7DEE00EE3F3}" name="Azure Files Price Break Down" dataDxfId="91"/>
-    <tableColumn id="2" xr3:uid="{6BB28A88-2884-4CC5-80B3-4CA3051CCAC3}" name="Calculated Output" dataDxfId="90"/>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A21:D23" totalsRowShown="0" dataDxfId="44" tableBorderDxfId="43">
+  <autoFilter ref="A21:D23" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="42"/>
+    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Montly Cost" dataDxfId="41"/>
+    <tableColumn id="3" xr3:uid="{AF833074-9B28-4223-9165-83150BC78ED9}" name="Working Hours Cost" dataDxfId="40"/>
+    <tableColumn id="4" xr3:uid="{C7199001-B01A-41FD-9464-9A86DAF94291}" name="Non Working Hour Cost" dataDxfId="39"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{BA317605-A8C7-4DFA-9894-A955BD37C1CF}" name="Table4" displayName="Table4" ref="A11:B16" totalsRowShown="0" headerRowDxfId="89" tableBorderDxfId="88">
-  <autoFilter ref="A11:B16" xr:uid="{FDD62D26-CF49-4DB8-BB86-E5640AFB3072}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{98F6AE4C-A8FE-46A2-B695-4F7EC29B79C1}" name="High Level Environmental Needs" dataDxfId="87"/>
-    <tableColumn id="2" xr3:uid="{923448D6-8587-46CF-AC83-4786C0E6E31A}" name="Calculated Output" dataDxfId="86"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight21" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{E9B81EED-ACF0-4F74-94BF-2331D9B58AEF}" name="Table5" displayName="Table5" ref="A36:B38" totalsRowShown="0" dataDxfId="85" tableBorderDxfId="84">
-  <autoFilter ref="A36:B38" xr:uid="{F64951B7-0541-475C-8E4E-15CB609631E0}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{EEA382B5-FB82-4F1D-9327-A87385C52897}" name="Azure Premium Files Price Break Down" dataDxfId="83"/>
-    <tableColumn id="2" xr3:uid="{E770553C-A0C0-45E6-BC23-3E0DD3249B14}" name="Calculated Output" dataDxfId="82"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="F21:J29" totalsRowShown="0" dataDxfId="38" tableBorderDxfId="37">
+  <autoFilter ref="F21:J29" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="36" totalsRowDxfId="35"/>
+    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="34"/>
+    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="33">
+      <calculatedColumnFormula>IF(G23&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="32">
+      <calculatedColumnFormula>IF(B5&gt;G27,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="31">
+      <calculatedColumnFormula>IF(B5&gt;G27,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{72039F74-6304-436F-9B2C-E726744D9970}" name="Table9" displayName="Table9" ref="A18:B22" totalsRowShown="0" dataDxfId="81" tableBorderDxfId="80">
-  <autoFilter ref="A18:B22" xr:uid="{1849FF8B-C5DF-48B3-BD49-7E1B6D720287}"/>
-  <tableColumns count="2">
-    <tableColumn id="1" xr3:uid="{3F78E685-9C28-44F6-9A2A-3F9135F54C28}" name="Azure NetApp Files Price Break Down" dataDxfId="79"/>
-    <tableColumn id="2" xr3:uid="{AA370671-CA18-4101-A4C3-7BC422CCC1F1}" name="Calculated Output" dataDxfId="78"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="F31:J37" totalsRowShown="0" headerRowDxfId="30" tableBorderDxfId="29">
+  <autoFilter ref="F31:J37" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
+  <tableColumns count="5">
+    <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
+    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="28"/>
+    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="27">
+      <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="26">
+      <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
+    </tableColumn>
+    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="25">
+      <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
+    </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="18" xr:uid="{2F4EE936-97FF-430B-BCE0-3BA4433FF3D4}" name="Table91119" displayName="Table91119" ref="D18:H26" totalsRowShown="0" dataDxfId="77" tableBorderDxfId="76">
-  <autoFilter ref="D18:H26" xr:uid="{F75E429C-8018-41C4-B4C3-C0AD783F2D38}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{25D43E32-76CE-4E57-9637-4A7FD2463E37}" name="Azure NetApp Files Additional Information" dataDxfId="75" totalsRowDxfId="74"/>
-    <tableColumn id="2" xr3:uid="{3C9CF5B6-EAB8-4222-9C96-5A10EE28F85F}" name=" Output" dataDxfId="73"/>
-    <tableColumn id="3" xr3:uid="{F8FAE1CB-5733-4CC5-9F68-AD29EB511AF6}" name="Etc(1)" dataDxfId="72">
-      <calculatedColumnFormula>IF(E20&gt;definitions!B24,definitions!$A$23,"Yes")</calculatedColumnFormula>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="F39:I45" totalsRowShown="0" headerRowDxfId="24" tableBorderDxfId="23">
+  <autoFilter ref="F39:I45" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
+  <tableColumns count="4">
+    <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
+    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="22"/>
+    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="21">
+      <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="4" xr3:uid="{2A8935D0-2756-4A0D-B01F-87C8DFAE1AD5}" name="Etc(2)" dataDxfId="71">
-      <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{7CD54AC1-822B-4FE1-B7D3-C9A779DEF8FC}" name="Etc(3)" dataDxfId="70">
-      <calculatedColumnFormula>IF(B3&gt;E24,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</calculatedColumnFormula>
+    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="20">
+      <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
     </tableColumn>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
@@ -3716,51 +3789,26 @@
 </file>
 
 <file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="21" xr:uid="{E617B910-6016-4284-B1B7-B2BDBB2DAC94}" name="Table622" displayName="Table622" ref="D28:H34" totalsRowShown="0" headerRowDxfId="69" tableBorderDxfId="68">
-  <autoFilter ref="D28:H34" xr:uid="{6432D5DC-E020-4F4A-81F0-AFAE2FFBB2FE}"/>
-  <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{284AB7F5-C1F5-4923-8D18-8B326F2B7795}" name="Azure Standard Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{A95529E7-EF42-4D6F-BDD9-4D129864E797}" name="Output" dataDxfId="67"/>
-    <tableColumn id="3" xr3:uid="{9881ABB1-4E08-4030-AEC9-CCA810605C29}" name="Etc(1)" dataDxfId="66">
-      <calculatedColumnFormula>'Azure Files Calculations'!$B$4</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{5BC3DEF6-CDB9-4DE9-B8FF-9749CBA220CD}" name="Etc(2)" dataDxfId="65">
-      <calculatedColumnFormula>'Azure Files Calculations'!$B$2</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="5" xr3:uid="{3F802064-6239-4D79-9EEF-E6B1422584F4}" name="Etc(3)" dataDxfId="64">
-      <calculatedColumnFormula>'Azure Files Calculations'!$B$3</calculatedColumnFormula>
-    </tableColumn>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D22AF52-430F-48A3-BC6A-EC30D412E5EE}" name="Table1" displayName="Table1" ref="A1:F21" totalsRowShown="0">
+  <autoFilter ref="A1:F21" xr:uid="{81B2E200-FC2F-4069-86C2-6671D699FE86}"/>
+  <tableColumns count="6">
+    <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
+    <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
+    <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
+    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{5EBEBC80-5940-4420-B7CB-91D5FC7DF075}" name="Read Percenage"/>
+    <tableColumn id="6" xr3:uid="{3965A4D9-F34B-424C-8DD6-AA7E0E566849}" name="boolean"/>
   </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="22" xr:uid="{017E12BE-FEED-449C-A993-3E3DA447FC83}" name="Table61423" displayName="Table61423" ref="D36:G42" totalsRowShown="0" headerRowDxfId="63" tableBorderDxfId="62">
-  <autoFilter ref="D36:G42" xr:uid="{35197520-871D-45A1-92D2-3E64562C597C}"/>
-  <tableColumns count="4">
-    <tableColumn id="1" xr3:uid="{7454E181-1F78-43D7-992D-393BF7E62908}" name="Azure Premium Files Additional Information"/>
-    <tableColumn id="2" xr3:uid="{D283543A-6DF3-46B8-B880-680345E5383E}" name="output" dataDxfId="61"/>
-    <tableColumn id="3" xr3:uid="{383E5A06-7313-4E3D-A474-C65E865DB16D}" name="Etc(1)" dataDxfId="60">
-      <calculatedColumnFormula>'Azure Files Calculations'!$B$6</calculatedColumnFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{22B7B0DB-CD46-43E2-A4B8-192176C63B53}" name="Etc(2)" dataDxfId="59">
-      <calculatedColumnFormula>'Azure Files Calculations'!$B$5</calculatedColumnFormula>
-    </tableColumn>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium1" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{5D22AF52-430F-48A3-BC6A-EC30D412E5EE}" name="Table1" displayName="Table1" ref="A1:E21" totalsRowShown="0">
-  <autoFilter ref="A1:E21" xr:uid="{81B2E200-FC2F-4069-86C2-6671D699FE86}"/>
-  <tableColumns count="5">
-    <tableColumn id="2" xr3:uid="{9191646A-D382-43C8-AD5D-D9379A6352B8}" name="IO Size"/>
-    <tableColumn id="3" xr3:uid="{B94E1025-3714-4DA4-824F-A38F565F77F4}" name="IOPS Per User"/>
-    <tableColumn id="1" xr3:uid="{E67A9471-95D1-42FF-B18E-7D012DE67FD4}" name="VHD Sizes"/>
-    <tableColumn id="4" xr3:uid="{779397D8-86EA-41AE-9217-A6D49A13139B}" name="Concurrent Users" dataDxfId="42"/>
-    <tableColumn id="5" xr3:uid="{5EBEBC80-5940-4420-B7CB-91D5FC7DF075}" name="Read Percenage"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{B5554924-003B-4661-B33F-97EE2DB8E4A1}" name="Table8" displayName="Table8" ref="A22:B51" totalsRowShown="0" dataDxfId="2">
+  <autoFilter ref="A22:B51" xr:uid="{783E58C8-C7D9-4121-86C6-A6F7E49A97E3}"/>
+  <tableColumns count="2">
+    <tableColumn id="1" xr3:uid="{62872274-DD35-4869-BA93-32B33621B006}" name="Keys" dataDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{BCBEE816-C2FF-4BB7-8812-71E8D95CE734}" name="Values" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -4066,1039 +4114,1200 @@
   <sheetPr codeName="Sheet1">
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:H112"/>
+  <dimension ref="A1:J115"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="60" zoomScaleNormal="60" workbookViewId="0">
-      <selection activeCell="A48" sqref="A48"/>
+      <selection activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="63" style="8" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="108.28515625" style="8" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="2" customWidth="1"/>
-    <col min="4" max="4" width="85.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="62" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="11.85546875" customWidth="1"/>
-    <col min="7" max="7" width="12.28515625" customWidth="1"/>
+    <col min="1" max="1" width="63" style="7" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="68.5703125" style="7" customWidth="1"/>
+    <col min="3" max="4" width="18" style="7" customWidth="1"/>
+    <col min="5" max="5" width="2" customWidth="1"/>
+    <col min="6" max="6" width="85.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="62" style="81" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="11.85546875" customWidth="1"/>
+    <col min="9" max="9" width="12.28515625" customWidth="1"/>
+    <col min="10" max="10" width="11.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="77" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="78"/>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A2" s="18" t="s">
+    <row r="1" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="72" t="s">
+        <v>180</v>
+      </c>
+      <c r="B1" s="73"/>
+      <c r="C1" s="73"/>
+      <c r="D1" s="73"/>
+    </row>
+    <row r="2" spans="1:7" ht="27.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.4">
+      <c r="A2" s="78" t="s">
+        <v>176</v>
+      </c>
+      <c r="B2" s="80" t="s">
+        <v>178</v>
+      </c>
+      <c r="C2" s="73"/>
+      <c r="D2" s="73"/>
+    </row>
+    <row r="3" spans="1:7" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="72"/>
+      <c r="B3" s="73"/>
+      <c r="C3" s="73"/>
+      <c r="D3" s="73"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="B2" s="18" t="s">
+      <c r="B4" s="17" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A3" s="18" t="s">
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="32">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A4" s="18" t="s">
-        <v>164</v>
-      </c>
-      <c r="B4" s="32">
-        <v>6</v>
-      </c>
-      <c r="D4" s="57"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A5" s="18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B5" s="32">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A6" s="21" t="s">
-        <v>107</v>
-      </c>
-      <c r="B6" s="47">
+      <c r="B5" s="31">
+        <v>200</v>
+      </c>
+      <c r="C5" s="31"/>
+      <c r="D5" s="31"/>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A6" s="17" t="s">
+        <v>154</v>
+      </c>
+      <c r="B6" s="31">
+        <v>20</v>
+      </c>
+      <c r="C6" s="31"/>
+      <c r="D6" s="31"/>
+      <c r="F6" s="54"/>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A7" s="17" t="s">
+        <v>60</v>
+      </c>
+      <c r="B7" s="31">
+        <v>20</v>
+      </c>
+      <c r="C7" s="31"/>
+      <c r="D7" s="31"/>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A8" s="20" t="s">
+        <v>97</v>
+      </c>
+      <c r="B8" s="46">
         <v>1</v>
       </c>
-      <c r="D6" s="46"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A7" s="18" t="s">
-        <v>64</v>
-      </c>
-      <c r="B7" s="32">
+      <c r="C8" s="46"/>
+      <c r="D8" s="46"/>
+      <c r="F8" s="45"/>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A9" s="17" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" s="31">
         <v>40</v>
       </c>
-      <c r="D7" s="75"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A8" s="18" t="s">
-        <v>139</v>
-      </c>
-      <c r="B8" s="32">
+      <c r="C9" s="31"/>
+      <c r="D9" s="31"/>
+      <c r="F9" s="70"/>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A10" s="17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B10" s="31">
         <v>32</v>
       </c>
-      <c r="D8" s="75"/>
-      <c r="E8" s="75"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A9" s="18" t="s">
-        <v>138</v>
-      </c>
-      <c r="B9" s="62">
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="F10" s="70"/>
+      <c r="G10" s="82"/>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A11" s="17" t="s">
+        <v>128</v>
+      </c>
+      <c r="B11" s="58">
         <v>0.2</v>
       </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A10" s="17"/>
-      <c r="B10" s="17"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A11" s="18" t="s">
+      <c r="C11" s="58"/>
+      <c r="D11" s="58"/>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A12" s="17"/>
+      <c r="B12" s="58"/>
+      <c r="C12" s="58"/>
+      <c r="D12" s="58"/>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A13" s="16"/>
+      <c r="B13" s="16"/>
+      <c r="C13" s="16"/>
+      <c r="D13" s="16"/>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A14" s="77" t="s">
         <v>17</v>
       </c>
-      <c r="B11" s="18" t="s">
+      <c r="B14" s="77" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A12" s="8" t="s">
-        <v>61</v>
-      </c>
-      <c r="B12" s="18">
-        <f>B$3*B$6</f>
-        <v>118</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A13" s="22" t="s">
-        <v>101</v>
-      </c>
-      <c r="B13" s="18">
-        <f>(B$4*B$8*B$3*B$6)/1024</f>
-        <v>22.125</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A14" s="22" t="s">
+      <c r="C14" s="17"/>
+      <c r="D14" s="17"/>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A15" s="7" t="s">
+        <v>58</v>
+      </c>
+      <c r="B15" s="17">
+        <f>B$5*B$8</f>
+        <v>200</v>
+      </c>
+      <c r="C15" s="17"/>
+      <c r="D15" s="17"/>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A16" s="21" t="s">
+        <v>91</v>
+      </c>
+      <c r="B16" s="17">
+        <f>(B$6*B$10*B$5*B$8)/1024</f>
+        <v>125</v>
+      </c>
+      <c r="C16" s="17"/>
+      <c r="D16" s="17"/>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="B14" s="18">
-        <f>(B$4*B$8)</f>
-        <v>192</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A15" s="18" t="s">
+      <c r="B17" s="17">
+        <f>(B$6*B$10)</f>
+        <v>640</v>
+      </c>
+      <c r="C17" s="17"/>
+      <c r="D17" s="17"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" s="17" t="s">
         <v>16</v>
       </c>
-      <c r="B15" s="18">
-        <f>B$4*B$3*B6</f>
-        <v>708</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A16" s="18" t="s">
+      <c r="B18" s="17">
+        <f>B$6*B$5*B8</f>
+        <v>4000</v>
+      </c>
+      <c r="C18" s="17"/>
+      <c r="D18" s="17"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" s="17" t="s">
         <v>18</v>
       </c>
-      <c r="B16" s="18">
-        <f>B5*B3</f>
-        <v>4130</v>
-      </c>
-    </row>
-    <row r="17" spans="1:8" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A17" s="79" t="s">
-        <v>81</v>
-      </c>
-      <c r="B17" s="79"/>
-      <c r="C17" s="79"/>
-      <c r="D17" s="79"/>
-      <c r="E17" s="79"/>
-      <c r="F17" s="79"/>
-      <c r="G17" s="79"/>
-      <c r="H17" s="79"/>
-    </row>
-    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="A18" s="22" t="s">
-        <v>72</v>
-      </c>
-      <c r="B18" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D18" s="20" t="s">
-        <v>71</v>
-      </c>
-      <c r="E18" s="18" t="s">
-        <v>78</v>
-      </c>
-      <c r="F18" t="s">
-        <v>57</v>
-      </c>
-      <c r="G18" t="s">
-        <v>58</v>
-      </c>
-      <c r="H18" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="19" spans="1:8" s="51" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="35" t="s">
+      <c r="B19" s="17">
+        <f>B7*B5</f>
+        <v>4000</v>
+      </c>
+      <c r="C19" s="17"/>
+      <c r="D19" s="17"/>
+    </row>
+    <row r="20" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A20" s="74" t="s">
+        <v>73</v>
+      </c>
+      <c r="B20" s="74"/>
+      <c r="C20" s="74"/>
+      <c r="D20" s="74"/>
+      <c r="E20" s="74"/>
+      <c r="F20" s="74"/>
+      <c r="G20" s="83"/>
+      <c r="H20" s="74"/>
+      <c r="I20" s="74"/>
+      <c r="J20" s="74"/>
+    </row>
+    <row r="21" spans="1:10" ht="63.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A21" s="21" t="s">
+        <v>66</v>
+      </c>
+      <c r="B21" s="17" t="s">
+        <v>175</v>
+      </c>
+      <c r="C21" s="76" t="s">
+        <v>167</v>
+      </c>
+      <c r="D21" s="76" t="s">
+        <v>168</v>
+      </c>
+      <c r="F21" s="19" t="s">
+        <v>65</v>
+      </c>
+      <c r="G21" s="76" t="s">
         <v>70</v>
       </c>
-      <c r="B19" s="54">
-        <f>IF(E19="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"Recommend Adding Additional Volumes")</f>
-        <v>619.5</v>
-      </c>
-      <c r="D19" s="35" t="s">
-        <v>167</v>
-      </c>
-      <c r="E19" s="48" t="str">
+      <c r="H21" t="s">
+        <v>54</v>
+      </c>
+      <c r="I21" t="s">
+        <v>55</v>
+      </c>
+      <c r="J21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" s="49" customFormat="1" ht="138" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="34" t="s">
+        <v>166</v>
+      </c>
+      <c r="B22" s="79">
+        <f>IF(G22="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!C$46:C$48,'Azure NetApp Files Calcuations'!B$46:B$48,definitions!A$23),"Recommend Adding Additional Volumes")</f>
+        <v>753.82857142857142</v>
+      </c>
+      <c r="C22" s="92">
+        <f>IF(G22="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!C$38:C$40,'Azure NetApp Files Calcuations'!B$38:B$40,definitions!A$23),"Recommend Adding Additional Volumes")</f>
+        <v>285.71428571428572</v>
+      </c>
+      <c r="D22" s="92">
+        <f>IF(G22="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!C$42:C$44,'Azure NetApp Files Calcuations'!B$42:B$44,definitions!A$23),"Recommend Adding Additional Volumes")</f>
+        <v>468.11428571428564</v>
+      </c>
+      <c r="F22" s="34" t="s">
+        <v>157</v>
+      </c>
+      <c r="G22" s="50" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure NetApp Files Calcuations'!B35:B36,'Azure NetApp Files Calcuations'!C35:C36,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F19" s="59" t="str">
+      <c r="H22" s="56" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes","Yes",definitions!$A$23)</f>
         <v>Yes</v>
       </c>
-      <c r="G19" s="66"/>
-      <c r="H19" s="65" t="str">
-        <f>IF(B3&gt;E24,"Required bandwidth exceeds single ANF volume tested upper limit at selected read percentage","Yes")</f>
+      <c r="I22" s="62"/>
+      <c r="J22" s="61" t="str">
+        <f>IF(B5&gt;G27,"Required bandwidth exceeds single ANF volume tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="20" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B20" s="49">
-        <f>IF(E19="Yes",IF($E$21=definitions!A$23,B$19,B$19/B$3),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
-        <v>5.25</v>
-      </c>
-      <c r="D20" s="35" t="s">
-        <v>144</v>
-      </c>
-      <c r="E20" s="52">
-        <f>IF('Azure NetApp Files Calcuations'!B35="Yes",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$31:$C$33,'Azure NetApp Files Calcuations'!$B$31:$B$33),"No")</f>
-        <v>4130</v>
-      </c>
-      <c r="F20" s="53"/>
-      <c r="G20" s="67"/>
-      <c r="H20" s="67"/>
-    </row>
-    <row r="21" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="35"/>
-      <c r="B21" s="50"/>
-      <c r="D21" s="35" t="s">
-        <v>108</v>
-      </c>
-      <c r="E21" s="52" t="str">
+    <row r="23" spans="1:10" s="49" customFormat="1" ht="39" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A23" s="34" t="s">
+        <v>64</v>
+      </c>
+      <c r="B23" s="91">
+        <f>IF(G22="Yes",IF($G$24=definitions!A$23,B$22,B$22/B$5),"N/A: User Count Excceds Capability Of Azure NetApp Files")</f>
+        <v>3.7691428571428571</v>
+      </c>
+      <c r="C23" s="47"/>
+      <c r="D23" s="47"/>
+      <c r="F23" s="34" t="s">
+        <v>134</v>
+      </c>
+      <c r="G23" s="50">
+        <f>IF('Azure NetApp Files Calcuations'!B35="Yes",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!$C$31:$C$33,'Azure NetApp Files Calcuations'!$B$31:$B$33),"No")</f>
+        <v>8000</v>
+      </c>
+      <c r="H23" s="51"/>
+      <c r="I23" s="63"/>
+      <c r="J23" s="63"/>
+    </row>
+    <row r="24" spans="1:10" s="49" customFormat="1" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="34"/>
+      <c r="B24" s="48"/>
+      <c r="C24" s="48"/>
+      <c r="D24" s="48"/>
+      <c r="F24" s="34" t="s">
+        <v>98</v>
+      </c>
+      <c r="G24" s="50" t="str">
         <f>IF('Azure NetApp Files Calcuations'!B35="Yes",(_xlfn.XLOOKUP(MIN('Azure NetApp Files Calcuations'!$B$38:$B$40),'Azure NetApp Files Calcuations'!$B$38:$B$40,'Azure NetApp Files Calcuations'!$C$38:$C$40)),"No")</f>
         <v>Standard</v>
       </c>
-      <c r="F21" s="53"/>
-      <c r="G21" s="67"/>
-      <c r="H21" s="67"/>
-    </row>
-    <row r="22" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="35"/>
-      <c r="B22" s="50"/>
-      <c r="D22" s="35" t="s">
-        <v>151</v>
-      </c>
-      <c r="E22" s="52" t="str">
-        <f>IF(E19="Configure more than one volume","No",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
-        <v>Capacity</v>
-      </c>
-      <c r="F22" s="53"/>
-      <c r="G22" s="67"/>
-      <c r="H22" s="67"/>
-    </row>
-    <row r="23" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="35"/>
-      <c r="B23" s="50"/>
-      <c r="D23" s="35" t="s">
-        <v>149</v>
-      </c>
-      <c r="E23" s="52">
-        <f>IF(E19="Yes",(_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$42:$C$44,'Azure NetApp Files Calcuations'!$B$42:$B$44,definitions!A$23)),"No")</f>
-        <v>35</v>
-      </c>
-      <c r="F23" s="53"/>
-      <c r="G23" s="67"/>
-      <c r="H23" s="67"/>
-    </row>
-    <row r="24" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="35"/>
-      <c r="B24" s="49"/>
-      <c r="D24" s="64" t="s">
-        <v>103</v>
-      </c>
-      <c r="E24" s="69">
-        <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
-        <v>11722</v>
-      </c>
-      <c r="F24" s="68"/>
-      <c r="G24" s="67"/>
-      <c r="H24" s="67"/>
-    </row>
-    <row r="25" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="35"/>
-      <c r="B25" s="49"/>
-      <c r="D25" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="E25" s="69">
+      <c r="H24" s="51"/>
+      <c r="I24" s="63"/>
+      <c r="J24" s="63"/>
+    </row>
+    <row r="25" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A25" s="34"/>
+      <c r="B25" s="47"/>
+      <c r="C25" s="47"/>
+      <c r="D25" s="47"/>
+      <c r="F25" s="34" t="s">
+        <v>141</v>
+      </c>
+      <c r="G25" s="50" t="str">
+        <f>IF(G22="Configure more than one volume","No",(_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!$C$27:$C$29,'Azure NetApp Files Calcuations'!$B$27:$B$29)))</f>
+        <v>Bandwidth</v>
+      </c>
+      <c r="H25" s="51"/>
+      <c r="I25" s="63"/>
+      <c r="J25" s="63"/>
+    </row>
+    <row r="26" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="34"/>
+      <c r="B26" s="47"/>
+      <c r="C26" s="47"/>
+      <c r="D26" s="47"/>
+      <c r="F26" s="34" t="s">
+        <v>139</v>
+      </c>
+      <c r="G26" s="50">
+        <f>IF(G22="Yes",(_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!$C$50:$C$52,'Azure NetApp Files Calcuations'!$B$50:$B$52,definitions!A$23)),"No")</f>
+        <v>40</v>
+      </c>
+      <c r="H26" s="51"/>
+      <c r="I26" s="63"/>
+      <c r="J26" s="63"/>
+    </row>
+    <row r="27" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A27" s="34"/>
+      <c r="B27" s="47"/>
+      <c r="C27" s="47"/>
+      <c r="D27" s="47"/>
+      <c r="F27" s="60" t="s">
+        <v>93</v>
+      </c>
+      <c r="G27" s="84">
+        <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B17)*(1/'FSLogix Calculator'!B8),1)</f>
+        <v>3516</v>
+      </c>
+      <c r="H27" s="64"/>
+      <c r="I27" s="63"/>
+      <c r="J27" s="63"/>
+    </row>
+    <row r="28" spans="1:10" s="49" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A28" s="74"/>
+      <c r="B28" s="74"/>
+      <c r="C28" s="74"/>
+      <c r="D28" s="74"/>
+      <c r="F28" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="G28" s="84">
         <f>'Azure NetApp Files Calcuations'!B5</f>
-        <v>2925</v>
-      </c>
-      <c r="F25" s="68" t="str">
-        <f>IF(E26&gt;definitions!B30,definitions!$A$23,"Yes")</f>
+        <v>5120</v>
+      </c>
+      <c r="H28" s="64" t="str">
+        <f>IF(G29&gt;definitions!B30,definitions!$A$23,"Yes")</f>
         <v>Required capacity exceeds documented single ANF volume 100TiB upper limit</v>
       </c>
-      <c r="G25" s="68" t="str">
-        <f>IF(B9&gt;E28,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
+      <c r="I28" s="64" t="str">
+        <f>IF(B11&gt;G31,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="H25" s="68" t="str">
-        <f>IF(B9&gt;E28,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
+      <c r="J28" s="64" t="str">
+        <f>IF(B11&gt;G31,"Required bandwidth exceeds tested upper limit at selected read percentage","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="26" spans="1:8" s="51" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="35"/>
-      <c r="B26" s="49"/>
-      <c r="D26" s="55" t="str">
-        <f>IF(E22="Capacity Pool Minimum Size","# Of Users At Min Capacity Pool Size ","Temporarily Empty Field")</f>
+    <row r="29" spans="1:10" s="49" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A29" s="21"/>
+      <c r="B29" s="17"/>
+      <c r="C29" s="17"/>
+      <c r="D29" s="17"/>
+      <c r="F29" s="53" t="str">
+        <f>IF(G25="Capacity Pool Minimum Size","# Of Users At Min Capacity Pool Size ","Temporarily Empty Field")</f>
         <v>Temporarily Empty Field</v>
       </c>
-      <c r="E26" s="56" t="str">
-        <f>IF(E22="Capacity Pool Minimum Size",_xlfn.XLOOKUP(E21,'Azure NetApp Files Calcuations'!$C$15:$C$17,'Azure NetApp Files Calcuations'!$B$15:$B$17),"Temporarily Empty Field")</f>
+      <c r="G29" s="85" t="str">
+        <f>IF(G25="Capacity Pool Minimum Size",_xlfn.XLOOKUP(G24,'Azure NetApp Files Calcuations'!$C$15:$C$17,'Azure NetApp Files Calcuations'!$B$15:$B$17),"Temporarily Empty Field")</f>
         <v>Temporarily Empty Field</v>
       </c>
-      <c r="F26" s="63"/>
-      <c r="G26" s="67"/>
-      <c r="H26" s="67"/>
-    </row>
-    <row r="27" spans="1:8" s="3" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="79" t="s">
-        <v>82</v>
-      </c>
-      <c r="B27" s="79"/>
-      <c r="C27" s="79"/>
-      <c r="D27" s="79"/>
-      <c r="E27" s="79"/>
-      <c r="F27" s="79"/>
-      <c r="G27" s="79"/>
-      <c r="H27" s="79"/>
-    </row>
-    <row r="28" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A28" s="22" t="s">
-        <v>73</v>
-      </c>
-      <c r="B28" s="18" t="s">
-        <v>7</v>
-      </c>
-      <c r="D28" s="19" t="s">
-        <v>77</v>
-      </c>
-      <c r="E28" s="18" t="s">
-        <v>79</v>
-      </c>
-      <c r="F28" s="58" t="s">
-        <v>57</v>
-      </c>
-      <c r="G28" s="58" t="s">
-        <v>58</v>
-      </c>
-      <c r="H28" s="58" t="s">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="29" spans="1:8" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A29" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B29" s="54">
-        <f>IF(E29="Yes",B$32+B$31,"Must Add Additional Storage Accounts")</f>
-        <v>314.06880000000001</v>
-      </c>
-      <c r="D29" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="E29" s="35" t="str">
+      <c r="H29" s="59"/>
+      <c r="I29" s="63"/>
+      <c r="J29" s="63"/>
+    </row>
+    <row r="30" spans="1:10" s="3" customFormat="1" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A30" s="34"/>
+      <c r="B30" s="52"/>
+      <c r="C30" s="52"/>
+      <c r="D30" s="52"/>
+      <c r="E30" s="74"/>
+      <c r="F30" s="74"/>
+      <c r="G30" s="83"/>
+      <c r="H30" s="74"/>
+      <c r="I30" s="74"/>
+      <c r="J30" s="74"/>
+    </row>
+    <row r="31" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A31" s="34"/>
+      <c r="B31" s="47"/>
+      <c r="C31" s="47"/>
+      <c r="D31" s="47"/>
+      <c r="F31" s="18" t="s">
+        <v>69</v>
+      </c>
+      <c r="G31" s="76" t="s">
+        <v>71</v>
+      </c>
+      <c r="H31" s="55" t="s">
+        <v>54</v>
+      </c>
+      <c r="I31" s="55" t="s">
+        <v>55</v>
+      </c>
+      <c r="J31" s="55" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A32" s="34"/>
+      <c r="B32" s="91"/>
+      <c r="C32" s="47"/>
+      <c r="D32" s="47"/>
+      <c r="F32" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G32" s="86" t="str">
         <f>_xlfn.XLOOKUP("No, must configure additional storage accounts",'Azure Files Calculations'!$C$2:$C$4,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F29" s="71" t="str">
+      <c r="H32" s="66" t="str">
         <f>'Azure Files Calculations'!$B$4</f>
         <v>Yes</v>
       </c>
-      <c r="G29" s="59" t="str">
+      <c r="I32" s="56" t="str">
         <f>'Azure Files Calculations'!$B$2</f>
         <v>Yes</v>
       </c>
-      <c r="H29" s="59" t="str">
+      <c r="J32" s="56" t="str">
         <f>'Azure Files Calculations'!$B$3</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="30" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A30" s="35" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30" s="49">
-        <f>IF(E29="Yes",B$29/B$3,"N/A: User Count Exceeds Capability Of Azure Files")</f>
-        <v>2.6616</v>
-      </c>
-      <c r="D30" s="27" t="s">
-        <v>75</v>
-      </c>
-      <c r="E30" s="18">
-        <f>IF(E29="Yes",$B$5*$B$3,"No")</f>
-        <v>4130</v>
-      </c>
-      <c r="F30" s="40"/>
-      <c r="G30" s="39"/>
-      <c r="H30" s="40"/>
-    </row>
-    <row r="31" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A31" s="35" t="s">
+    <row r="33" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A33" s="34"/>
+      <c r="B33" s="91"/>
+      <c r="C33" s="47"/>
+      <c r="D33" s="47"/>
+      <c r="F33" s="26" t="s">
         <v>67</v>
       </c>
-      <c r="B31" s="49">
-        <f>IF(E29="Yes",((B4*B3*B6*definitions!B$32*B$7*definitions!B$34)/definitions!B33)*definitions!B$36,"N/A: User Count Exceeds Capability Of A Single Azure Files Storage Account")</f>
-        <v>66.268799999999999</v>
-      </c>
-      <c r="D31" s="27" t="s">
-        <v>66</v>
-      </c>
-      <c r="E31" s="18">
-        <f>IF(E29="Yes",E30/$B$3,"No")</f>
-        <v>35</v>
-      </c>
-      <c r="F31" s="40"/>
-      <c r="G31" s="43"/>
-      <c r="H31" s="44"/>
-    </row>
-    <row r="32" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A32" s="35" t="s">
+      <c r="G33" s="76">
+        <f>IF(G32="Yes",$B$7*$B$5,"No")</f>
+        <v>4000</v>
+      </c>
+      <c r="H33" s="39"/>
+      <c r="I33" s="38"/>
+      <c r="J33" s="39"/>
+    </row>
+    <row r="34" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="34"/>
+      <c r="B34" s="47"/>
+      <c r="C34" s="47"/>
+      <c r="D34" s="47"/>
+      <c r="F34" s="26" t="s">
+        <v>63</v>
+      </c>
+      <c r="G34" s="76">
+        <f>IF(G32="Yes",G33/$B$5,"No")</f>
+        <v>20</v>
+      </c>
+      <c r="H34" s="39"/>
+      <c r="I34" s="42"/>
+      <c r="J34" s="43"/>
+    </row>
+    <row r="35" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="F35" s="26" t="s">
+        <v>92</v>
+      </c>
+      <c r="G35" s="76">
+        <f>FLOOR(   (definitions!$B$42/$B$6)*(1/$B$8),1)</f>
+        <v>500</v>
+      </c>
+      <c r="H35" s="39"/>
+      <c r="I35" s="39"/>
+      <c r="J35" s="39"/>
+    </row>
+    <row r="36" spans="1:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A36" s="74"/>
+      <c r="B36" s="74"/>
+      <c r="C36" s="74"/>
+      <c r="D36" s="74"/>
+      <c r="F36" s="26" t="s">
+        <v>93</v>
+      </c>
+      <c r="G36" s="76">
+        <f>FLOOR((   (1024*definitions!$B$43)   /   ('FSLogix Calculator'!$B$6*'FSLogix Calculator'!$B$10)  ) * (1/$B$8   ),1)</f>
+        <v>480</v>
+      </c>
+      <c r="H36" s="39"/>
+      <c r="I36" s="38"/>
+      <c r="J36" s="39"/>
+    </row>
+    <row r="37" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A37" s="33"/>
+      <c r="B37" s="33"/>
+      <c r="C37" s="33"/>
+      <c r="D37" s="33"/>
+      <c r="F37" s="60" t="s">
+        <v>136</v>
+      </c>
+      <c r="G37" s="87">
+        <f>definitions!B45/'FSLogix Calculator'!B7</f>
+        <v>5120</v>
+      </c>
+      <c r="H37" s="65"/>
+      <c r="I37" s="65"/>
+      <c r="J37" s="65"/>
+    </row>
+    <row r="38" spans="1:10" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
+      <c r="A38" s="34"/>
+      <c r="B38" s="52"/>
+      <c r="C38" s="52"/>
+      <c r="D38" s="52"/>
+      <c r="E38" s="74"/>
+      <c r="F38" s="74"/>
+      <c r="G38" s="83"/>
+      <c r="H38" s="74"/>
+      <c r="I38" s="74"/>
+    </row>
+    <row r="39" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A39" s="21"/>
+      <c r="B39" s="22"/>
+      <c r="C39" s="22"/>
+      <c r="D39" s="22"/>
+      <c r="F39" t="s">
         <v>68</v>
       </c>
-      <c r="B32" s="49">
-        <f>IF(E29="Yes",B$5*B$3*B6*definitions!B$35,"N/A: User Count Exceeds Capability Of A Single Azure Files Storage Account")</f>
-        <v>247.79999999999998</v>
-      </c>
-      <c r="D32" s="27" t="s">
-        <v>102</v>
-      </c>
-      <c r="E32" s="18">
-        <f>FLOOR(   (definitions!$B$38/$B$4)*(1/$B$6),1)</f>
-        <v>1666</v>
-      </c>
-      <c r="F32" s="40"/>
-      <c r="G32" s="40"/>
-      <c r="H32" s="40"/>
-    </row>
-    <row r="33" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A33" s="35"/>
-      <c r="B33" s="49"/>
-      <c r="D33" s="27" t="s">
-        <v>103</v>
-      </c>
-      <c r="E33" s="18">
-        <f>FLOOR((   (1024*definitions!$B$39)   /   ('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$8)  ) * (1/$B$6   ),1)</f>
-        <v>1600</v>
-      </c>
-      <c r="F33" s="40"/>
-      <c r="G33" s="39"/>
-      <c r="H33" s="40"/>
-    </row>
-    <row r="34" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D34" s="64" t="s">
-        <v>146</v>
-      </c>
-      <c r="E34" s="17">
-        <f>definitions!B41/'FSLogix Calculator'!B5</f>
-        <v>2925.7142857142858</v>
-      </c>
-      <c r="F34" s="70"/>
-      <c r="G34" s="70"/>
-      <c r="H34" s="70"/>
-    </row>
-    <row r="35" spans="1:8" ht="18.75" hidden="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="79" t="s">
-        <v>83</v>
-      </c>
-      <c r="B35" s="79"/>
-      <c r="C35" s="79"/>
-      <c r="D35" s="79"/>
-      <c r="E35" s="79"/>
-      <c r="F35" s="79"/>
-      <c r="G35" s="79"/>
-    </row>
-    <row r="36" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A36" s="34" t="s">
-        <v>74</v>
-      </c>
-      <c r="B36" s="34" t="s">
-        <v>7</v>
-      </c>
-      <c r="D36" t="s">
-        <v>76</v>
-      </c>
-      <c r="E36" s="8" t="s">
-        <v>80</v>
-      </c>
-      <c r="F36" t="s">
-        <v>57</v>
-      </c>
-      <c r="G36" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="37" spans="1:8" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A37" s="35" t="s">
-        <v>70</v>
-      </c>
-      <c r="B37" s="54">
-        <f>IF(E37="Yes",IF(E40="I/O Need",definitions!B37*'FSLogix Calculator'!B3*'FSLogix Calculator'!B4,definitions!B37*'FSLogix Calculator'!B5*'FSLogix Calculator'!B3),"Must Add Additional Storage Accounts")</f>
-        <v>1032.5</v>
-      </c>
-      <c r="D37" s="34" t="s">
-        <v>166</v>
-      </c>
-      <c r="E37" s="35" t="str">
+      <c r="G39" s="88" t="s">
+        <v>72</v>
+      </c>
+      <c r="H39" t="s">
+        <v>54</v>
+      </c>
+      <c r="I39" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" ht="122.25" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="F40" s="33" t="s">
+        <v>156</v>
+      </c>
+      <c r="G40" s="86" t="str">
         <f>_xlfn.XLOOKUP("No",'Azure Files Calculations'!$C$5:$C$7,'Azure Files Calculations'!$C$2:$C$4,"Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="F37" s="72" t="str">
+      <c r="H40" s="67" t="str">
         <f>'Azure Files Calculations'!$B$6</f>
         <v>Yes</v>
       </c>
-      <c r="G37" s="72" t="str">
+      <c r="I40" s="67" t="str">
         <f>'Azure Files Calculations'!$B$5</f>
         <v>Yes</v>
       </c>
     </row>
-    <row r="38" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A38" s="22" t="s">
-        <v>69</v>
-      </c>
-      <c r="B38" s="23">
-        <f>IF(E37="Yes",B$37/B$3,"N/A: User Count Exceeds Capability Of Azure Premium Files")</f>
-        <v>8.75</v>
-      </c>
-      <c r="D38" s="27" t="s">
-        <v>144</v>
-      </c>
-      <c r="E38" s="18">
+    <row r="41" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A41" s="16"/>
+      <c r="B41" s="16"/>
+      <c r="C41" s="16"/>
+      <c r="D41" s="16"/>
+      <c r="F41" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="G41" s="76">
         <f>'Azure Files Calculations'!C14</f>
-        <v>4130</v>
-      </c>
-      <c r="F38" s="42"/>
-      <c r="G38" s="42"/>
-    </row>
-    <row r="39" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="D39" s="8" t="s">
-        <v>149</v>
-      </c>
-      <c r="E39" s="17">
-        <f>IF('Azure Files Calculations'!$C$6="Yes",E$38/$B$3,"No")</f>
-        <v>35</v>
-      </c>
-      <c r="F39" s="33"/>
-      <c r="G39" s="41"/>
-    </row>
-    <row r="40" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A40" s="17"/>
-      <c r="B40" s="17"/>
-      <c r="C40" s="8"/>
-      <c r="D40" s="27" t="s">
-        <v>150</v>
-      </c>
-      <c r="E40" s="22" t="str">
+        <v>4000</v>
+      </c>
+      <c r="H41" s="41"/>
+      <c r="I41" s="41"/>
+    </row>
+    <row r="42" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="16"/>
+      <c r="B42" s="16"/>
+      <c r="C42" s="16"/>
+      <c r="D42" s="16"/>
+      <c r="F42" s="7" t="s">
+        <v>139</v>
+      </c>
+      <c r="G42" s="87">
+        <f>IF('Azure Files Calculations'!$C$6="Yes",G$41/$B$5,"No")</f>
+        <v>20</v>
+      </c>
+      <c r="H42" s="32"/>
+      <c r="I42" s="40"/>
+    </row>
+    <row r="43" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E43" s="7"/>
+      <c r="F43" s="26" t="s">
+        <v>140</v>
+      </c>
+      <c r="G43" s="89" t="str">
         <f>'Azure Files Calculations'!B14</f>
         <v>Profile Size</v>
       </c>
-      <c r="F40" s="40"/>
-      <c r="G40" s="39"/>
-    </row>
-    <row r="41" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="A41" s="17"/>
-      <c r="B41" s="17"/>
-      <c r="C41" s="8"/>
-      <c r="D41" s="27" t="s">
-        <v>163</v>
-      </c>
-      <c r="E41" s="18">
-        <f>FLOOR(( definitions!$B$40/$B$4) * (1/$B$6),1)</f>
-        <v>16666</v>
-      </c>
-      <c r="F41" s="40"/>
-      <c r="G41" s="45"/>
-    </row>
-    <row r="42" spans="1:8" hidden="1" x14ac:dyDescent="0.25">
-      <c r="C42" s="8"/>
-      <c r="D42" s="64" t="s">
-        <v>148</v>
-      </c>
-      <c r="E42" s="18">
-        <f>definitions!B42/'FSLogix Calculator'!B5</f>
-        <v>2925.7142857142858</v>
-      </c>
-      <c r="F42" s="40"/>
-      <c r="G42" s="45"/>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A70" s="11"/>
-      <c r="B70" s="28"/>
-      <c r="C70" s="3"/>
-      <c r="D70" s="3"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A71" s="11"/>
-      <c r="B71" s="7"/>
-      <c r="C71" s="3"/>
-      <c r="D71" s="3"/>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A72" s="11"/>
-      <c r="B72" s="7"/>
-      <c r="C72" s="3"/>
-      <c r="D72" s="3"/>
-    </row>
-    <row r="73" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A73" s="60"/>
+      <c r="H43" s="39"/>
+      <c r="I43" s="38"/>
+    </row>
+    <row r="44" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E44" s="7"/>
+      <c r="F44" s="26" t="s">
+        <v>153</v>
+      </c>
+      <c r="G44" s="76">
+        <f>FLOOR(( definitions!$B$44/$B$6) * (1/$B$8),1)</f>
+        <v>5000</v>
+      </c>
+      <c r="H44" s="39"/>
+      <c r="I44" s="44"/>
+    </row>
+    <row r="45" spans="1:10" hidden="1" x14ac:dyDescent="0.25">
+      <c r="E45" s="7"/>
+      <c r="F45" s="60" t="s">
+        <v>138</v>
+      </c>
+      <c r="G45" s="76">
+        <f>definitions!B46/'FSLogix Calculator'!B7</f>
+        <v>5120</v>
+      </c>
+      <c r="H45" s="39"/>
+      <c r="I45" s="44"/>
+    </row>
+    <row r="71" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A71" s="10"/>
+      <c r="B71" s="27"/>
+      <c r="C71" s="27"/>
+      <c r="D71" s="27"/>
+    </row>
+    <row r="72" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A72" s="10"/>
+      <c r="B72" s="6"/>
+      <c r="C72" s="6"/>
+      <c r="D72" s="6"/>
+    </row>
+    <row r="73" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A73" s="10"/>
       <c r="B73" s="6"/>
-      <c r="C73" s="3"/>
-      <c r="D73" s="3"/>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A74" s="11"/>
-      <c r="B74" s="7"/>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A75" s="11"/>
-      <c r="B75" s="7"/>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A76" s="11"/>
-      <c r="B76" s="7"/>
-    </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A77" s="11"/>
-      <c r="B77" s="7"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A78" s="11"/>
-      <c r="D78" s="3"/>
-      <c r="E78" s="3"/>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A79" s="11"/>
-      <c r="B79" s="7"/>
-      <c r="C79" s="3"/>
-      <c r="D79" s="3"/>
-      <c r="E79" s="3"/>
-    </row>
-    <row r="80" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A80" s="60"/>
-      <c r="B80" s="5"/>
-      <c r="C80" s="5"/>
-      <c r="D80" s="5"/>
-      <c r="E80" s="5"/>
-    </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A81" s="11"/>
-      <c r="B81" s="11"/>
-      <c r="C81" s="3"/>
-      <c r="D81" s="3"/>
-      <c r="E81" s="3"/>
-    </row>
-    <row r="82" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A82" s="11"/>
-      <c r="B82" s="29"/>
-    </row>
-    <row r="83" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A83" s="11"/>
-      <c r="B83" s="7"/>
-      <c r="C83" s="1"/>
-      <c r="D83" s="3"/>
-      <c r="E83" s="3"/>
-    </row>
-    <row r="84" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A84" s="60"/>
+      <c r="C73" s="6"/>
+      <c r="D73" s="6"/>
+      <c r="E73" s="57"/>
+      <c r="F73" s="57"/>
+    </row>
+    <row r="74" spans="1:6" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A74" s="74"/>
+      <c r="B74" s="5"/>
+      <c r="C74" s="5"/>
+      <c r="D74" s="5"/>
+      <c r="E74" s="57"/>
+      <c r="F74" s="57"/>
+    </row>
+    <row r="75" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A75" s="10"/>
+      <c r="B75" s="6"/>
+      <c r="C75" s="6"/>
+      <c r="D75" s="6"/>
+      <c r="E75" s="57"/>
+      <c r="F75" s="57"/>
+    </row>
+    <row r="76" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A76" s="10"/>
+      <c r="B76" s="6"/>
+      <c r="C76" s="6"/>
+      <c r="D76" s="6"/>
+      <c r="E76" s="57"/>
+      <c r="F76" s="57"/>
+    </row>
+    <row r="77" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A77" s="10"/>
+      <c r="B77" s="6"/>
+      <c r="C77" s="6"/>
+      <c r="D77" s="6"/>
+    </row>
+    <row r="78" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A78" s="10"/>
+      <c r="B78" s="6"/>
+      <c r="C78" s="6"/>
+      <c r="D78" s="6"/>
+    </row>
+    <row r="79" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A79" s="10"/>
+    </row>
+    <row r="80" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A80" s="10"/>
+      <c r="B80" s="6"/>
+      <c r="C80" s="6"/>
+      <c r="D80" s="6"/>
+    </row>
+    <row r="81" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A81" s="74"/>
+      <c r="B81" s="74"/>
+      <c r="C81" s="74"/>
+      <c r="D81" s="74"/>
+      <c r="F81" s="57"/>
+      <c r="G81" s="90"/>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" s="10"/>
+      <c r="B82" s="10"/>
+      <c r="C82" s="10"/>
+      <c r="D82" s="10"/>
+      <c r="E82" s="57"/>
+      <c r="F82" s="57"/>
+      <c r="G82" s="90"/>
+    </row>
+    <row r="83" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A83" s="10"/>
+      <c r="B83" s="28"/>
+      <c r="C83" s="28"/>
+      <c r="D83" s="28"/>
+      <c r="E83" s="74"/>
+      <c r="F83" s="74"/>
+      <c r="G83" s="83"/>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" s="10"/>
       <c r="B84" s="6"/>
-      <c r="C84" s="5"/>
-      <c r="D84" s="5"/>
-      <c r="E84" s="5"/>
-    </row>
-    <row r="85" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A85" s="60"/>
-      <c r="B85" s="10"/>
+      <c r="C84" s="6"/>
+      <c r="D84" s="6"/>
+      <c r="E84" s="57"/>
+      <c r="F84" s="57"/>
+      <c r="G84" s="90"/>
+    </row>
+    <row r="85" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A85" s="74"/>
+      <c r="B85" s="5"/>
       <c r="C85" s="5"/>
       <c r="D85" s="5"/>
-      <c r="E85" s="5"/>
-    </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A86" s="11"/>
-      <c r="B86" s="11"/>
-      <c r="C86" s="3"/>
-      <c r="D86" s="3"/>
-      <c r="E86" s="3"/>
-    </row>
-    <row r="87" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A87" s="11"/>
-      <c r="B87" s="8"/>
-      <c r="C87"/>
-      <c r="D87" s="3"/>
-      <c r="E87" s="3"/>
-    </row>
-    <row r="88" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A88" s="11"/>
-      <c r="B88" s="7"/>
-      <c r="C88" s="3"/>
-      <c r="D88" s="3"/>
-      <c r="E88" s="3"/>
-    </row>
-    <row r="89" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A89" s="11"/>
-      <c r="B89" s="5"/>
-      <c r="C89" s="11"/>
-      <c r="D89" s="3"/>
-      <c r="E89" s="3"/>
-    </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A90" s="11"/>
-      <c r="B90" s="11"/>
-      <c r="C90" s="3"/>
-      <c r="D90" s="3"/>
-      <c r="E90" s="3"/>
-    </row>
-    <row r="91" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A91" s="11"/>
-      <c r="B91" s="29"/>
-    </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A92" s="11"/>
-      <c r="B92" s="7"/>
-      <c r="C92" s="12"/>
-      <c r="D92" s="3"/>
-      <c r="E92" s="3"/>
-    </row>
-    <row r="93" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A93" s="60"/>
+      <c r="E85" s="57"/>
+      <c r="F85" s="57"/>
+      <c r="G85" s="90"/>
+      <c r="H85" s="57"/>
+      <c r="I85" s="57"/>
+      <c r="J85" s="57"/>
+    </row>
+    <row r="86" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A86" s="74"/>
+      <c r="B86" s="9"/>
+      <c r="C86" s="9"/>
+      <c r="D86" s="9"/>
+      <c r="E86" s="1"/>
+      <c r="F86" s="57"/>
+      <c r="G86" s="90"/>
+    </row>
+    <row r="87" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A87" s="10"/>
+      <c r="B87" s="10"/>
+      <c r="C87" s="10"/>
+      <c r="D87" s="10"/>
+      <c r="E87" s="74"/>
+      <c r="F87" s="74"/>
+      <c r="G87" s="83"/>
+    </row>
+    <row r="88" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A88" s="10"/>
+      <c r="E88" s="74"/>
+      <c r="F88" s="74"/>
+      <c r="G88" s="83"/>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" s="10"/>
+      <c r="B89" s="6"/>
+      <c r="C89" s="6"/>
+      <c r="D89" s="6"/>
+      <c r="E89" s="57"/>
+      <c r="F89" s="57"/>
+      <c r="G89" s="90"/>
+    </row>
+    <row r="90" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A90" s="10"/>
+      <c r="B90" s="74"/>
+      <c r="C90" s="74"/>
+      <c r="D90" s="74"/>
+      <c r="E90"/>
+      <c r="F90" s="57"/>
+      <c r="G90" s="90"/>
+    </row>
+    <row r="91" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A91" s="10"/>
+      <c r="B91" s="10"/>
+      <c r="C91" s="10"/>
+      <c r="D91" s="10"/>
+      <c r="E91" s="57"/>
+      <c r="F91" s="57"/>
+      <c r="G91" s="90"/>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" s="10"/>
+      <c r="B92" s="28"/>
+      <c r="C92" s="28"/>
+      <c r="D92" s="28"/>
+      <c r="E92" s="10"/>
+      <c r="F92" s="57"/>
+      <c r="G92" s="90"/>
+    </row>
+    <row r="93" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A93" s="10"/>
       <c r="B93" s="6"/>
-      <c r="C93" s="5"/>
-      <c r="D93" s="5"/>
-      <c r="E93" s="5"/>
-    </row>
-    <row r="94" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A94" s="60"/>
-      <c r="B94" s="10"/>
+      <c r="C93" s="6"/>
+      <c r="D93" s="6"/>
+      <c r="E93" s="57"/>
+      <c r="F93" s="57"/>
+      <c r="G93" s="90"/>
+    </row>
+    <row r="94" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A94" s="74"/>
+      <c r="B94" s="5"/>
       <c r="C94" s="5"/>
       <c r="D94" s="5"/>
-      <c r="E94" s="5"/>
-    </row>
-    <row r="95" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A95" s="11"/>
-      <c r="B95" s="11"/>
-      <c r="C95" s="3"/>
-      <c r="D95" s="3"/>
-      <c r="E95" s="3"/>
-    </row>
-    <row r="96" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A96" s="11"/>
-      <c r="B96" s="8"/>
-      <c r="C96"/>
-      <c r="D96" s="3"/>
-      <c r="E96" s="3"/>
-    </row>
-    <row r="97" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A97" s="11"/>
-      <c r="B97" s="7"/>
-      <c r="C97" s="3"/>
-      <c r="D97" s="3"/>
-      <c r="E97" s="3"/>
-    </row>
-    <row r="98" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A98" s="60"/>
-      <c r="B98" s="5"/>
-      <c r="C98" s="11"/>
-      <c r="D98" s="5"/>
-      <c r="E98" s="5"/>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A99" s="11"/>
-      <c r="B99" s="11"/>
-      <c r="C99" s="3"/>
-    </row>
-    <row r="100" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A100" s="11"/>
-      <c r="B100" s="29"/>
-      <c r="D100"/>
-      <c r="E100"/>
-    </row>
-    <row r="101" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A101" s="11"/>
-      <c r="B101" s="7"/>
-      <c r="C101" s="12"/>
-      <c r="D101" s="3"/>
-      <c r="E101" s="3"/>
-    </row>
-    <row r="102" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A102" s="60"/>
+      <c r="E94" s="57"/>
+      <c r="F94" s="57"/>
+      <c r="G94" s="90"/>
+      <c r="H94" s="57"/>
+      <c r="I94" s="57"/>
+      <c r="J94" s="57"/>
+    </row>
+    <row r="95" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A95" s="74"/>
+      <c r="B95" s="9"/>
+      <c r="C95" s="9"/>
+      <c r="D95" s="9"/>
+      <c r="E95" s="11"/>
+      <c r="F95" s="57"/>
+      <c r="G95" s="90"/>
+    </row>
+    <row r="96" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A96" s="10"/>
+      <c r="B96" s="10"/>
+      <c r="C96" s="10"/>
+      <c r="D96" s="10"/>
+      <c r="E96" s="74"/>
+      <c r="F96" s="74"/>
+      <c r="G96" s="83"/>
+    </row>
+    <row r="97" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A97" s="10"/>
+      <c r="E97" s="74"/>
+      <c r="F97" s="74"/>
+      <c r="G97" s="83"/>
+    </row>
+    <row r="98" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A98" s="10"/>
+      <c r="B98" s="6"/>
+      <c r="C98" s="6"/>
+      <c r="D98" s="6"/>
+      <c r="E98" s="57"/>
+      <c r="F98" s="57"/>
+      <c r="G98" s="90"/>
+    </row>
+    <row r="99" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A99" s="74"/>
+      <c r="B99" s="74"/>
+      <c r="C99" s="74"/>
+      <c r="D99" s="74"/>
+      <c r="E99"/>
+      <c r="F99" s="57"/>
+      <c r="G99" s="90"/>
+    </row>
+    <row r="100" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A100" s="10"/>
+      <c r="B100" s="10"/>
+      <c r="C100" s="10"/>
+      <c r="D100" s="10"/>
+      <c r="E100" s="57"/>
+      <c r="F100" s="57"/>
+      <c r="G100" s="90"/>
+    </row>
+    <row r="101" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A101" s="10"/>
+      <c r="B101" s="28"/>
+      <c r="C101" s="28"/>
+      <c r="D101" s="28"/>
+      <c r="E101" s="10"/>
+      <c r="F101" s="74"/>
+      <c r="G101" s="83"/>
+    </row>
+    <row r="102" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A102" s="10"/>
       <c r="B102" s="6"/>
-      <c r="C102" s="13"/>
-      <c r="D102" s="3"/>
-      <c r="E102" s="3"/>
-    </row>
-    <row r="103" spans="1:5" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A103" s="60"/>
-      <c r="B103" s="10"/>
+      <c r="C102" s="6"/>
+      <c r="D102" s="6"/>
+      <c r="E102" s="57"/>
+    </row>
+    <row r="103" spans="1:10" s="3" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A103" s="74"/>
+      <c r="B103" s="5"/>
       <c r="C103" s="5"/>
       <c r="D103" s="5"/>
-      <c r="E103" s="5"/>
-    </row>
-    <row r="106" spans="1:5" s="9" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
-      <c r="A106" s="11"/>
-      <c r="B106" s="7"/>
-      <c r="C106" s="3"/>
-      <c r="D106" s="3"/>
-      <c r="E106" s="3"/>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A107" s="11"/>
-      <c r="B107" s="11"/>
-      <c r="C107" s="3"/>
-      <c r="D107" s="3"/>
-      <c r="E107" s="3"/>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A108" s="11"/>
-      <c r="B108" s="11"/>
-      <c r="C108" s="3"/>
-      <c r="D108" s="3"/>
-      <c r="E108" s="3"/>
-    </row>
-    <row r="109" spans="1:5" s="3" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A109" s="11"/>
-      <c r="B109" s="30"/>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="A112" s="11"/>
-      <c r="B112" s="31"/>
-      <c r="C112" s="3"/>
-      <c r="D112" s="3"/>
-      <c r="E112" s="3"/>
+      <c r="E103" s="57"/>
+      <c r="F103"/>
+      <c r="G103" s="81"/>
+      <c r="H103" s="57"/>
+      <c r="I103" s="57"/>
+      <c r="J103" s="57"/>
+    </row>
+    <row r="104" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A104" s="74"/>
+      <c r="B104" s="9"/>
+      <c r="C104" s="9"/>
+      <c r="D104" s="9"/>
+      <c r="E104" s="11"/>
+      <c r="F104" s="57"/>
+      <c r="G104" s="90"/>
+    </row>
+    <row r="105" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E105" s="12"/>
+      <c r="F105" s="57"/>
+      <c r="G105" s="90"/>
+    </row>
+    <row r="106" spans="1:10" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="E106" s="74"/>
+      <c r="F106" s="74"/>
+      <c r="G106" s="83"/>
+    </row>
+    <row r="107" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A107" s="10"/>
+      <c r="B107" s="6"/>
+      <c r="C107" s="6"/>
+      <c r="D107" s="6"/>
+    </row>
+    <row r="108" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A108" s="10"/>
+      <c r="B108" s="10"/>
+      <c r="C108" s="10"/>
+      <c r="D108" s="10"/>
+    </row>
+    <row r="109" spans="1:10" s="8" customFormat="1" ht="18.75" x14ac:dyDescent="0.3">
+      <c r="A109" s="10"/>
+      <c r="B109" s="10"/>
+      <c r="C109" s="10"/>
+      <c r="D109" s="10"/>
+      <c r="E109" s="57"/>
+      <c r="F109" s="57"/>
+      <c r="G109" s="90"/>
+    </row>
+    <row r="110" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A110" s="10"/>
+      <c r="B110" s="29"/>
+      <c r="C110" s="29"/>
+      <c r="D110" s="29"/>
+      <c r="E110" s="57"/>
+      <c r="F110" s="57"/>
+      <c r="G110" s="90"/>
+    </row>
+    <row r="111" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="E111" s="57"/>
+      <c r="F111" s="57"/>
+      <c r="G111" s="90"/>
+    </row>
+    <row r="112" spans="1:10" s="3" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A112" s="7"/>
+      <c r="B112" s="7"/>
+      <c r="C112" s="7"/>
+      <c r="D112" s="7"/>
+      <c r="E112" s="57"/>
+      <c r="F112" s="57"/>
+      <c r="G112" s="90"/>
+      <c r="H112" s="57"/>
+      <c r="I112" s="57"/>
+      <c r="J112" s="57"/>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A113" s="10"/>
+      <c r="B113" s="30"/>
+      <c r="C113" s="30"/>
+      <c r="D113" s="30"/>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E115" s="57"/>
+      <c r="F115" s="57"/>
+      <c r="G115" s="90"/>
     </row>
   </sheetData>
-  <sheetProtection algorithmName="SHA-512" hashValue="7lBVhwEC+gQCt4kvw5qX4h95O1/uDMXhLLQeDRokmhbclaZnkqxIsqLB0hW80608FWyQ6Ww0HSy/oGxolHupuA==" saltValue="tGEEMvM61kLYEIfSimFRBw==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
-  <mergeCells count="4">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="A27:H27"/>
-    <mergeCell ref="A35:G35"/>
-    <mergeCell ref="A17:H17"/>
-  </mergeCells>
+  <sheetProtection algorithmName="SHA-512" hashValue="oZaqc8c+1uaKIZJYo0ffiqq/0R2lPod7mHPYjinI+rAiU6/dDh79Nq/71MlASW3HTi5GWkEBuk5rVcG5aGBlcQ==" saltValue="NGdzqJJ7ADW51GQrxNVOuQ==" spinCount="100000" sheet="1" objects="1" scenarios="1"/>
   <phoneticPr fontId="4" type="noConversion"/>
-  <conditionalFormatting sqref="A36:B39 A28:B28 A30:B34 A29">
-    <cfRule type="cellIs" dxfId="38" priority="110" operator="equal">
+  <conditionalFormatting sqref="A37:D40 A29:D29 A31:D35 A30">
+    <cfRule type="cellIs" dxfId="92" priority="110" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F29:H31">
-    <cfRule type="containsText" dxfId="37" priority="40" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",F29)))</formula>
+  <conditionalFormatting sqref="H32:J34">
+    <cfRule type="containsText" dxfId="91" priority="40" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",H32)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="36" priority="41" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",F29)))</formula>
+    <cfRule type="containsText" dxfId="90" priority="41" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",H32)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E22:E23">
-    <cfRule type="cellIs" dxfId="35" priority="58" operator="equal">
+  <conditionalFormatting sqref="G25:G26">
+    <cfRule type="cellIs" dxfId="89" priority="58" operator="equal">
       <formula>"Capacity Pool Minimum Size"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="D26">
-    <cfRule type="cellIs" dxfId="34" priority="57" operator="equal">
+  <conditionalFormatting sqref="F29">
+    <cfRule type="cellIs" dxfId="88" priority="57" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E26">
-    <cfRule type="cellIs" dxfId="33" priority="56" operator="equal">
+  <conditionalFormatting sqref="G29">
+    <cfRule type="cellIs" dxfId="87" priority="56" operator="equal">
       <formula>"Temporarily Empty Field"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="32" priority="46" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="containsText" dxfId="86" priority="4" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G32)))</formula>
+    </cfRule>
+    <cfRule type="cellIs" dxfId="85" priority="46" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="31" priority="47" operator="equal">
+    <cfRule type="cellIs" dxfId="84" priority="47" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="30" priority="4" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",E29)))</formula>
-    </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="29" priority="45" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="83" priority="45" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="28" priority="44" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="82" priority="44" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E29">
-    <cfRule type="cellIs" dxfId="27" priority="42" operator="equal">
+  <conditionalFormatting sqref="G32">
+    <cfRule type="cellIs" dxfId="81" priority="42" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="26" priority="43" operator="equal">
+    <cfRule type="cellIs" dxfId="80" priority="43" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="25" priority="38" operator="equal">
+  <conditionalFormatting sqref="G40 G43">
+    <cfRule type="cellIs" dxfId="79" priority="38" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="24" priority="39" operator="equal">
+    <cfRule type="cellIs" dxfId="78" priority="39" operator="equal">
       <formula>"No: 100,000 IOPS is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F37:G38 F40:G40">
-    <cfRule type="containsText" dxfId="23" priority="35" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",F37)))</formula>
+  <conditionalFormatting sqref="H40:I41 H43:I43">
+    <cfRule type="containsText" dxfId="77" priority="35" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",H40)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="22" priority="37" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",F37)))</formula>
+    <cfRule type="containsText" dxfId="76" priority="37" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",H40)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E37 E40">
-    <cfRule type="cellIs" dxfId="21" priority="36" operator="equal">
+  <conditionalFormatting sqref="G40 G43">
+    <cfRule type="cellIs" dxfId="75" priority="36" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E31 E20:E23">
-    <cfRule type="cellIs" dxfId="20" priority="34" operator="equal">
+  <conditionalFormatting sqref="G34 G23:G26">
+    <cfRule type="cellIs" dxfId="74" priority="34" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E30">
-    <cfRule type="cellIs" dxfId="19" priority="30" operator="equal">
+  <conditionalFormatting sqref="G33">
+    <cfRule type="cellIs" dxfId="73" priority="30" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E38">
-    <cfRule type="cellIs" dxfId="18" priority="28" operator="equal">
+  <conditionalFormatting sqref="G41">
+    <cfRule type="cellIs" dxfId="72" priority="28" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E39">
-    <cfRule type="cellIs" dxfId="17" priority="26" operator="equal">
+  <conditionalFormatting sqref="G42">
+    <cfRule type="cellIs" dxfId="71" priority="26" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B38">
-    <cfRule type="containsText" dxfId="16" priority="25" operator="containsText" text="N/A">
+  <conditionalFormatting sqref="B39:D39">
+    <cfRule type="containsText" dxfId="70" priority="25" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B39)))</formula>
+    </cfRule>
+  </conditionalFormatting>
+  <conditionalFormatting sqref="B38:D38">
+    <cfRule type="containsText" dxfId="69" priority="2" operator="containsText" text="Must">
+      <formula>NOT(ISERROR(SEARCH("Must",B38)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="68" priority="24" operator="containsText" text="N/A">
       <formula>NOT(ISERROR(SEARCH("N/A",B38)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B37">
-    <cfRule type="containsText" dxfId="15" priority="24" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B37)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="14" priority="2" operator="containsText" text="Must">
-      <formula>NOT(ISERROR(SEARCH("Must",B37)))</formula>
+  <conditionalFormatting sqref="B23:D23">
+    <cfRule type="containsText" dxfId="67" priority="21" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B23)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B20">
-    <cfRule type="containsText" dxfId="13" priority="21" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B20)))</formula>
+  <conditionalFormatting sqref="B31:D31">
+    <cfRule type="containsText" dxfId="66" priority="20" operator="containsText" text="N/A">
+      <formula>NOT(ISERROR(SEARCH("N/A",B31)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B30">
-    <cfRule type="containsText" dxfId="12" priority="20" operator="containsText" text="N/A">
-      <formula>NOT(ISERROR(SEARCH("N/A",B30)))</formula>
+  <conditionalFormatting sqref="J22">
+    <cfRule type="containsText" dxfId="65" priority="9" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",J22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="64" priority="16" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",J22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="63" priority="18" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",J22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="62" priority="19" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",J22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="H19">
-    <cfRule type="containsText" dxfId="11" priority="18" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",H19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="10" priority="19" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="9" priority="16" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="8" priority="9" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",H19)))</formula>
+  <conditionalFormatting sqref="B22:D22">
+    <cfRule type="containsText" dxfId="61" priority="14" operator="containsText" text="Rec">
+      <formula>NOT(ISERROR(SEARCH("Rec",B22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B19">
-    <cfRule type="containsText" dxfId="7" priority="14" operator="containsText" text="Rec">
-      <formula>NOT(ISERROR(SEARCH("Rec",B19)))</formula>
+  <conditionalFormatting sqref="H22">
+    <cfRule type="containsText" dxfId="60" priority="10" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",H22)))</formula>
+    </cfRule>
+    <cfRule type="containsText" dxfId="59" priority="12" operator="containsText" text="Required">
+      <formula>NOT(ISERROR(SEARCH("Required",H22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="F19">
-    <cfRule type="containsText" dxfId="6" priority="12" operator="containsText" text="Required">
-      <formula>NOT(ISERROR(SEARCH("Required",F19)))</formula>
+  <conditionalFormatting sqref="G22">
+    <cfRule type="containsText" dxfId="58" priority="7" operator="containsText" text="More">
+      <formula>NOT(ISERROR(SEARCH("More",G22)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="5" priority="10" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",F19)))</formula>
+    <cfRule type="containsText" dxfId="57" priority="8" operator="containsText" text="Yes">
+      <formula>NOT(ISERROR(SEARCH("Yes",G22)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="E19">
-    <cfRule type="containsText" dxfId="4" priority="8" operator="containsText" text="Yes">
-      <formula>NOT(ISERROR(SEARCH("Yes",E19)))</formula>
+  <conditionalFormatting sqref="B30:D30">
+    <cfRule type="containsText" dxfId="56" priority="3" operator="containsText" text="Must">
+      <formula>NOT(ISERROR(SEARCH("Must",B30)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="3" priority="7" operator="containsText" text="More">
-      <formula>NOT(ISERROR(SEARCH("More",E19)))</formula>
+    <cfRule type="containsText" dxfId="55" priority="5" operator="containsText" text="Rec">
+      <formula>NOT(ISERROR(SEARCH("Rec",B30)))</formula>
     </cfRule>
   </conditionalFormatting>
-  <conditionalFormatting sqref="B29">
-    <cfRule type="containsText" dxfId="2" priority="5" operator="containsText" text="Rec">
-      <formula>NOT(ISERROR(SEARCH("Rec",B29)))</formula>
-    </cfRule>
-    <cfRule type="containsText" dxfId="1" priority="3" operator="containsText" text="Must">
-      <formula>NOT(ISERROR(SEARCH("Must",B29)))</formula>
-    </cfRule>
-  </conditionalFormatting>
-  <conditionalFormatting sqref="E37">
-    <cfRule type="containsText" dxfId="0" priority="1" operator="containsText" text="No">
-      <formula>NOT(ISERROR(SEARCH("No",E37)))</formula>
+  <conditionalFormatting sqref="G40">
+    <cfRule type="containsText" dxfId="54" priority="1" operator="containsText" text="No">
+      <formula>NOT(ISERROR(SEARCH("No",G40)))</formula>
     </cfRule>
   </conditionalFormatting>
   <dataValidations count="6">
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 1024 in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B10" xr:uid="{CBED2FD9-9304-492F-812B-63234547D67B}">
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 1024 in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B13:D13" xr:uid="{CBED2FD9-9304-492F-812B-63234547D67B}">
       <formula1>1</formula1>
       <formula2>1024</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 95,000" promptTitle="Number Of User" prompt="Enter the number of users (100% Concurrency is assumed).  Valid values are between 1 and 95,000." sqref="B3" xr:uid="{838F7E3E-819B-4995-B75E-80FB4581AA29}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 95,000" promptTitle="Number Of User" prompt="Enter the number of users (100% Concurrency is assumed).  Valid values are between 1 and 95,000." sqref="B5:D5" xr:uid="{838F7E3E-819B-4995-B75E-80FB4581AA29}">
       <formula1>1</formula1>
       <formula2>95000</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 168" promptTitle="Enter Integer Value" prompt="Enter a value between 40 and 168 representing the working hours in a week.  Call centers for example that have 24X7 operations work 168 hours every week." sqref="B7" xr:uid="{83D3B009-08C9-4277-BCBC-7A1B2CBFC57A}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Please Enter a whole number between 1 and 168" promptTitle="Enter Integer Value" prompt="Enter a value between 40 and 168 representing the working hours in a week.  Call centers for example that have 24X7 operations work 168 hours every week." sqref="B9:D9" xr:uid="{83D3B009-08C9-4277-BCBC-7A1B2CBFC57A}">
       <formula1>40</formula1>
       <formula2>168</formula2>
     </dataValidation>
-    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 30  in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B7" xr:uid="{4AE96117-04AC-420D-AD6D-903EA3285EB4}">
+    <dataValidation type="whole" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 30  in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" sqref="B9:D9" xr:uid="{4AE96117-04AC-420D-AD6D-903EA3285EB4}">
       <formula1>36</formula1>
       <formula2>168</formula2>
     </dataValidation>
-    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" sqref="B7" xr:uid="{A1CCD0B8-6B2D-42A1-89B6-7ABA9C370E18}"/>
-    <dataValidation type="whole" allowBlank="1" showInputMessage="1" errorTitle="IOPS: Incorrect Input" error="Please enter a whole number between 1 and 200." promptTitle="Storage IOPS: Env Dependant" prompt="Suggested values for user profile containers_x000a_Without Office365: 5_x000a_With Office365: 15_x000a_With Offline Cache and Office365 Cache: 60 - 120" sqref="B4" xr:uid="{E2E3AE84-252F-4455-AC8B-A92442F4F96A}">
+    <dataValidation allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" sqref="B9:D9" xr:uid="{A1CCD0B8-6B2D-42A1-89B6-7ABA9C370E18}"/>
+    <dataValidation type="whole" allowBlank="1" showInputMessage="1" errorTitle="IOPS: Incorrect Input" error="Please enter a whole number between 1 and 200." promptTitle="Storage IOPS: Env Dependant" prompt="Suggested values for user profile containers_x000a_Without Office365: 5_x000a_With Office365: 15_x000a_With Offline Cache and Office365 Cache: 60 - 120" sqref="B6:D6" xr:uid="{E2E3AE84-252F-4455-AC8B-A92442F4F96A}">
       <formula1>1</formula1>
       <formula2>200</formula2>
     </dataValidation>
@@ -5106,72 +5315,76 @@
   <printOptions horizontalCentered="1" verticalCentered="1"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="33" fitToHeight="0" orientation="portrait" horizontalDpi="200" verticalDpi="200" r:id="rId1"/>
-  <tableParts count="8">
+  <tableParts count="6">
     <tablePart r:id="rId2"/>
     <tablePart r:id="rId3"/>
     <tablePart r:id="rId4"/>
     <tablePart r:id="rId5"/>
     <tablePart r:id="rId6"/>
     <tablePart r:id="rId7"/>
-    <tablePart r:id="rId8"/>
-    <tablePart r:id="rId9"/>
   </tableParts>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
-      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="9">
+      <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="10">
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" error="If known, select the average storage I/O size.  If unknown, leave the value at the default of 32." promptTitle="Storage I/O Size (Advanced)" prompt="If known, select the average storage I/O size.  If unknown, leave the value at the default of 32." xr:uid="{86AD3042-EFBE-4769-8F55-A620876D83EA}">
           <x14:formula1>
             <xm:f>definitions!$A$2:$A$3</xm:f>
           </x14:formula1>
-          <xm:sqref>B8</xm:sqref>
+          <xm:sqref>B10:D10</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" errorTitle="Incorrect Value Entered" error="Valid values are between 1 and 30  in int value" promptTitle="VHD Size Per User" prompt="Enter the VHD size in INT value, number must be between 1 and 1024" xr:uid="{F0468C29-122F-45A3-9E06-3D1D980A2EF8}">
           <x14:formula1>
             <xm:f>definitions!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B5:D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FACD4DE7-9021-4B74-81BF-F5019EF7DF83}">
           <x14:formula1>
             <xm:f>definitions!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B5:D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" promptTitle="VHD Size" prompt="Select the size of the user VHD defined in FSLogix Environment_x000a_" xr:uid="{F9F9F9EE-077A-4B49-876B-20EE9C7EA975}">
           <x14:formula1>
             <xm:f>definitions!$C$2:$C$8</xm:f>
           </x14:formula1>
-          <xm:sqref>B3</xm:sqref>
+          <xm:sqref>B5:D5</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" xr:uid="{FF3B58C7-0EEE-4B9C-AA0D-36F4BBCFA8FD}">
           <x14:formula1>
             <xm:f>definitions!$D$2:$D$7</xm:f>
           </x14:formula1>
-          <xm:sqref>B6:B7</xm:sqref>
+          <xm:sqref>B8:D9</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" promptTitle="VHD(X) Size" prompt="Select the desired VHD(X) Size, 40GiB has been idenitifed as the average Profile Size Industry wide" xr:uid="{97763830-AAD4-4BCB-B82D-4588199C19CD}">
           <x14:formula1>
             <xm:f>definitions!$C$4:$C$13</xm:f>
           </x14:formula1>
-          <xm:sqref>B5</xm:sqref>
+          <xm:sqref>B7:D7</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" showInputMessage="1" showErrorMessage="1" error="If known, select the average storage read %.  If unknown, leave the value at the default of 20%" promptTitle="Read % (Advanced)" prompt="If known, select the average storage read%  If unknown, leave the value at the default of 20%." xr:uid="{4F30BAC0-8570-455C-9ACF-B1BAC194BCB9}">
           <x14:formula1>
             <xm:f>'Throughput Test'!$G$6:$G$10</xm:f>
           </x14:formula1>
-          <xm:sqref>B9</xm:sqref>
+          <xm:sqref>B11:D12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{4B86BFC7-B959-49BD-A0CA-9D6F29B3BFCA}">
           <x14:formula1>
             <xm:f>definitions!$E$2:$E$4</xm:f>
           </x14:formula1>
-          <xm:sqref>B9</xm:sqref>
+          <xm:sqref>B11:D12</xm:sqref>
         </x14:dataValidation>
         <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{D52C3E3B-D7C9-4CAB-B3CD-9E815BA071AA}">
           <x14:formula1>
             <xm:f>definitions!#REF!</xm:f>
           </x14:formula1>
-          <xm:sqref>B4 B8</xm:sqref>
+          <xm:sqref>B6:D6 B10:D10</xm:sqref>
+        </x14:dataValidation>
+        <x14:dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" xr:uid="{FFFFEB35-BD9B-430F-9C7E-C79ED9C1795F}">
+          <x14:formula1>
+            <xm:f>definitions!$F$2:$F$3</xm:f>
+          </x14:formula1>
+          <xm:sqref>B2</xm:sqref>
         </x14:dataValidation>
       </x14:dataValidations>
     </ext>
@@ -5182,10 +5395,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{46E156B8-3DAB-4F24-8D0A-36FBCF57BCBD}">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:E54"/>
+  <dimension ref="A1:E62"/>
   <sheetViews>
-    <sheetView topLeftCell="A23" workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="B47" sqref="B47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5198,84 +5411,84 @@
       <c r="A1" s="2" t="s">
         <v>30</v>
       </c>
-      <c r="B1" s="15"/>
+      <c r="B1" s="14"/>
     </row>
     <row r="2" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="2" t="s">
-        <v>62</v>
-      </c>
-      <c r="B2" s="15">
-        <f>'FSLogix Calculator'!B$16</f>
-        <v>4130</v>
+        <v>59</v>
+      </c>
+      <c r="B2" s="14">
+        <f>'FSLogix Calculator'!B$19</f>
+        <v>4000</v>
       </c>
       <c r="C2" s="3"/>
     </row>
     <row r="3" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="B3" s="15">
-        <f>'FSLogix Calculator'!B$5</f>
-        <v>35</v>
+        <v>90</v>
+      </c>
+      <c r="B3" s="14">
+        <f>'FSLogix Calculator'!B$7</f>
+        <v>20</v>
       </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" s="2" t="s">
-        <v>142</v>
+        <v>132</v>
       </c>
       <c r="B4" s="2">
-        <f>_xlfn.XLOOKUP('FSLogix Calculator'!B$9,'Throughput Test'!G2:G12,'Throughput Test'!P$2:P$12)</f>
+        <f>_xlfn.XLOOKUP('FSLogix Calculator'!B$11,'Throughput Test'!G2:G12,'Throughput Test'!P$2:P$12)</f>
         <v>2198</v>
       </c>
-      <c r="C4" s="61"/>
+      <c r="C4" s="57"/>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" s="2" t="s">
-        <v>147</v>
+        <v>137</v>
       </c>
       <c r="B5" s="2">
-        <f>FLOOR(definitions!B24/'FSLogix Calculator'!B$5,1)</f>
-        <v>2925</v>
-      </c>
-      <c r="C5" s="61"/>
+        <f>FLOOR(definitions!B24/'FSLogix Calculator'!B$7,1)</f>
+        <v>5120</v>
+      </c>
+      <c r="C5" s="57"/>
     </row>
     <row r="6" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="2"/>
-      <c r="B6" s="15"/>
+      <c r="B6" s="14"/>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="B7" s="15">
-        <f>('FSLogix Calculator'!B$13*1024)/definitions!B30</f>
-        <v>1416</v>
+      <c r="B7" s="14">
+        <f>('FSLogix Calculator'!B$16*1024)/definitions!B30</f>
+        <v>8000</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="2" t="s">
         <v>32</v>
       </c>
-      <c r="B8" s="15">
-        <f>('FSLogix Calculator'!B$13*1024)/definitions!B28</f>
-        <v>354</v>
+      <c r="B8" s="14">
+        <f>('FSLogix Calculator'!B$16*1024)/definitions!B28</f>
+        <v>2000</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="B9" s="15">
-        <f>('FSLogix Calculator'!B$13*1024)/definitions!B26</f>
-        <v>177</v>
+      <c r="B9" s="14">
+        <f>('FSLogix Calculator'!B$16*1024)/definitions!B26</f>
+        <v>1000</v>
       </c>
       <c r="C9" s="3" t="s">
         <v>39</v>
@@ -5283,35 +5496,35 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" s="2" t="s">
-        <v>97</v>
+        <v>87</v>
       </c>
       <c r="B11" s="2">
-        <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B$30</f>
-        <v>12</v>
+        <f>('FSLogix Calculator'!B$17*'FSLogix Calculator'!B$8)/definitions!B$30</f>
+        <v>40</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" s="2" t="s">
-        <v>98</v>
+        <v>88</v>
       </c>
       <c r="B12" s="2">
-        <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B28</f>
-        <v>3</v>
+        <f>('FSLogix Calculator'!B$17*'FSLogix Calculator'!B$8)/definitions!B28</f>
+        <v>10</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" s="2" t="s">
-        <v>99</v>
+        <v>89</v>
       </c>
       <c r="B13" s="2">
-        <f>('FSLogix Calculator'!B$14*'FSLogix Calculator'!B$6)/definitions!B26</f>
-        <v>1.5</v>
+        <f>('FSLogix Calculator'!B$17*'FSLogix Calculator'!B$8)/definitions!B26</f>
+        <v>5</v>
       </c>
       <c r="C13" s="3" t="s">
         <v>39</v>
@@ -5328,10 +5541,10 @@
       </c>
       <c r="B15" s="2">
         <f>CEILING(IF(B11&gt;B$3,definitions!B$31/B11,definitions!B$31/B$3),1)</f>
-        <v>118</v>
+        <v>103</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
@@ -5340,10 +5553,10 @@
       </c>
       <c r="B16" s="2">
         <f>CEILING(IF(B12&gt;B$3,definitions!B$31/B12,definitions!B$31/B$3),1)</f>
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -5352,7 +5565,7 @@
       </c>
       <c r="B17" s="2">
         <f>CEILING(IF(B13&gt;B$3,definitions!B$31/B13,definitions!B$31/B$3),1)</f>
-        <v>118</v>
+        <v>205</v>
       </c>
       <c r="C17" s="3" t="s">
         <v>39</v>
@@ -5365,33 +5578,33 @@
     </row>
     <row r="19" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="B19" s="15" t="str">
+        <v>81</v>
+      </c>
+      <c r="B19" s="14" t="str">
         <f>IF(B$2&gt;B7,"Capacity","Bandwidth")</f>
-        <v>Capacity</v>
+        <v>Bandwidth</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="2" t="s">
-        <v>92</v>
-      </c>
-      <c r="B20" s="15" t="str">
+        <v>82</v>
+      </c>
+      <c r="B20" s="14" t="str">
         <f>IF(B$2&gt;B8,"Capacity","Bandwidth")</f>
         <v>Capacity</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="2" t="s">
-        <v>93</v>
-      </c>
-      <c r="B21" s="15" t="str">
+        <v>83</v>
+      </c>
+      <c r="B21" s="14" t="str">
         <f>IF(B$2&gt;B9,"Capacity","Bandwidth")</f>
         <v>Capacity</v>
       </c>
@@ -5406,35 +5619,35 @@
     </row>
     <row r="23" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B23" s="15">
+        <v>84</v>
+      </c>
+      <c r="B23" s="14">
         <f>IF(B$2&gt;B7,B$2,B7)</f>
-        <v>4130</v>
+        <v>8000</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="2" t="s">
-        <v>95</v>
-      </c>
-      <c r="B24" s="15">
+        <v>85</v>
+      </c>
+      <c r="B24" s="14">
         <f>IF(B$2&gt;B8,B$2,B8)</f>
-        <v>4130</v>
+        <v>4000</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="2" t="s">
-        <v>96</v>
-      </c>
-      <c r="B25" s="15">
+        <v>86</v>
+      </c>
+      <c r="B25" s="14">
         <f>IF(B$2&gt;B9,B$2,B9)</f>
-        <v>4130</v>
+        <v>4000</v>
       </c>
       <c r="C25" s="3" t="s">
         <v>39</v>
@@ -5447,35 +5660,35 @@
     </row>
     <row r="27" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="B27" s="15" t="str">
+        <v>75</v>
+      </c>
+      <c r="B27" s="14" t="str">
         <f>IF(B23&gt;definitions!B$31,B19,"Capacity Pool Minimum Size")</f>
-        <v>Capacity</v>
+        <v>Bandwidth</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="28" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A28" s="2" t="s">
-        <v>86</v>
-      </c>
-      <c r="B28" s="15" t="str">
+        <v>76</v>
+      </c>
+      <c r="B28" s="14" t="str">
         <f>IF(B24&gt;definitions!B$31,B20,"Capacity Pool Minimum Size")</f>
-        <v>Capacity</v>
+        <v>Capacity Pool Minimum Size</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A29" s="2" t="s">
-        <v>87</v>
-      </c>
-      <c r="B29" s="15" t="str">
+        <v>77</v>
+      </c>
+      <c r="B29" s="14" t="str">
         <f>IF(B25&gt;definitions!B$31,B21,"Capacity Pool Minimum Size")</f>
-        <v>Capacity</v>
+        <v>Capacity Pool Minimum Size</v>
       </c>
       <c r="C29" s="3" t="s">
         <v>39</v>
@@ -5488,35 +5701,35 @@
     </row>
     <row r="31" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A31" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="B31" s="15">
+        <v>78</v>
+      </c>
+      <c r="B31" s="14">
         <f>IF(B23&gt;definitions!B$31,B23,definitions!B$31)</f>
-        <v>4130</v>
+        <v>8000</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
     </row>
     <row r="32" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A32" s="2" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="15">
+        <v>79</v>
+      </c>
+      <c r="B32" s="14">
         <f>IF(B24&gt;definitions!B$31,B24,definitions!B$31)</f>
-        <v>4130</v>
+        <v>4096</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
     </row>
     <row r="33" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="B33" s="15">
+        <v>80</v>
+      </c>
+      <c r="B33" s="14">
         <f>IF(B25&gt;definitions!B$31,B25,definitions!B$31)</f>
-        <v>4130</v>
+        <v>4096</v>
       </c>
       <c r="C33" s="3" t="s">
         <v>39</v>
@@ -5524,31 +5737,31 @@
     </row>
     <row r="34" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A34" s="2"/>
-      <c r="B34" s="15"/>
+      <c r="B34" s="14"/>
       <c r="C34" s="3"/>
     </row>
     <row r="35" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A35" s="2" t="s">
-        <v>143</v>
-      </c>
-      <c r="B35" s="15" t="str">
+        <v>133</v>
+      </c>
+      <c r="B35" s="14" t="str">
         <f>IF(MIN(B31:B33)&gt;definitions!B24,"No","Yes")</f>
         <v>Yes</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>168</v>
+        <v>158</v>
       </c>
     </row>
     <row r="36" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A36" s="2" t="s">
-        <v>145</v>
+        <v>135</v>
       </c>
       <c r="B36" s="2" t="str">
-        <f>IF('FSLogix Calculator'!B3&gt;('FSLogix Calculator'!E24),"No","Yes")</f>
+        <f>IF('FSLogix Calculator'!B5&gt;('FSLogix Calculator'!G27),"No","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C36" s="61" t="s">
-        <v>168</v>
+      <c r="C36" s="57" t="s">
+        <v>158</v>
       </c>
       <c r="D36" s="3"/>
       <c r="E36" s="3"/>
@@ -5556,45 +5769,45 @@
     <row r="37" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A37" s="2"/>
       <c r="B37" s="2"/>
-      <c r="C37" s="61"/>
-      <c r="D37" s="61"/>
-      <c r="E37" s="61"/>
+      <c r="C37" s="57"/>
+      <c r="D37" s="57"/>
+      <c r="E37" s="57"/>
     </row>
     <row r="38" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A38" s="2" t="s">
-        <v>40</v>
-      </c>
-      <c r="B38" s="24">
-        <f>IF((B31&gt;definitions!B24),99999,B31*definitions!B$29)</f>
-        <v>619.5</v>
+        <v>169</v>
+      </c>
+      <c r="B38" s="23">
+        <f>IF((B31&gt;definitions!B24),99999,B31*definitions!B$29)*(IF('FSLogix Calculator'!B2="yes",definitions!B37,1))</f>
+        <v>285.71428571428572</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D38" s="3"/>
       <c r="E38" s="3"/>
     </row>
     <row r="39" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A39" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="B39" s="16">
-        <f>IF((B32&gt;definitions!B24),99999,B32*definitions!B$27)</f>
-        <v>1239</v>
+        <v>170</v>
+      </c>
+      <c r="B39" s="15">
+        <f>IF((B32&gt;definitions!B24),99999,B32*definitions!B$27)*(IF('FSLogix Calculator'!B2="yes",definitions!B37,1))</f>
+        <v>292.57142857142856</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D39" s="3"/>
       <c r="E39" s="3"/>
     </row>
     <row r="40" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A40" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="B40" s="16">
-        <f>IF((B33&gt;definitions!B24),99999,(B33*definitions!B$25))</f>
-        <v>1652</v>
+        <v>171</v>
+      </c>
+      <c r="B40" s="15">
+        <f>IF((B33&gt;definitions!B24),99999,(B33*definitions!B$25))*(IF('FSLogix Calculator'!B2="yes",definitions!B37,1))</f>
+        <v>390.09523809523807</v>
       </c>
       <c r="C40" s="3" t="s">
         <v>39</v>
@@ -5604,154 +5817,252 @@
     </row>
     <row r="41" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A41" s="2"/>
-      <c r="B41" s="16"/>
+      <c r="B41" s="15"/>
       <c r="C41" s="3"/>
       <c r="D41" s="3"/>
       <c r="E41" s="3"/>
     </row>
     <row r="42" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A42" s="2" t="s">
-        <v>51</v>
+        <v>172</v>
       </c>
       <c r="B42" s="15">
-        <f>B31/'FSLogix Calculator'!B$3</f>
-        <v>35</v>
-      </c>
-      <c r="C42" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D42" s="3"/>
-      <c r="E42" s="3"/>
+        <f>(definitions!B29*(IF(B2&lt;definitions!B31,definitions!B31,B2)))*(IF('FSLogix Calculator'!B2="yes",definitions!B38,0))</f>
+        <v>468.11428571428564</v>
+      </c>
+      <c r="C42" s="57" t="s">
+        <v>43</v>
+      </c>
+      <c r="D42" s="57"/>
+      <c r="E42" s="57"/>
     </row>
     <row r="43" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A43" s="2" t="s">
-        <v>52</v>
+        <v>173</v>
       </c>
       <c r="B43" s="15">
-        <f>B32/'FSLogix Calculator'!B$3</f>
-        <v>35</v>
-      </c>
-      <c r="C43" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D43" s="3"/>
-      <c r="E43" s="3"/>
+        <f>(definitions!B27*(IF(B2&lt;definitions!B31,definitions!B31,B2)))*(IF('FSLogix Calculator'!B2="yes",definitions!B38,0))</f>
+        <v>936.22857142857129</v>
+      </c>
+      <c r="C43" s="57" t="s">
+        <v>44</v>
+      </c>
+      <c r="D43" s="57"/>
+      <c r="E43" s="57"/>
     </row>
     <row r="44" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A44" s="2" t="s">
-        <v>53</v>
+        <v>174</v>
       </c>
       <c r="B44" s="15">
-        <f>B33/'FSLogix Calculator'!B$3</f>
-        <v>35</v>
-      </c>
-      <c r="C44" s="3" t="s">
+        <f>(definitions!B25*(IF(B2&lt;definitions!B31,definitions!B31,B2)))*(IF('FSLogix Calculator'!B2="yes",definitions!B38,0))</f>
+        <v>1248.304761904762</v>
+      </c>
+      <c r="C44" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D44" s="3"/>
-      <c r="E44" s="3"/>
-    </row>
-    <row r="45" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D44" s="57"/>
+      <c r="E44" s="57"/>
+    </row>
+    <row r="45" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A45" s="2"/>
       <c r="B45" s="15"/>
-      <c r="C45" s="3"/>
-      <c r="D45" s="3"/>
-      <c r="E45" s="3"/>
+      <c r="C45" s="57"/>
+      <c r="D45" s="57"/>
+      <c r="E45" s="57"/>
     </row>
     <row r="46" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A46" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="B46" s="15">
+        <f>B38+B42</f>
+        <v>753.82857142857142</v>
+      </c>
+      <c r="C46" s="57" t="s">
         <v>43</v>
       </c>
-      <c r="B46" s="26">
-        <f>IF(B38=definitions!A$23,B38, B38/'FSLogix Calculator'!B$29)</f>
-        <v>1.972497745716862</v>
-      </c>
-      <c r="C46" s="3" t="s">
-        <v>46</v>
-      </c>
-      <c r="D46" s="3"/>
-      <c r="E46" s="3"/>
+      <c r="D46" s="57"/>
+      <c r="E46" s="57"/>
     </row>
     <row r="47" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A47" s="2" t="s">
+        <v>164</v>
+      </c>
+      <c r="B47" s="15">
+        <f>B43+B39</f>
+        <v>1228.7999999999997</v>
+      </c>
+      <c r="C47" s="57" t="s">
         <v>44</v>
       </c>
-      <c r="B47" s="26">
-        <f>IF(B39=definitions!A$23,B39, B39/'FSLogix Calculator'!B$29)</f>
-        <v>3.944995491433724</v>
-      </c>
-      <c r="C47" s="3" t="s">
-        <v>47</v>
-      </c>
-      <c r="D47" s="3"/>
-      <c r="E47" s="3"/>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D47" s="57"/>
+      <c r="E47" s="57"/>
+    </row>
+    <row r="48" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A48" s="2" t="s">
-        <v>45</v>
-      </c>
-      <c r="B48" s="26">
-        <f>IF(B40=definitions!A$23,B40, B40/'FSLogix Calculator'!B$29)</f>
-        <v>5.2599939885782989</v>
-      </c>
-      <c r="C48" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="B48" s="15">
+        <f>B44+B40</f>
+        <v>1638.4</v>
+      </c>
+      <c r="C48" s="57" t="s">
         <v>39</v>
       </c>
-      <c r="D48" s="3"/>
-      <c r="E48" s="4"/>
-    </row>
-    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A49" s="3"/>
+      <c r="D48" s="57"/>
+      <c r="E48" s="57"/>
+    </row>
+    <row r="49" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
       <c r="B49" s="15"/>
-      <c r="C49" s="3"/>
-      <c r="D49" s="3"/>
-    </row>
-    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="C49" s="57"/>
+      <c r="D49" s="57"/>
+      <c r="E49" s="57"/>
+    </row>
+    <row r="50" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A50" s="2" t="s">
         <v>48</v>
       </c>
-      <c r="B50" s="26">
-        <f>IF(B38=definitions!A23,B38,B38/'FSLogix Calculator'!B$37)</f>
-        <v>0.6</v>
+      <c r="B50" s="14">
+        <f>B31/'FSLogix Calculator'!B$5</f>
+        <v>40</v>
       </c>
       <c r="C50" s="3" t="s">
-        <v>46</v>
+        <v>43</v>
       </c>
       <c r="D50" s="3"/>
-    </row>
-    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E50" s="3"/>
+    </row>
+    <row r="51" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A51" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="B51" s="26">
-        <f>IF(B39=definitions!A23,B39,B39/'FSLogix Calculator'!B$37)</f>
-        <v>1.2</v>
+      <c r="B51" s="14">
+        <f>B32/'FSLogix Calculator'!B$5</f>
+        <v>20.48</v>
       </c>
       <c r="C51" s="3" t="s">
-        <v>47</v>
+        <v>44</v>
       </c>
       <c r="D51" s="3"/>
-    </row>
-    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="E51" s="3"/>
+    </row>
+    <row r="52" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A52" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="B52" s="26">
-        <f>IF(B40=definitions!A23,B40,B40/'FSLogix Calculator'!B$37)</f>
-        <v>1.6</v>
+      <c r="B52" s="14">
+        <f>B33/'FSLogix Calculator'!B$5</f>
+        <v>20.48</v>
       </c>
       <c r="C52" s="3" t="s">
         <v>39</v>
       </c>
       <c r="D52" s="3"/>
-    </row>
-    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A54" s="76" t="s">
-        <v>103</v>
-      </c>
-      <c r="B54">
-        <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B14)*(1/'FSLogix Calculator'!B6),1)</f>
-        <v>11722</v>
+      <c r="E52" s="3"/>
+    </row>
+    <row r="53" spans="1:5" ht="25.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="B53" s="14"/>
+      <c r="C53" s="3"/>
+      <c r="D53" s="3"/>
+      <c r="E53" s="3"/>
+    </row>
+    <row r="54" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="B54" s="25" t="e">
+        <f>IF(B46=definitions!A$23,B46, B46/'FSLogix Calculator'!B$30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D54" s="3"/>
+      <c r="E54" s="3"/>
+    </row>
+    <row r="55" spans="1:5" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A55" s="2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B55" s="25" t="e">
+        <f>IF(B47=definitions!A$23,B47, B47/'FSLogix Calculator'!B$30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D55" s="3"/>
+      <c r="E55" s="3"/>
+    </row>
+    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A56" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="B56" s="25" t="e">
+        <f>IF(B48=definitions!A$23,B48, B48/'FSLogix Calculator'!B$30)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D56" s="3"/>
+      <c r="E56" s="4"/>
+    </row>
+    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A57" s="3"/>
+      <c r="B57" s="14"/>
+      <c r="C57" s="3"/>
+      <c r="D57" s="3"/>
+    </row>
+    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A58" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B58" s="25" t="e">
+        <f>IF(B46=definitions!A23,B46,B46/'FSLogix Calculator'!B$38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="D58" s="3"/>
+    </row>
+    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A59" s="2" t="s">
+        <v>46</v>
+      </c>
+      <c r="B59" s="25" t="e">
+        <f>IF(B47=definitions!A23,B47,B47/'FSLogix Calculator'!B$38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="D59" s="3"/>
+    </row>
+    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A60" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="B60" s="25" t="e">
+        <f>IF(B48=definitions!A23,B48,B48/'FSLogix Calculator'!B$38)</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="D60" s="3"/>
+    </row>
+    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A62" s="71" t="s">
+        <v>93</v>
+      </c>
+      <c r="B62">
+        <f>FLOOR(('Azure NetApp Files Calcuations'!B4*1024/'FSLogix Calculator'!B17)*(1/'FSLogix Calculator'!B8),1)</f>
+        <v>3516</v>
       </c>
     </row>
   </sheetData>
@@ -5777,22 +6088,22 @@
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>56</v>
+        <v>53</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>20</v>
       </c>
-      <c r="B2" s="36" t="str">
-        <f>IF('FSLogix Calculator'!B15&gt;definitions!B$38,"Required I/O rate exceeds documented single storage account 10,000 op rate upper limit","Yes")</f>
+      <c r="B2" s="35" t="str">
+        <f>IF('FSLogix Calculator'!B18&gt;definitions!B$42,"Required I/O rate exceeds documented single storage account 10,000 op rate upper limit","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C2" s="37" t="str">
-        <f>IF('FSLogix Calculator'!B$15&gt;definitions!B$38,"No, must configure additional storage accounts","Yes")</f>
+      <c r="C2" s="36" t="str">
+        <f>IF('FSLogix Calculator'!B$18&gt;definitions!B$42,"No, must configure additional storage accounts","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5800,12 +6111,12 @@
       <c r="A3" t="s">
         <v>21</v>
       </c>
-      <c r="B3" s="38" t="str">
-        <f>IF(('FSLogix Calculator'!B13)&gt;definitions!B$39,"Required bandwidth exceeds documented single storage account 300MiB/s  upper limit","Yes")</f>
+      <c r="B3" s="37" t="str">
+        <f>IF(('FSLogix Calculator'!B16)&gt;definitions!B$43,"Required bandwidth exceeds documented single storage account 300MiB/s  upper limit","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C3" s="37" t="str">
-        <f>IF(('FSLogix Calculator'!B13)&gt;definitions!B$39,"No, must configure additional storage accounts","Yes")</f>
+      <c r="C3" s="36" t="str">
+        <f>IF(('FSLogix Calculator'!B16)&gt;definitions!B$43,"No, must configure additional storage accounts","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5813,12 +6124,12 @@
       <c r="A4" t="s">
         <v>38</v>
       </c>
-      <c r="B4" s="36" t="str">
-        <f>IF('FSLogix Calculator'!B16&gt;102400,"Required capacity exceeds documented single storage account 100TiB upper limit","Yes")</f>
+      <c r="B4" s="35" t="str">
+        <f>IF('FSLogix Calculator'!B19&gt;102400,"Required capacity exceeds documented single storage account 100TiB upper limit","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C4" s="37" t="str">
-        <f>IF('FSLogix Calculator'!B16&gt;102400,"No, must configure additional storage accounts","Yes")</f>
+      <c r="C4" s="36" t="str">
+        <f>IF('FSLogix Calculator'!B19&gt;102400,"No, must configure additional storage accounts","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
@@ -5826,190 +6137,190 @@
       <c r="A5" t="s">
         <v>19</v>
       </c>
-      <c r="B5" s="37" t="str">
-        <f>IF(('FSLogix Calculator'!B$4*'FSLogix Calculator'!B$3*'FSLogix Calculator'!B$6)&gt;definitions!B$40,"Required I/O rate exceeds documented single storage account 100,000 op rate upper limit","Yes")</f>
+      <c r="B5" s="36" t="str">
+        <f>IF(('FSLogix Calculator'!B$6*'FSLogix Calculator'!B$5*'FSLogix Calculator'!B$8)&gt;definitions!B$44,"Required I/O rate exceeds documented single storage account 100,000 op rate upper limit","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C5" s="37" t="str">
-        <f>IF(('FSLogix Calculator'!B$4*'FSLogix Calculator'!B$3*'FSLogix Calculator'!B$6)&gt;definitions!B$40,"No","Yes")</f>
+      <c r="C5" s="36" t="str">
+        <f>IF(('FSLogix Calculator'!B$6*'FSLogix Calculator'!B$5*'FSLogix Calculator'!B$8)&gt;definitions!B$44,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>106</v>
-      </c>
-      <c r="B6" s="37" t="str">
-        <f>IF(IF(('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6)&gt;('FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3),'FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6,'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3)&gt;definitions!B42,"Required capacity exceeds documented 100TiB upper limit","Yes")</f>
+        <v>96</v>
+      </c>
+      <c r="B6" s="36" t="str">
+        <f>IF(IF(('FSLogix Calculator'!$B$6*'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$8)&gt;('FSLogix Calculator'!$B$7*'FSLogix Calculator'!$B$5),'FSLogix Calculator'!$B$6*'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$8,'FSLogix Calculator'!$B$7*'FSLogix Calculator'!$B$5)&gt;definitions!B46,"Required capacity exceeds documented 100TiB upper limit","Yes")</f>
         <v>Yes</v>
       </c>
-      <c r="C6" s="37" t="str">
-        <f>IF(IF(('FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6)&gt;('FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3),'FSLogix Calculator'!$B$4*'FSLogix Calculator'!$B$3*'FSLogix Calculator'!$B$6,'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$3)&gt;definitions!B42,"No","Yes")</f>
+      <c r="C6" s="36" t="str">
+        <f>IF(IF(('FSLogix Calculator'!$B$6*'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$8)&gt;('FSLogix Calculator'!$B$7*'FSLogix Calculator'!$B$5),'FSLogix Calculator'!$B$6*'FSLogix Calculator'!$B$5*'FSLogix Calculator'!$B$8,'FSLogix Calculator'!$B$7*'FSLogix Calculator'!$B$5)&gt;definitions!B46,"No","Yes")</f>
         <v>Yes</v>
       </c>
     </row>
     <row r="7" spans="1:3" ht="13.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="2"/>
-      <c r="B7" s="15"/>
+      <c r="B7" s="14"/>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>156</v>
-      </c>
-      <c r="B8" s="15">
-        <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*(1-'FSLogix Calculator'!B9)))-definitions!B43)/definitions!B44</f>
-        <v>-926.25000000000011</v>
+        <v>146</v>
+      </c>
+      <c r="B8" s="14">
+        <f>(('FSLogix Calculator'!B16-('FSLogix Calculator'!B16*(1-'FSLogix Calculator'!B11)))-definitions!B47)/definitions!B48</f>
+        <v>-583.33333333333337</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>157</v>
-      </c>
-      <c r="B9" s="15">
-        <f>(('FSLogix Calculator'!B13-('FSLogix Calculator'!B13*'FSLogix Calculator'!B9))-definitions!B45)/definitions!B46</f>
-        <v>-557.5</v>
+        <v>147</v>
+      </c>
+      <c r="B9" s="14">
+        <f>(('FSLogix Calculator'!B16-('FSLogix Calculator'!B16*'FSLogix Calculator'!B11))-definitions!B49)/definitions!B50</f>
+        <v>1500</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>159</v>
-      </c>
-      <c r="B10" s="15">
+        <v>149</v>
+      </c>
+      <c r="B10" s="14">
         <f>IF(B8&lt;100,100,B8)</f>
         <v>100</v>
       </c>
       <c r="C10" t="s">
-        <v>140</v>
+        <v>130</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>160</v>
-      </c>
-      <c r="B11" s="15">
+        <v>150</v>
+      </c>
+      <c r="B11" s="14">
         <f>IF(B9&lt;100,100,B9)</f>
-        <v>100</v>
+        <v>1500</v>
       </c>
       <c r="C11" t="s">
-        <v>141</v>
+        <v>131</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>158</v>
+        <v>148</v>
       </c>
       <c r="B12" t="str">
         <f>_xlfn.XLOOKUP(MAX(B10:B11),B10:B11,C10:C11)</f>
-        <v>Read Bandwidth</v>
-      </c>
-      <c r="C12" s="15">
+        <v>Write Bandwidth</v>
+      </c>
+      <c r="C12" s="14">
         <f>MAX(B10:B11)</f>
-        <v>100</v>
+        <v>1500</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>162</v>
+        <v>152</v>
       </c>
       <c r="B13" t="str">
-        <f>IF(B9&gt;'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6,"Bandwidth Need","I/O Need")</f>
+        <f>IF(B9&gt;'FSLogix Calculator'!B5*'FSLogix Calculator'!B6*'FSLogix Calculator'!B8,"Bandwidth Need","I/O Need")</f>
         <v>I/O Need</v>
       </c>
-      <c r="C13" s="15">
-        <f>IF(B9&gt;'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6,C$12,'FSLogix Calculator'!B3*'FSLogix Calculator'!B4*'FSLogix Calculator'!B6)</f>
-        <v>708</v>
+      <c r="C13" s="14">
+        <f>IF(B9&gt;'FSLogix Calculator'!B5*'FSLogix Calculator'!B6*'FSLogix Calculator'!B8,C$12,'FSLogix Calculator'!B5*'FSLogix Calculator'!B6*'FSLogix Calculator'!B8)</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>161</v>
+        <v>151</v>
       </c>
       <c r="B14" t="str">
-        <f>IF(C13&gt;'FSLogix Calculator'!B16,'Azure Files Calculations'!B13,"Profile Size")</f>
+        <f>IF(C13&gt;'FSLogix Calculator'!B19,'Azure Files Calculations'!B13,"Profile Size")</f>
         <v>Profile Size</v>
       </c>
-      <c r="C14" s="15">
-        <f>IF(C13&gt;'FSLogix Calculator'!B16,'Azure Files Calculations'!C13,'FSLogix Calculator'!B16)</f>
-        <v>4130</v>
+      <c r="C14" s="14">
+        <f>IF(C13&gt;'FSLogix Calculator'!B19,'Azure Files Calculations'!C13,'FSLogix Calculator'!B19)</f>
+        <v>4000</v>
       </c>
     </row>
     <row r="17" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B17" s="74"/>
+      <c r="B17" s="69"/>
     </row>
     <row r="18" spans="2:2" x14ac:dyDescent="0.25">
-      <c r="B18" s="74"/>
+      <c r="B18" s="69"/>
     </row>
   </sheetData>
   <conditionalFormatting sqref="B3:B4">
-    <cfRule type="cellIs" dxfId="58" priority="15" operator="equal">
+    <cfRule type="cellIs" dxfId="19" priority="15" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="57" priority="16" operator="equal">
+    <cfRule type="cellIs" dxfId="18" priority="16" operator="equal">
       <formula>"No: 300MiB/s is Maximum Supported Load"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2">
-    <cfRule type="containsText" dxfId="56" priority="14" operator="containsText" text="No">
+    <cfRule type="containsText" dxfId="17" priority="14" operator="containsText" text="No">
       <formula>NOT(ISERROR(SEARCH("No",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:B4">
-    <cfRule type="containsText" dxfId="55" priority="4" operator="containsText" text="Yes">
+    <cfRule type="containsText" dxfId="16" priority="4" operator="containsText" text="Yes">
       <formula>NOT(ISERROR(SEARCH("Yes",B2)))</formula>
     </cfRule>
-    <cfRule type="containsText" dxfId="54" priority="5" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="15" priority="5" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="53" priority="13" operator="equal">
+    <cfRule type="cellIs" dxfId="14" priority="13" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="52" priority="12" operator="equal">
+    <cfRule type="cellIs" dxfId="13" priority="12" operator="equal">
       <formula>"""No: 102,400GiB is Maximum Supported Capacity"""</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B4">
-    <cfRule type="cellIs" dxfId="51" priority="9" operator="equal">
+    <cfRule type="cellIs" dxfId="12" priority="9" operator="equal">
       <formula>"No"</formula>
     </cfRule>
-    <cfRule type="cellIs" dxfId="50" priority="11" operator="equal">
+    <cfRule type="cellIs" dxfId="11" priority="11" operator="equal">
       <formula>"No: 102,400GiB is Maximum Supported Capacity"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B3">
-    <cfRule type="cellIs" dxfId="49" priority="10" operator="equal">
+    <cfRule type="cellIs" dxfId="10" priority="10" operator="equal">
       <formula>"No"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C4">
-    <cfRule type="containsText" dxfId="48" priority="8" operator="containsText" text="No: Required ">
+    <cfRule type="containsText" dxfId="9" priority="8" operator="containsText" text="No: Required ">
       <formula>NOT(ISERROR(SEARCH("No: Required ",C2)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C3:C4">
-    <cfRule type="containsText" dxfId="47" priority="7" operator="containsText" text="No:  Required ">
+    <cfRule type="containsText" dxfId="8" priority="7" operator="containsText" text="No:  Required ">
       <formula>NOT(ISERROR(SEARCH("No:  Required ",C3)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C4">
-    <cfRule type="containsText" dxfId="46" priority="6" operator="containsText" text="No:">
+    <cfRule type="containsText" dxfId="7" priority="6" operator="containsText" text="No:">
       <formula>NOT(ISERROR(SEARCH("No:",C4)))</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="C2:C6">
-    <cfRule type="cellIs" dxfId="45" priority="3" operator="equal">
+    <cfRule type="cellIs" dxfId="6" priority="3" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B5:B6">
-    <cfRule type="cellIs" dxfId="44" priority="2" operator="equal">
+    <cfRule type="cellIs" dxfId="5" priority="2" operator="equal">
       <formula>"Yes"</formula>
     </cfRule>
   </conditionalFormatting>
   <conditionalFormatting sqref="B2:C6">
-    <cfRule type="containsText" dxfId="43" priority="1" operator="containsText" text="Required">
+    <cfRule type="containsText" dxfId="4" priority="1" operator="containsText" text="Required">
       <formula>NOT(ISERROR(SEARCH("Required",B2)))</formula>
     </cfRule>
   </conditionalFormatting>
@@ -6020,10 +6331,10 @@
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8274658-AC29-4B53-B5B1-54B6D412C541}">
   <sheetPr codeName="Sheet4"/>
-  <dimension ref="A1:E47"/>
+  <dimension ref="A1:F51"/>
   <sheetViews>
-    <sheetView topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+    <sheetView topLeftCell="A11" workbookViewId="0">
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6032,9 +6343,10 @@
     <col min="2" max="2" width="25.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="34.5703125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="27" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>2</v>
       </c>
@@ -6042,16 +6354,19 @@
         <v>4</v>
       </c>
       <c r="C1" t="s">
-        <v>54</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>60</v>
+        <v>57</v>
       </c>
       <c r="E1" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+        <v>127</v>
+      </c>
+      <c r="F1" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>16</v>
       </c>
@@ -6061,14 +6376,17 @@
       <c r="C2">
         <v>1</v>
       </c>
-      <c r="D2" s="46">
+      <c r="D2" s="45">
         <v>0.25</v>
       </c>
-      <c r="E2" s="46">
+      <c r="E2" s="45">
         <v>0.4</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F2" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>32</v>
       </c>
@@ -6078,14 +6396,17 @@
       <c r="C3">
         <v>2</v>
       </c>
-      <c r="D3" s="46">
+      <c r="D3" s="45">
         <v>0.33</v>
       </c>
-      <c r="E3" s="46">
+      <c r="E3" s="45">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="F3" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>64</v>
       </c>
@@ -6095,115 +6416,115 @@
       <c r="C4">
         <v>5</v>
       </c>
-      <c r="D4" s="46">
+      <c r="D4" s="45">
         <v>0.5</v>
       </c>
-      <c r="E4" s="46">
+      <c r="E4" s="45">
         <v>0.6</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B5">
         <v>20</v>
       </c>
       <c r="C5">
         <v>10</v>
       </c>
-      <c r="D5" s="46">
+      <c r="D5" s="45">
         <v>0.66</v>
       </c>
-      <c r="E5" s="46"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E5" s="45"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B6">
         <v>25</v>
       </c>
       <c r="C6">
         <v>15</v>
       </c>
-      <c r="D6" s="46">
+      <c r="D6" s="45">
         <v>0.75</v>
       </c>
-      <c r="E6" s="46"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E6" s="45"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B7">
         <v>60</v>
       </c>
       <c r="C7">
         <v>20</v>
       </c>
-      <c r="D7" s="46">
+      <c r="D7" s="45">
         <v>1</v>
       </c>
-      <c r="E7" s="46"/>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="E7" s="45"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
       <c r="B8">
         <v>120</v>
       </c>
       <c r="C8">
         <v>25</v>
       </c>
-      <c r="D8" s="46"/>
-      <c r="E8" s="46"/>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D8" s="45"/>
+      <c r="E8" s="45"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C9">
         <v>30</v>
       </c>
-      <c r="D9" s="46"/>
-      <c r="E9" s="46"/>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D9" s="45"/>
+      <c r="E9" s="45"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C10">
         <v>35</v>
       </c>
-      <c r="D10" s="46"/>
-      <c r="E10" s="46"/>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D10" s="45"/>
+      <c r="E10" s="45"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C11">
         <v>40</v>
       </c>
-      <c r="D11" s="46"/>
-      <c r="E11" s="46"/>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D11" s="45"/>
+      <c r="E11" s="45"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C12">
         <v>45</v>
       </c>
-      <c r="D12" s="46"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="D12" s="45"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
       <c r="C13">
         <v>50</v>
       </c>
-      <c r="D13" s="46"/>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D14" s="46"/>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D15" s="46"/>
-    </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
-      <c r="D16" s="46"/>
+      <c r="D13" s="45"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D14" s="45"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D15" s="45"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="D16" s="45"/>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="46"/>
+      <c r="D17" s="45"/>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="46"/>
+      <c r="D18" s="45"/>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="46"/>
+      <c r="D19" s="45"/>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="46"/>
+      <c r="D20" s="45"/>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="46"/>
+      <c r="D21" s="45"/>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
@@ -6212,216 +6533,252 @@
       <c r="B22" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="46"/>
+      <c r="D22" s="45"/>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A23" s="21" t="s">
-        <v>165</v>
+      <c r="A23" s="20" t="s">
+        <v>155</v>
       </c>
       <c r="B23" s="2"/>
-      <c r="D23" s="46"/>
+      <c r="D23" s="45"/>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A24" s="21" t="s">
-        <v>65</v>
-      </c>
-      <c r="B24" s="15">
+      <c r="A24" s="20" t="s">
+        <v>62</v>
+      </c>
+      <c r="B24" s="14">
         <v>102400</v>
       </c>
-      <c r="D24" s="46"/>
+      <c r="D24" s="45"/>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A25" s="21" t="s">
+      <c r="A25" s="20" t="s">
         <v>24</v>
       </c>
-      <c r="B25" s="24">
+      <c r="B25" s="23">
         <v>0.4</v>
       </c>
-      <c r="D25" s="46"/>
+      <c r="D25" s="45"/>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A26" s="21" t="s">
+      <c r="A26" s="20" t="s">
         <v>25</v>
       </c>
-      <c r="B26" s="15">
+      <c r="B26" s="14">
         <v>128</v>
       </c>
-      <c r="D26" s="46"/>
+      <c r="D26" s="45"/>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A27" s="21" t="s">
+      <c r="A27" s="20" t="s">
         <v>26</v>
       </c>
-      <c r="B27" s="24">
+      <c r="B27" s="23">
         <v>0.3</v>
       </c>
-      <c r="D27" s="46"/>
+      <c r="D27" s="45"/>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A28" s="21" t="s">
+      <c r="A28" s="20" t="s">
         <v>27</v>
       </c>
-      <c r="B28" s="15">
+      <c r="B28" s="14">
         <v>64</v>
       </c>
-      <c r="D28" s="46"/>
+      <c r="D28" s="45"/>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A29" s="21" t="s">
+      <c r="A29" s="20" t="s">
         <v>28</v>
       </c>
-      <c r="B29" s="24">
+      <c r="B29" s="23">
         <v>0.15</v>
       </c>
-      <c r="D29" s="46"/>
+      <c r="D29" s="45"/>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A30" s="21" t="s">
+      <c r="A30" s="20" t="s">
         <v>29</v>
       </c>
-      <c r="B30" s="15">
+      <c r="B30" s="14">
         <v>16</v>
       </c>
-      <c r="D30" s="46"/>
+      <c r="D30" s="45"/>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A31" s="21" t="s">
+      <c r="A31" s="20" t="s">
         <v>34</v>
       </c>
-      <c r="B31" s="15">
+      <c r="B31" s="14">
         <v>4096</v>
       </c>
-      <c r="D31" s="46"/>
+      <c r="D31" s="45"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A32" s="21" t="s">
+      <c r="A32" s="20" t="s">
         <v>0</v>
       </c>
-      <c r="B32" s="15">
+      <c r="B32" s="14">
         <v>3600</v>
       </c>
-      <c r="D32" s="46"/>
+      <c r="D32" s="45"/>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A33" s="21" t="s">
+      <c r="A33" s="20" t="s">
         <v>8</v>
       </c>
-      <c r="B33" s="15">
+      <c r="B33" s="14">
         <v>12</v>
       </c>
-      <c r="D33" s="46"/>
+      <c r="D33" s="45"/>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A34" s="21" t="s">
+      <c r="A34" s="20" t="s">
         <v>1</v>
       </c>
-      <c r="B34" s="15">
+      <c r="B34" s="14">
         <v>52</v>
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="20" t="s">
+        <v>159</v>
+      </c>
+      <c r="B35" s="14">
+        <f>7*24</f>
+        <v>168</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="20" t="s">
+        <v>160</v>
+      </c>
+      <c r="B36" s="14">
+        <f>B35-'FSLogix Calculator'!B9</f>
+        <v>128</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="20" t="s">
+        <v>161</v>
+      </c>
+      <c r="B37" s="75">
+        <f>'FSLogix Calculator'!B9/B35</f>
+        <v>0.23809523809523808</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="20" t="s">
+        <v>162</v>
+      </c>
+      <c r="B38" s="75">
+        <f>B36/B35</f>
+        <v>0.76190476190476186</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="B35" s="24">
+      <c r="B39" s="23">
         <v>0.06</v>
       </c>
-      <c r="C35" s="14"/>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A36" s="21" t="s">
+      <c r="C39" s="13"/>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" s="20" t="s">
         <v>11</v>
       </c>
-      <c r="B36" s="25">
+      <c r="B40" s="24">
         <f>0.0015/10000</f>
         <v>1.4999999999999999E-7</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A37" s="21" t="s">
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" s="20" t="s">
         <v>10</v>
       </c>
-      <c r="B37" s="24">
-        <v>0.25</v>
-      </c>
-    </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A38" s="21" t="s">
+      <c r="B41" s="23">
+        <v>0.16</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" s="20" t="s">
         <v>12</v>
       </c>
-      <c r="B38" s="15">
+      <c r="B42" s="14">
         <v>10000</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A39" s="21" t="s">
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" s="20" t="s">
         <v>13</v>
       </c>
-      <c r="B39" s="15">
+      <c r="B43" s="14">
         <v>300</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A40" s="21" t="s">
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" s="20" t="s">
         <v>14</v>
       </c>
-      <c r="B40" s="15">
+      <c r="B44" s="14">
         <v>100000</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A41" s="21" t="s">
-        <v>104</v>
-      </c>
-      <c r="B41" s="15">
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="20" t="s">
+        <v>94</v>
+      </c>
+      <c r="B45" s="14">
         <v>102400</v>
       </c>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A42" s="21" t="s">
-        <v>105</v>
-      </c>
-      <c r="B42" s="15">
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="20" t="s">
+        <v>95</v>
+      </c>
+      <c r="B46" s="14">
         <v>102400</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A43" s="21" t="s">
-        <v>152</v>
-      </c>
-      <c r="B43" s="15">
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="20" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" s="14">
         <v>60</v>
       </c>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A44" s="21" t="s">
-        <v>153</v>
-      </c>
-      <c r="B44" s="73">
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="20" t="s">
+        <v>143</v>
+      </c>
+      <c r="B48" s="68">
         <v>0.06</v>
       </c>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A45" s="21" t="s">
-        <v>154</v>
-      </c>
-      <c r="B45" s="15">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A49" s="20" t="s">
+        <v>144</v>
+      </c>
+      <c r="B49" s="14">
         <v>40</v>
       </c>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A46" s="21" t="s">
-        <v>155</v>
-      </c>
-      <c r="B46" s="73">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A50" s="20" t="s">
+        <v>145</v>
+      </c>
+      <c r="B50" s="68">
         <v>0.04</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A47" s="21" t="s">
-        <v>109</v>
-      </c>
-      <c r="B47" s="26">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A51" s="20" t="s">
+        <v>99</v>
+      </c>
+      <c r="B51" s="25">
         <v>0.4</v>
       </c>
     </row>
@@ -6455,120 +6812,120 @@
   <sheetData>
     <row r="1" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>114</v>
+      </c>
+      <c r="B1" t="s">
+        <v>115</v>
+      </c>
+      <c r="C1" t="s">
+        <v>116</v>
+      </c>
+      <c r="D1" t="s">
+        <v>117</v>
+      </c>
+      <c r="E1" t="s">
+        <v>118</v>
+      </c>
+      <c r="F1" t="s">
+        <v>119</v>
+      </c>
+      <c r="G1" t="s">
+        <v>120</v>
+      </c>
+      <c r="H1" t="s">
+        <v>121</v>
+      </c>
+      <c r="I1" t="s">
+        <v>122</v>
+      </c>
+      <c r="J1" t="s">
+        <v>123</v>
+      </c>
+      <c r="K1" t="s">
         <v>124</v>
       </c>
-      <c r="B1" t="s">
+      <c r="L1" t="s">
         <v>125</v>
       </c>
-      <c r="C1" t="s">
+      <c r="M1" t="s">
         <v>126</v>
       </c>
-      <c r="D1" t="s">
-        <v>127</v>
-      </c>
-      <c r="E1" t="s">
-        <v>128</v>
-      </c>
-      <c r="F1" t="s">
-        <v>129</v>
-      </c>
-      <c r="G1" t="s">
-        <v>130</v>
-      </c>
-      <c r="H1" t="s">
-        <v>131</v>
-      </c>
-      <c r="I1" t="s">
-        <v>132</v>
-      </c>
-      <c r="J1" t="s">
-        <v>133</v>
-      </c>
-      <c r="K1" t="s">
-        <v>134</v>
-      </c>
-      <c r="L1" t="s">
-        <v>135</v>
-      </c>
-      <c r="M1" t="s">
-        <v>136</v>
-      </c>
       <c r="N1" t="s">
+        <v>116</v>
+      </c>
+      <c r="O1" t="s">
+        <v>117</v>
+      </c>
+      <c r="P1" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>119</v>
+      </c>
+      <c r="R1" t="s">
+        <v>120</v>
+      </c>
+      <c r="S1" t="s">
+        <v>121</v>
+      </c>
+      <c r="T1" t="s">
+        <v>122</v>
+      </c>
+      <c r="U1" t="s">
+        <v>123</v>
+      </c>
+      <c r="V1" t="s">
+        <v>124</v>
+      </c>
+      <c r="W1" t="s">
+        <v>125</v>
+      </c>
+      <c r="X1" t="s">
         <v>126</v>
       </c>
-      <c r="O1" t="s">
-        <v>127</v>
-      </c>
-      <c r="P1" t="s">
-        <v>128</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>129</v>
-      </c>
-      <c r="R1" t="s">
-        <v>130</v>
-      </c>
-      <c r="S1" t="s">
-        <v>131</v>
-      </c>
-      <c r="T1" t="s">
-        <v>132</v>
-      </c>
-      <c r="U1" t="s">
-        <v>133</v>
-      </c>
-      <c r="V1" t="s">
-        <v>134</v>
-      </c>
-      <c r="W1" t="s">
-        <v>135</v>
-      </c>
-      <c r="X1" t="s">
-        <v>136</v>
-      </c>
       <c r="Y1" t="s">
+        <v>116</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>117</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>118</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>119</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>120</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>121</v>
+      </c>
+      <c r="AE1" t="s">
+        <v>122</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>123</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>124</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>125</v>
+      </c>
+      <c r="AI1" t="s">
         <v>126</v>
-      </c>
-      <c r="Z1" t="s">
-        <v>127</v>
-      </c>
-      <c r="AA1" t="s">
-        <v>128</v>
-      </c>
-      <c r="AB1" t="s">
-        <v>129</v>
-      </c>
-      <c r="AC1" t="s">
-        <v>130</v>
-      </c>
-      <c r="AD1" t="s">
-        <v>131</v>
-      </c>
-      <c r="AE1" t="s">
-        <v>132</v>
-      </c>
-      <c r="AF1" t="s">
-        <v>133</v>
-      </c>
-      <c r="AG1" t="s">
-        <v>134</v>
-      </c>
-      <c r="AH1" t="s">
-        <v>135</v>
-      </c>
-      <c r="AI1" t="s">
-        <v>136</v>
       </c>
     </row>
     <row r="2" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C2" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D2">
         <v>9027</v>
@@ -6579,7 +6936,7 @@
       <c r="F2">
         <v>65536</v>
       </c>
-      <c r="G2" s="46">
+      <c r="G2" s="45">
         <v>1</v>
       </c>
       <c r="H2">
@@ -6601,7 +6958,7 @@
         <v>124</v>
       </c>
       <c r="N2" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O2">
         <v>60267</v>
@@ -6613,7 +6970,7 @@
         <v>65536</v>
       </c>
       <c r="R2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="S2">
         <v>2.1063333333299998</v>
@@ -6634,7 +6991,7 @@
         <v>126</v>
       </c>
       <c r="Y2" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z2">
         <v>17027</v>
@@ -6646,7 +7003,7 @@
         <v>65536</v>
       </c>
       <c r="AC2" t="s">
-        <v>113</v>
+        <v>103</v>
       </c>
       <c r="AD2">
         <v>7.4829999999999997</v>
@@ -6669,13 +7026,13 @@
     </row>
     <row r="3" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B3" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C3" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D3">
         <v>8997</v>
@@ -6686,7 +7043,7 @@
       <c r="F3">
         <v>65536</v>
       </c>
-      <c r="G3" s="46">
+      <c r="G3" s="45">
         <v>0.9</v>
       </c>
       <c r="H3">
@@ -6708,7 +7065,7 @@
         <v>125</v>
       </c>
       <c r="N3" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O3">
         <v>57317</v>
@@ -6720,7 +7077,7 @@
         <v>65536</v>
       </c>
       <c r="R3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="S3">
         <v>2.2126666666700001</v>
@@ -6741,7 +7098,7 @@
         <v>126</v>
       </c>
       <c r="Y3" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z3">
         <v>18481</v>
@@ -6753,7 +7110,7 @@
         <v>65536</v>
       </c>
       <c r="AC3" t="s">
-        <v>114</v>
+        <v>104</v>
       </c>
       <c r="AD3">
         <v>6.8860000000000001</v>
@@ -6776,13 +7133,13 @@
     </row>
     <row r="4" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C4" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D4">
         <v>8570</v>
@@ -6793,7 +7150,7 @@
       <c r="F4">
         <v>65536</v>
       </c>
-      <c r="G4" s="46">
+      <c r="G4" s="45">
         <v>0.8</v>
       </c>
       <c r="H4">
@@ -6815,7 +7172,7 @@
         <v>125</v>
       </c>
       <c r="N4" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O4">
         <v>52732</v>
@@ -6827,7 +7184,7 @@
         <v>65536</v>
       </c>
       <c r="R4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="S4">
         <v>2.4056666666700002</v>
@@ -6848,7 +7205,7 @@
         <v>126</v>
       </c>
       <c r="Y4" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z4">
         <v>19153</v>
@@ -6860,7 +7217,7 @@
         <v>65536</v>
       </c>
       <c r="AC4" t="s">
-        <v>115</v>
+        <v>105</v>
       </c>
       <c r="AD4">
         <v>6.6449999999999996</v>
@@ -6883,13 +7240,13 @@
     </row>
     <row r="5" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B5" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C5" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D5">
         <v>7871</v>
@@ -6900,7 +7257,7 @@
       <c r="F5">
         <v>65536</v>
       </c>
-      <c r="G5" s="46">
+      <c r="G5" s="45">
         <v>0.7</v>
       </c>
       <c r="H5">
@@ -6922,7 +7279,7 @@
         <v>125</v>
       </c>
       <c r="N5" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O5">
         <v>51478</v>
@@ -6934,7 +7291,7 @@
         <v>65536</v>
       </c>
       <c r="R5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="S5">
         <v>2.4623333333300002</v>
@@ -6955,7 +7312,7 @@
         <v>126</v>
       </c>
       <c r="Y5" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z5">
         <v>19764</v>
@@ -6967,7 +7324,7 @@
         <v>65536</v>
       </c>
       <c r="AC5" t="s">
-        <v>116</v>
+        <v>106</v>
       </c>
       <c r="AD5">
         <v>6.4393333333299996</v>
@@ -6990,13 +7347,13 @@
     </row>
     <row r="6" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B6" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C6" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D6">
         <v>6853</v>
@@ -7007,7 +7364,7 @@
       <c r="F6">
         <v>65536</v>
       </c>
-      <c r="G6" s="46">
+      <c r="G6" s="45">
         <v>0.6</v>
       </c>
       <c r="H6">
@@ -7029,7 +7386,7 @@
         <v>124</v>
       </c>
       <c r="N6" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O6">
         <v>48993</v>
@@ -7041,7 +7398,7 @@
         <v>65536</v>
       </c>
       <c r="R6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="S6">
         <v>2.5903333333299998</v>
@@ -7062,7 +7419,7 @@
         <v>126</v>
       </c>
       <c r="Y6" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z6">
         <v>19712</v>
@@ -7074,7 +7431,7 @@
         <v>65536</v>
       </c>
       <c r="AC6" t="s">
-        <v>117</v>
+        <v>107</v>
       </c>
       <c r="AD6">
         <v>6.4546666666699997</v>
@@ -7097,13 +7454,13 @@
     </row>
     <row r="7" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B7" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C7" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D7">
         <v>9303</v>
@@ -7114,7 +7471,7 @@
       <c r="F7">
         <v>65536</v>
       </c>
-      <c r="G7" s="46">
+      <c r="G7" s="45">
         <v>0.5</v>
       </c>
       <c r="H7">
@@ -7136,7 +7493,7 @@
         <v>123</v>
       </c>
       <c r="N7" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O7">
         <v>47054</v>
@@ -7148,7 +7505,7 @@
         <v>65536</v>
       </c>
       <c r="R7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="S7">
         <v>2.6956666666700002</v>
@@ -7169,7 +7526,7 @@
         <v>126</v>
       </c>
       <c r="Y7" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z7">
         <v>19788</v>
@@ -7181,7 +7538,7 @@
         <v>65536</v>
       </c>
       <c r="AC7" t="s">
-        <v>118</v>
+        <v>108</v>
       </c>
       <c r="AD7">
         <v>6.4283333333300003</v>
@@ -7204,13 +7561,13 @@
     </row>
     <row r="8" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B8" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C8" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D8">
         <v>7216</v>
@@ -7221,7 +7578,7 @@
       <c r="F8">
         <v>65536</v>
       </c>
-      <c r="G8" s="46">
+      <c r="G8" s="45">
         <v>0.4</v>
       </c>
       <c r="H8">
@@ -7243,7 +7600,7 @@
         <v>125</v>
       </c>
       <c r="N8" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O8">
         <v>42934</v>
@@ -7255,7 +7612,7 @@
         <v>65536</v>
       </c>
       <c r="R8" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="S8">
         <v>2.9540000000000002</v>
@@ -7276,7 +7633,7 @@
         <v>126</v>
       </c>
       <c r="Y8" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z8">
         <v>18790</v>
@@ -7288,7 +7645,7 @@
         <v>65536</v>
       </c>
       <c r="AC8" t="s">
-        <v>119</v>
+        <v>109</v>
       </c>
       <c r="AD8">
         <v>6.7686666666699997</v>
@@ -7311,13 +7668,13 @@
     </row>
     <row r="9" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B9" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C9" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D9">
         <v>8643</v>
@@ -7328,7 +7685,7 @@
       <c r="F9">
         <v>65536</v>
       </c>
-      <c r="G9" s="46">
+      <c r="G9" s="45">
         <v>0.3</v>
       </c>
       <c r="H9">
@@ -7350,7 +7707,7 @@
         <v>125</v>
       </c>
       <c r="N9" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O9">
         <v>38865</v>
@@ -7362,7 +7719,7 @@
         <v>65536</v>
       </c>
       <c r="R9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="S9">
         <v>3.26633333333</v>
@@ -7383,7 +7740,7 @@
         <v>126</v>
       </c>
       <c r="Y9" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z9">
         <v>17559</v>
@@ -7395,7 +7752,7 @@
         <v>65536</v>
       </c>
       <c r="AC9" t="s">
-        <v>120</v>
+        <v>110</v>
       </c>
       <c r="AD9">
         <v>7.2423333333300004</v>
@@ -7418,13 +7775,13 @@
     </row>
     <row r="10" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B10" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C10" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D10">
         <v>8431</v>
@@ -7435,7 +7792,7 @@
       <c r="F10">
         <v>65536</v>
       </c>
-      <c r="G10" s="46">
+      <c r="G10" s="45">
         <v>0.2</v>
       </c>
       <c r="H10">
@@ -7457,7 +7814,7 @@
         <v>126</v>
       </c>
       <c r="N10" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O10">
         <v>35170</v>
@@ -7469,7 +7826,7 @@
         <v>65536</v>
       </c>
       <c r="R10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="S10">
         <v>3.6153333333300002</v>
@@ -7490,7 +7847,7 @@
         <v>126</v>
       </c>
       <c r="Y10" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z10">
         <v>16162</v>
@@ -7502,7 +7859,7 @@
         <v>65536</v>
       </c>
       <c r="AC10" t="s">
-        <v>121</v>
+        <v>111</v>
       </c>
       <c r="AD10">
         <v>7.8673333333300004</v>
@@ -7525,13 +7882,13 @@
     </row>
     <row r="11" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B11" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C11" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D11">
         <v>10134</v>
@@ -7542,7 +7899,7 @@
       <c r="F11">
         <v>65536</v>
       </c>
-      <c r="G11" s="46">
+      <c r="G11" s="45">
         <v>0.1</v>
       </c>
       <c r="H11">
@@ -7564,7 +7921,7 @@
         <v>125</v>
       </c>
       <c r="N11" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O11">
         <v>31849</v>
@@ -7576,7 +7933,7 @@
         <v>65536</v>
       </c>
       <c r="R11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="S11">
         <v>3.99633333333</v>
@@ -7597,7 +7954,7 @@
         <v>126</v>
       </c>
       <c r="Y11" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z11">
         <v>15215</v>
@@ -7609,7 +7966,7 @@
         <v>65536</v>
       </c>
       <c r="AC11" t="s">
-        <v>122</v>
+        <v>112</v>
       </c>
       <c r="AD11">
         <v>8.3573333333300006</v>
@@ -7632,13 +7989,13 @@
     </row>
     <row r="12" spans="1:35" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>110</v>
+        <v>100</v>
       </c>
       <c r="B12" t="s">
-        <v>111</v>
+        <v>101</v>
       </c>
       <c r="C12" t="s">
-        <v>112</v>
+        <v>102</v>
       </c>
       <c r="D12">
         <v>9700</v>
@@ -7649,7 +8006,7 @@
       <c r="F12">
         <v>65536</v>
       </c>
-      <c r="G12" s="46">
+      <c r="G12" s="45">
         <v>0</v>
       </c>
       <c r="H12">
@@ -7671,7 +8028,7 @@
         <v>127</v>
       </c>
       <c r="N12" t="s">
-        <v>81</v>
+        <v>73</v>
       </c>
       <c r="O12">
         <v>29482</v>
@@ -7683,7 +8040,7 @@
         <v>65536</v>
       </c>
       <c r="R12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="S12">
         <v>4.3016666666700001</v>
@@ -7704,7 +8061,7 @@
         <v>126</v>
       </c>
       <c r="Y12" t="s">
-        <v>83</v>
+        <v>74</v>
       </c>
       <c r="Z12">
         <v>14265</v>
@@ -7716,7 +8073,7 @@
         <v>65536</v>
       </c>
       <c r="AC12" t="s">
-        <v>123</v>
+        <v>113</v>
       </c>
       <c r="AD12">
         <v>8.9133333333299998</v>
@@ -7750,6 +8107,15 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100050FBA8A9F0AFB4BB2D0148D6A234C38" ma:contentTypeVersion="13" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="74183e733b66e5e9a3cd5553bd4bd9ac">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="4a052287-e6d5-446a-afc6-58987b850d5f" xmlns:ns4="943a090e-7b96-4eb7-abc0-264fa36c6c5d" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="6b903754823e47922d1d3c75b6236d24" ns3:_="" ns4:_="">
     <xsd:import namespace="4a052287-e6d5-446a-afc6-58987b850d5f"/>
@@ -7972,33 +8338,32 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{7769B51B-49EA-4054-A0C2-A13FF67FB754}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://purl.org/dc/terms/"/>
     <ds:schemaRef ds:uri="4a052287-e6d5-446a-afc6-58987b850d5f"/>
-    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/documentManagement/types"/>
     <ds:schemaRef ds:uri="http://purl.org/dc/elements/1.1/"/>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
     <ds:schemaRef ds:uri="http://schemas.openxmlformats.org/package/2006/metadata/core-properties"/>
     <ds:schemaRef ds:uri="943a090e-7b96-4eb7-abc0-264fa36c6c5d"/>
     <ds:schemaRef ds:uri="http://www.w3.org/XML/1998/namespace"/>
+    <ds:schemaRef ds:uri="http://purl.org/dc/dcmitype/"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{097D0541-97F4-46BE-8711-51CFA8DE5931}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -8015,12 +8380,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DEEC18BF-42E1-4B07-B0F9-328B1505E1A9}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>